--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="294">
   <si>
     <t>RLA0</t>
   </si>
@@ -632,111 +632,18 @@
     <t>~15kV / ~25kV / =1500V / =3kV</t>
   </si>
   <si>
-    <t>=850V</t>
-  </si>
-  <si>
     <t>=730V</t>
   </si>
   <si>
     <t>BBA3</t>
   </si>
   <si>
-    <t>GAAN</t>
-  </si>
-  <si>
-    <t>GBAN</t>
-  </si>
-  <si>
-    <t>GCAN</t>
-  </si>
-  <si>
-    <t>GDAN</t>
-  </si>
-  <si>
-    <t>GAAd</t>
-  </si>
-  <si>
-    <t>GBAd</t>
-  </si>
-  <si>
-    <t>GCAd</t>
-  </si>
-  <si>
-    <t>GDAd</t>
-  </si>
-  <si>
-    <t>GBA=</t>
-  </si>
-  <si>
-    <t>GBA~</t>
-  </si>
-  <si>
-    <t>GAAD</t>
-  </si>
-  <si>
-    <t>GBAD</t>
-  </si>
-  <si>
-    <t>GCAD</t>
-  </si>
-  <si>
-    <t>GDAD</t>
-  </si>
-  <si>
-    <t>GAAa</t>
-  </si>
-  <si>
-    <t>GBAa</t>
-  </si>
-  <si>
-    <t>GCAa</t>
-  </si>
-  <si>
-    <t>GDAa</t>
-  </si>
-  <si>
-    <t>GHAa</t>
-  </si>
-  <si>
-    <t>GAAA</t>
-  </si>
-  <si>
-    <t>GBAA</t>
-  </si>
-  <si>
-    <t>GCAA</t>
-  </si>
-  <si>
-    <t>GDAA</t>
-  </si>
-  <si>
-    <t>GHAA</t>
-  </si>
-  <si>
     <t>SHAA</t>
   </si>
   <si>
     <t>SHAa</t>
   </si>
   <si>
-    <t>GCA^</t>
-  </si>
-  <si>
-    <t>GCA_</t>
-  </si>
-  <si>
-    <t>GCA*</t>
-  </si>
-  <si>
-    <t>SCA^</t>
-  </si>
-  <si>
-    <t>SCA_</t>
-  </si>
-  <si>
-    <t>SCA*</t>
-  </si>
-  <si>
     <t>~15kV / =3kV</t>
   </si>
   <si>
@@ -749,54 +656,12 @@
     <t>~15kV / =1500V / =3kV</t>
   </si>
   <si>
-    <t>GCA[</t>
-  </si>
-  <si>
-    <t>GCA]</t>
-  </si>
-  <si>
-    <t>GCA(</t>
-  </si>
-  <si>
-    <t>GCA)</t>
-  </si>
-  <si>
     <t>=1500V / 3kV</t>
   </si>
   <si>
     <t>~15kV / 25kV</t>
   </si>
   <si>
-    <t>GCA'</t>
-  </si>
-  <si>
-    <t>GCA,</t>
-  </si>
-  <si>
-    <t>SCA[</t>
-  </si>
-  <si>
-    <t>SCA]</t>
-  </si>
-  <si>
-    <t>SCA(</t>
-  </si>
-  <si>
-    <t>SCA)</t>
-  </si>
-  <si>
-    <t>SCA'</t>
-  </si>
-  <si>
-    <t>SCA,</t>
-  </si>
-  <si>
-    <t>SBA~</t>
-  </si>
-  <si>
-    <t>SBA=</t>
-  </si>
-  <si>
     <t>NDAN</t>
   </si>
   <si>
@@ -806,42 +671,12 @@
     <t>NDAd</t>
   </si>
   <si>
-    <t>NBA=</t>
-  </si>
-  <si>
     <t>NCAD</t>
   </si>
   <si>
     <t>NDAD</t>
   </si>
   <si>
-    <t>NCA[</t>
-  </si>
-  <si>
-    <t>NCA]</t>
-  </si>
-  <si>
-    <t>NCA(</t>
-  </si>
-  <si>
-    <t>NCA)</t>
-  </si>
-  <si>
-    <t>NCA^</t>
-  </si>
-  <si>
-    <t>NCA'</t>
-  </si>
-  <si>
-    <t>NCA,</t>
-  </si>
-  <si>
-    <t>NCA_</t>
-  </si>
-  <si>
-    <t>NCA*</t>
-  </si>
-  <si>
     <t>NCAa</t>
   </si>
   <si>
@@ -851,9 +686,6 @@
     <t>NHAa</t>
   </si>
   <si>
-    <t>NBA~</t>
-  </si>
-  <si>
     <t>NCAA</t>
   </si>
   <si>
@@ -870,13 +702,217 @@
   </si>
   <si>
     <t>NBA4</t>
+  </si>
+  <si>
+    <t>BAAN</t>
+  </si>
+  <si>
+    <t>BBAN</t>
+  </si>
+  <si>
+    <t>BCAN</t>
+  </si>
+  <si>
+    <t>BDAN</t>
+  </si>
+  <si>
+    <t>BAAd</t>
+  </si>
+  <si>
+    <t>BBAd</t>
+  </si>
+  <si>
+    <t>BCAd</t>
+  </si>
+  <si>
+    <t>BDAd</t>
+  </si>
+  <si>
+    <t>BBA=</t>
+  </si>
+  <si>
+    <t>BAAD</t>
+  </si>
+  <si>
+    <t>BBAD</t>
+  </si>
+  <si>
+    <t>BCAD</t>
+  </si>
+  <si>
+    <t>BDAD</t>
+  </si>
+  <si>
+    <t>BCA[</t>
+  </si>
+  <si>
+    <t>BCA]</t>
+  </si>
+  <si>
+    <t>BCA(</t>
+  </si>
+  <si>
+    <t>BCA)</t>
+  </si>
+  <si>
+    <t>BCA^</t>
+  </si>
+  <si>
+    <t>BCA'</t>
+  </si>
+  <si>
+    <t>BCA,</t>
+  </si>
+  <si>
+    <t>BCA_</t>
+  </si>
+  <si>
+    <t>BCA*</t>
+  </si>
+  <si>
+    <t>BAAa</t>
+  </si>
+  <si>
+    <t>BBAa</t>
+  </si>
+  <si>
+    <t>BCAa</t>
+  </si>
+  <si>
+    <t>BDAa</t>
+  </si>
+  <si>
+    <t>BHAa</t>
+  </si>
+  <si>
+    <t>BAAA</t>
+  </si>
+  <si>
+    <t>BBAA</t>
+  </si>
+  <si>
+    <t>BCAA</t>
+  </si>
+  <si>
+    <t>BDAA</t>
+  </si>
+  <si>
+    <t>BHAA</t>
+  </si>
+  <si>
+    <t>=750V</t>
+  </si>
+  <si>
+    <t>BAA3</t>
+  </si>
+  <si>
+    <t>BCA3</t>
+  </si>
+  <si>
+    <t>BDA3</t>
+  </si>
+  <si>
+    <t>SBAZ</t>
+  </si>
+  <si>
+    <t>SCAZ</t>
+  </si>
+  <si>
+    <t>BAAZ</t>
+  </si>
+  <si>
+    <t>BBAZ</t>
+  </si>
+  <si>
+    <t>BCAZ</t>
+  </si>
+  <si>
+    <t>NCAZ</t>
+  </si>
+  <si>
+    <t>xUSSR</t>
+  </si>
+  <si>
+    <t>SMITS</t>
+  </si>
+  <si>
+    <t>SAA[</t>
+  </si>
+  <si>
+    <t>SAA]</t>
+  </si>
+  <si>
+    <t>SAA(</t>
+  </si>
+  <si>
+    <t>SAA)</t>
+  </si>
+  <si>
+    <t>SAA^</t>
+  </si>
+  <si>
+    <t>SAA'</t>
+  </si>
+  <si>
+    <t>SAA,</t>
+  </si>
+  <si>
+    <t>SAA_</t>
+  </si>
+  <si>
+    <t>SAA*</t>
+  </si>
+  <si>
+    <t>NAA[</t>
+  </si>
+  <si>
+    <t>NAA]</t>
+  </si>
+  <si>
+    <t>NAA(</t>
+  </si>
+  <si>
+    <t>NAA)</t>
+  </si>
+  <si>
+    <t>NAA^</t>
+  </si>
+  <si>
+    <t>NAA'</t>
+  </si>
+  <si>
+    <t>NAA,</t>
+  </si>
+  <si>
+    <t>NAA_</t>
+  </si>
+  <si>
+    <t>NAA*</t>
+  </si>
+  <si>
+    <t>NAA=</t>
+  </si>
+  <si>
+    <t>SAA=</t>
+  </si>
+  <si>
+    <t>=750V / ~25kV</t>
+  </si>
+  <si>
+    <t>BBA$</t>
+  </si>
+  <si>
+    <t>SAA$</t>
+  </si>
+  <si>
+    <t>NAA$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1082,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1121,7 +1173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1260,21 +1312,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1344,6 +1381,101 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1353,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1769,106 +1901,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,23 +2000,47 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
@@ -1907,10 +2051,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,12 +2086,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFF9999"/>
     </mruColors>
@@ -2214,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X57" sqref="A1:X57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,63 +2394,76 @@
     <col min="13" max="13" width="22.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="6.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="3"/>
-    <col min="27" max="27" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16" width="3.42578125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="41.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <f>F57+O57+X57</f>
+        <f>F61+O61+Y61</f>
         <v>64</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="188" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="191" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="188" t="s">
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="193" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="186" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="143"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="193" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" s="186" t="s">
+        <v>269</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="156" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2302,8 +2472,8 @@
       <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="144" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="142" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2323,41 +2493,43 @@
       <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="144" t="s">
+      <c r="O2" s="194"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="S2" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="102" t="s">
+      <c r="T2" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="184" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="188" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>35</v>
@@ -2368,7 +2540,7 @@
       <c r="F3" s="140">
         <v>1</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="143" t="s">
         <v>182</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2392,47 +2564,53 @@
       <c r="N3" s="46">
         <v>80</v>
       </c>
-      <c r="O3" s="143">
-        <v>1</v>
-      </c>
-      <c r="P3" s="146" t="s">
+      <c r="O3" s="180">
+        <v>1</v>
+      </c>
+      <c r="P3" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="103">
+      <c r="S3" s="103">
         <v>60</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="T3" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="45" t="s">
+      <c r="U3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="46">
+      <c r="X3" s="46">
         <v>60</v>
       </c>
-      <c r="X3" s="143">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="185">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="185"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="189"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
@@ -2443,7 +2621,7 @@
       <c r="F4" s="140">
         <v>1</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="143" t="s">
         <v>99</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2467,47 +2645,53 @@
       <c r="N4" s="46">
         <v>125</v>
       </c>
-      <c r="O4" s="143">
-        <v>1</v>
-      </c>
-      <c r="P4" s="146" t="s">
+      <c r="O4" s="180">
+        <v>1</v>
+      </c>
+      <c r="P4" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="103">
+      <c r="S4" s="103">
         <v>100</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="T4" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="U4" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="W4" s="46">
+      <c r="X4" s="46">
         <v>90</v>
       </c>
-      <c r="X4" s="143">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="185">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="189"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>35</v>
@@ -2518,7 +2702,7 @@
       <c r="F5" s="140">
         <v>1</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="143" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2542,43 +2726,49 @@
       <c r="N5" s="46">
         <v>180</v>
       </c>
-      <c r="O5" s="143">
-        <v>1</v>
-      </c>
-      <c r="P5" s="146" t="s">
+      <c r="O5" s="180">
+        <v>1</v>
+      </c>
+      <c r="P5" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="103">
+      <c r="S5" s="103">
         <v>140</v>
       </c>
-      <c r="S5" s="106"/>
-      <c r="T5" s="45" t="s">
+      <c r="T5" s="106"/>
+      <c r="U5" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="46" t="s">
+      <c r="V5" s="4"/>
+      <c r="W5" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="W5" s="46">
+      <c r="X5" s="46">
         <v>120</v>
       </c>
-      <c r="X5" s="143">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="43" t="s">
+      <c r="Y5" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="185">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="189"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>35</v>
@@ -2589,7 +2779,7 @@
       <c r="F6" s="140">
         <v>1</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="143" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2609,38 +2799,44 @@
       <c r="N6" s="46">
         <v>245</v>
       </c>
-      <c r="O6" s="143">
-        <v>1</v>
-      </c>
-      <c r="P6" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="O6" s="180">
+        <v>1</v>
+      </c>
+      <c r="P6" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="103">
+      <c r="S6" s="103">
         <v>250</v>
       </c>
-      <c r="S6" s="106"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="46"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="46"/>
-      <c r="X6" s="143">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="58" t="s">
+      <c r="X6" s="46"/>
+      <c r="Y6" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="185">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="189"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="140"/>
-      <c r="G7" s="147"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="4"/>
       <c r="I7" s="103"/>
       <c r="J7" s="106"/>
@@ -2648,38 +2844,44 @@
       <c r="L7" s="4"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
-      <c r="O7" s="143">
-        <v>0</v>
-      </c>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="45" t="s">
+      <c r="O7" s="180">
+        <v>0</v>
+      </c>
+      <c r="P7" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="4"/>
+      <c r="W7" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="W7" s="46">
+      <c r="X7" s="46">
         <v>60</v>
       </c>
-      <c r="X7" s="143">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="72" t="s">
+      <c r="Y7" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="185">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="72" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185"/>
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="189"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="140"/>
-      <c r="G8" s="147"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="4"/>
       <c r="I8" s="103"/>
       <c r="J8" s="106"/>
@@ -2687,33 +2889,39 @@
       <c r="L8" s="4"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
-      <c r="O8" s="143">
-        <v>0</v>
-      </c>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="45" t="s">
+      <c r="O8" s="180">
+        <v>0</v>
+      </c>
+      <c r="P8" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="46" t="s">
+      <c r="V8" s="4"/>
+      <c r="W8" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="W8" s="46">
+      <c r="X8" s="46">
         <v>120</v>
       </c>
-      <c r="X8" s="143">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="74" t="s">
+      <c r="Y8" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="185">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" s="38"/>
+      <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="184" t="s">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="188" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="34"/>
@@ -2723,7 +2931,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="140"/>
-      <c r="G9" s="148"/>
+      <c r="G9" s="145"/>
       <c r="H9" s="35"/>
       <c r="I9" s="107"/>
       <c r="J9" s="108" t="s">
@@ -2737,34 +2945,40 @@
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="47"/>
-      <c r="O9" s="143">
-        <v>0</v>
-      </c>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="108" t="s">
+      <c r="O9" s="180">
+        <v>0</v>
+      </c>
+      <c r="P9" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="49" t="s">
+      <c r="U9" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="V9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="W9" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="47">
+      <c r="X9" s="47">
         <v>60</v>
       </c>
-      <c r="X9" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="38"/>
+      <c r="Y9" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="189"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
@@ -2772,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="140"/>
-      <c r="G10" s="148"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="35"/>
       <c r="I10" s="107"/>
       <c r="J10" s="109" t="s">
@@ -2790,40 +3004,46 @@
       <c r="N10" s="47">
         <v>125</v>
       </c>
-      <c r="O10" s="143">
-        <v>0</v>
-      </c>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108" t="s">
+      <c r="O10" s="180">
+        <v>0</v>
+      </c>
+      <c r="P10" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="U10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="V10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="47" t="s">
+      <c r="W10" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="W10" s="47">
+      <c r="X10" s="47">
         <v>90</v>
       </c>
-      <c r="X10" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="38"/>
+      <c r="Y10" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="189"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="140"/>
-      <c r="G11" s="148"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="35"/>
       <c r="I11" s="107"/>
       <c r="J11" s="109"/>
@@ -2837,30 +3057,36 @@
       <c r="N11" s="47">
         <v>160</v>
       </c>
-      <c r="O11" s="143">
-        <v>0</v>
-      </c>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="49" t="s">
+      <c r="O11" s="180">
+        <v>0</v>
+      </c>
+      <c r="P11" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="35"/>
+      <c r="W11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="W11" s="47">
+      <c r="X11" s="47">
         <v>120</v>
       </c>
-      <c r="X11" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="38"/>
+      <c r="Y11" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="189"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
@@ -2868,7 +3094,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="140"/>
-      <c r="G12" s="148"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="35"/>
       <c r="I12" s="107"/>
       <c r="J12" s="108" t="s">
@@ -2886,34 +3112,40 @@
       <c r="N12" s="47">
         <v>180</v>
       </c>
-      <c r="O12" s="143">
-        <v>0</v>
-      </c>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108" t="s">
+      <c r="O12" s="180">
+        <v>0</v>
+      </c>
+      <c r="P12" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="49" t="s">
+      <c r="U12" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="V12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="V12" s="47" t="s">
+      <c r="W12" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="W12" s="47">
+      <c r="X12" s="47">
         <v>150</v>
       </c>
-      <c r="X12" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="38"/>
+      <c r="Y12" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="189"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
@@ -2921,7 +3153,7 @@
         <v>250</v>
       </c>
       <c r="F13" s="140"/>
-      <c r="G13" s="148"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="35"/>
       <c r="I13" s="107"/>
       <c r="J13" s="108" t="s">
@@ -2939,36 +3171,42 @@
       <c r="N13" s="47">
         <v>245</v>
       </c>
-      <c r="O13" s="143">
-        <v>0</v>
-      </c>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="49" t="s">
+      <c r="O13" s="180">
+        <v>0</v>
+      </c>
+      <c r="P13" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="U13" s="35"/>
-      <c r="V13" s="47" t="s">
+      <c r="V13" s="35"/>
+      <c r="W13" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="W13" s="47">
+      <c r="X13" s="47">
         <v>100</v>
       </c>
-      <c r="X13" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="38"/>
+      <c r="Y13" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="189"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="140"/>
-      <c r="G14" s="148"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="35"/>
       <c r="I14" s="107"/>
       <c r="J14" s="108"/>
@@ -2982,24 +3220,30 @@
       <c r="N14" s="47">
         <v>320</v>
       </c>
-      <c r="O14" s="143">
-        <v>0</v>
-      </c>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="35"/>
+      <c r="O14" s="180">
+        <v>0</v>
+      </c>
+      <c r="P14" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="35"/>
-      <c r="V14" s="47"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="47"/>
-      <c r="X14" s="143">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="38"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="185">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="190"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
@@ -3007,7 +3251,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="140"/>
-      <c r="G15" s="149"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="35"/>
       <c r="I15" s="107"/>
       <c r="J15" s="110"/>
@@ -3021,36 +3265,42 @@
       <c r="N15" s="48">
         <v>405</v>
       </c>
-      <c r="O15" s="143">
-        <v>0</v>
-      </c>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="49" t="s">
+      <c r="O15" s="180">
+        <v>0</v>
+      </c>
+      <c r="P15" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="47" t="s">
+      <c r="V15" s="35"/>
+      <c r="W15" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="W15" s="47">
+      <c r="X15" s="47">
         <v>120</v>
       </c>
-      <c r="X15" s="143">
+      <c r="Y15" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="189" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="197" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D16" s="92" t="s">
         <v>190</v>
@@ -3061,7 +3311,7 @@
       <c r="F16" s="140">
         <v>0</v>
       </c>
-      <c r="G16" s="150" t="s">
+      <c r="G16" s="147" t="s">
         <v>163</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -3075,34 +3325,40 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="143">
-        <v>1</v>
-      </c>
-      <c r="P16" s="150" t="s">
+      <c r="O16" s="180">
+        <v>1</v>
+      </c>
+      <c r="P16" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="111">
+      <c r="S16" s="111">
         <v>60</v>
       </c>
-      <c r="S16" s="134"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="143">
+      <c r="T16" s="134"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>190</v>
@@ -3113,7 +3369,7 @@
       <c r="F17" s="140">
         <v>1</v>
       </c>
-      <c r="G17" s="150" t="s">
+      <c r="G17" s="147" t="s">
         <v>164</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -3131,38 +3387,44 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="143">
-        <v>1</v>
-      </c>
-      <c r="P17" s="150" t="s">
+      <c r="O17" s="180">
+        <v>1</v>
+      </c>
+      <c r="P17" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="R17" s="111">
+      <c r="S17" s="111">
         <v>100</v>
       </c>
-      <c r="S17" s="134"/>
-      <c r="T17" s="82" t="s">
+      <c r="T17" s="134"/>
+      <c r="U17" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="U17" s="83" t="s">
+      <c r="V17" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="V17" s="56"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="143">
+      <c r="W17" s="56"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
       <c r="B18" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>190</v>
@@ -3173,7 +3435,7 @@
       <c r="F18" s="140">
         <v>0</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="147" t="s">
         <v>165</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3195,38 +3457,44 @@
         <v>151</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="143">
-        <v>1</v>
-      </c>
-      <c r="P18" s="150" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q18" s="6" t="s">
+      <c r="O18" s="180">
+        <v>1</v>
+      </c>
+      <c r="P18" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="R18" s="111">
+      <c r="S18" s="111">
         <v>140</v>
       </c>
-      <c r="S18" s="134"/>
-      <c r="T18" s="82" t="s">
+      <c r="T18" s="134"/>
+      <c r="U18" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="U18" s="83" t="s">
+      <c r="V18" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="143">
+      <c r="W18" s="56"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="190"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
       <c r="B19" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>190</v>
@@ -3237,7 +3505,7 @@
       <c r="F19" s="140">
         <v>0</v>
       </c>
-      <c r="G19" s="150" t="s">
+      <c r="G19" s="147" t="s">
         <v>183</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -3255,37 +3523,43 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="143">
-        <v>1</v>
-      </c>
-      <c r="P19" s="150" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q19" s="6" t="s">
+      <c r="O19" s="180">
+        <v>1</v>
+      </c>
+      <c r="P19" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="R19" s="111">
+      <c r="S19" s="111">
         <v>250</v>
       </c>
-      <c r="S19" s="134"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="143">
+      <c r="T19" s="134"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="190"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="198"/>
       <c r="B20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E20" s="21">
         <v>100</v>
@@ -3293,11 +3567,11 @@
       <c r="F20" s="140">
         <v>1</v>
       </c>
-      <c r="G20" s="165" t="s">
-        <v>256</v>
+      <c r="G20" s="161" t="s">
+        <v>289</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="I20" s="114">
         <v>100</v>
@@ -3307,38 +3581,44 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="143">
-        <v>1</v>
-      </c>
-      <c r="P20" s="165" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="R20" s="114">
+      <c r="O20" s="180">
+        <v>1</v>
+      </c>
+      <c r="P20" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" s="114">
         <v>100</v>
       </c>
-      <c r="S20" s="115"/>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="115"/>
+      <c r="U20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22" t="s">
+      <c r="V20" s="22"/>
+      <c r="W20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="W20" s="21">
+      <c r="X20" s="21">
         <v>60</v>
       </c>
-      <c r="X20" s="143">
+      <c r="Y20" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="190"/>
-      <c r="B21" s="161"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="198"/>
+      <c r="B21" s="157"/>
       <c r="C21" s="26" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>193</v>
@@ -3349,7 +3629,7 @@
       <c r="F21" s="140">
         <v>0</v>
       </c>
-      <c r="G21" s="151" t="s">
+      <c r="G21" s="148" t="s">
         <v>150</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3363,34 +3643,40 @@
       <c r="L21" s="64"/>
       <c r="M21" s="8"/>
       <c r="N21" s="62"/>
-      <c r="O21" s="143">
-        <v>1</v>
-      </c>
-      <c r="P21" s="151" t="s">
+      <c r="O21" s="180">
+        <v>1</v>
+      </c>
+      <c r="P21" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="R21" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R21" s="116">
+      <c r="S21" s="116">
         <v>60</v>
       </c>
-      <c r="S21" s="135"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="143">
+      <c r="W21" s="8"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="190"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="198"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>193</v>
@@ -3401,7 +3687,7 @@
       <c r="F22" s="140">
         <v>1</v>
       </c>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="148" t="s">
         <v>161</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3423,38 +3709,44 @@
       <c r="N22" s="62">
         <v>90</v>
       </c>
-      <c r="O22" s="143">
-        <v>1</v>
-      </c>
-      <c r="P22" s="151" t="s">
+      <c r="O22" s="180">
+        <v>1</v>
+      </c>
+      <c r="P22" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R22" s="116">
+      <c r="S22" s="116">
         <v>100</v>
       </c>
-      <c r="S22" s="135"/>
-      <c r="T22" s="81" t="s">
+      <c r="T22" s="135"/>
+      <c r="U22" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="U22" s="98" t="s">
+      <c r="V22" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="143">
+      <c r="W22" s="8"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="190"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="198"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>193</v>
@@ -3465,7 +3757,7 @@
       <c r="F23" s="140">
         <v>1</v>
       </c>
-      <c r="G23" s="151" t="s">
+      <c r="G23" s="148" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -3487,38 +3779,44 @@
       <c r="N23" s="62">
         <v>140</v>
       </c>
-      <c r="O23" s="143">
-        <v>1</v>
-      </c>
-      <c r="P23" s="151" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q23" s="8" t="s">
+      <c r="O23" s="180">
+        <v>1</v>
+      </c>
+      <c r="P23" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="148" t="s">
+        <v>215</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R23" s="116">
+      <c r="S23" s="116">
         <v>140</v>
       </c>
-      <c r="S23" s="135"/>
-      <c r="T23" s="81" t="s">
+      <c r="T23" s="135"/>
+      <c r="U23" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="U23" s="98" t="s">
+      <c r="V23" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="143">
+      <c r="W23" s="8"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="199"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>193</v>
@@ -3529,7 +3827,7 @@
       <c r="F24" s="140">
         <v>1</v>
       </c>
-      <c r="G24" s="151" t="s">
+      <c r="G24" s="148" t="s">
         <v>184</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -3551,37 +3849,43 @@
       <c r="N24" s="62">
         <v>250</v>
       </c>
-      <c r="O24" s="143">
-        <v>1</v>
-      </c>
-      <c r="P24" s="151" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q24" s="8" t="s">
+      <c r="O24" s="180">
+        <v>1</v>
+      </c>
+      <c r="P24" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="R24" s="116">
+      <c r="S24" s="116">
         <v>250</v>
       </c>
-      <c r="S24" s="135"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="143">
+      <c r="W24" s="8"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="189" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="197" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="E25" s="19">
         <v>120</v>
@@ -3589,11 +3893,11 @@
       <c r="F25" s="140">
         <v>0</v>
       </c>
-      <c r="G25" s="164" t="s">
-        <v>249</v>
+      <c r="G25" s="160" t="s">
+        <v>270</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="I25" s="118">
         <v>120</v>
@@ -3603,35 +3907,41 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="143">
-        <v>1</v>
-      </c>
-      <c r="P25" s="164" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="R25" s="118">
+      <c r="O25" s="180">
+        <v>1</v>
+      </c>
+      <c r="P25" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="S25" s="118">
         <v>120</v>
       </c>
-      <c r="S25" s="119"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="143">
+      <c r="T25" s="119"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="190"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
       <c r="B26" s="19"/>
       <c r="C26" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E26" s="19">
         <v>120</v>
@@ -3639,11 +3949,11 @@
       <c r="F26" s="140">
         <v>0</v>
       </c>
-      <c r="G26" s="164" t="s">
-        <v>250</v>
+      <c r="G26" s="160" t="s">
+        <v>271</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="I26" s="118">
         <v>120</v>
@@ -3653,34 +3963,40 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="143">
-        <v>1</v>
-      </c>
-      <c r="P26" s="164" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" s="118">
+      <c r="O26" s="180">
+        <v>1</v>
+      </c>
+      <c r="P26" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="160" t="s">
+        <v>280</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="S26" s="118">
         <v>120</v>
       </c>
-      <c r="S26" s="119"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="143">
+      <c r="T26" s="119"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="198"/>
       <c r="B27" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="94" t="s">
         <v>196</v>
@@ -3691,8 +4007,8 @@
       <c r="F27" s="140">
         <v>0</v>
       </c>
-      <c r="G27" s="164" t="s">
-        <v>251</v>
+      <c r="G27" s="160" t="s">
+        <v>272</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>196</v>
@@ -3705,38 +4021,44 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="143">
-        <v>1</v>
-      </c>
-      <c r="P27" s="164" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q27" s="20" t="s">
+      <c r="O27" s="180">
+        <v>1</v>
+      </c>
+      <c r="P27" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="R27" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="R27" s="118">
+      <c r="S27" s="118">
         <v>120</v>
       </c>
-      <c r="S27" s="119"/>
-      <c r="T27" s="87" t="s">
+      <c r="T27" s="119"/>
+      <c r="U27" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="U27" s="86" t="s">
+      <c r="V27" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="143">
+      <c r="W27" s="20"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="190"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="198"/>
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>195</v>
@@ -3747,8 +4069,8 @@
       <c r="F28" s="140">
         <v>1</v>
       </c>
-      <c r="G28" s="164" t="s">
-        <v>252</v>
+      <c r="G28" s="160" t="s">
+        <v>273</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>195</v>
@@ -3761,38 +4083,44 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="143">
-        <v>1</v>
-      </c>
-      <c r="P28" s="164" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q28" s="20" t="s">
+      <c r="O28" s="180">
+        <v>1</v>
+      </c>
+      <c r="P28" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="160" t="s">
+        <v>282</v>
+      </c>
+      <c r="R28" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="R28" s="118">
+      <c r="S28" s="118">
         <v>120</v>
       </c>
-      <c r="S28" s="119"/>
-      <c r="T28" s="87" t="s">
+      <c r="T28" s="119"/>
+      <c r="U28" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="U28" s="86" t="s">
+      <c r="V28" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="V28" s="20"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="143">
+      <c r="W28" s="20"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="198"/>
       <c r="B29" s="93" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D29" s="94" t="s">
         <v>197</v>
@@ -3803,8 +4131,8 @@
       <c r="F29" s="140">
         <v>0</v>
       </c>
-      <c r="G29" s="164" t="s">
-        <v>234</v>
+      <c r="G29" s="160" t="s">
+        <v>274</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>197</v>
@@ -3817,35 +4145,41 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="143">
-        <v>1</v>
-      </c>
-      <c r="P29" s="164" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q29" s="20" t="s">
+      <c r="O29" s="180">
+        <v>1</v>
+      </c>
+      <c r="P29" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="R29" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="R29" s="118">
+      <c r="S29" s="118">
         <v>120</v>
       </c>
-      <c r="S29" s="119"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="20"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="143">
+      <c r="W29" s="20"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="190"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="198"/>
       <c r="B30" s="19"/>
       <c r="C30" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E30" s="19">
         <v>120</v>
@@ -3853,11 +4187,11 @@
       <c r="F30" s="140">
         <v>0</v>
       </c>
-      <c r="G30" s="164" t="s">
-        <v>253</v>
+      <c r="G30" s="160" t="s">
+        <v>275</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="I30" s="118">
         <v>120</v>
@@ -3867,35 +4201,41 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="143">
-        <v>1</v>
-      </c>
-      <c r="P30" s="164" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="R30" s="118">
+      <c r="O30" s="180">
+        <v>1</v>
+      </c>
+      <c r="P30" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="160" t="s">
+        <v>284</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="S30" s="118">
         <v>120</v>
       </c>
-      <c r="S30" s="119"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="20"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="143">
+      <c r="W30" s="20"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="190"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="198"/>
       <c r="B31" s="19"/>
       <c r="C31" s="27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="E31" s="19">
         <v>120</v>
@@ -3903,11 +4243,11 @@
       <c r="F31" s="140">
         <v>0</v>
       </c>
-      <c r="G31" s="164" t="s">
-        <v>254</v>
+      <c r="G31" s="160" t="s">
+        <v>276</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="I31" s="118">
         <v>120</v>
@@ -3917,34 +4257,40 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="143">
-        <v>1</v>
-      </c>
-      <c r="P31" s="164" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="R31" s="118">
+      <c r="O31" s="180">
+        <v>1</v>
+      </c>
+      <c r="P31" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="160" t="s">
+        <v>285</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="S31" s="118">
         <v>120</v>
       </c>
-      <c r="S31" s="119"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="143">
+      <c r="T31" s="119"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="190"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="198"/>
       <c r="B32" s="93" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D32" s="94" t="s">
         <v>198</v>
@@ -3955,8 +4301,8 @@
       <c r="F32" s="140">
         <v>0</v>
       </c>
-      <c r="G32" s="164" t="s">
-        <v>235</v>
+      <c r="G32" s="160" t="s">
+        <v>277</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>198</v>
@@ -3969,34 +4315,40 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="143">
-        <v>1</v>
-      </c>
-      <c r="P32" s="164" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q32" s="20" t="s">
+      <c r="O32" s="180">
+        <v>1</v>
+      </c>
+      <c r="P32" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="160" t="s">
+        <v>286</v>
+      </c>
+      <c r="R32" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="R32" s="118">
+      <c r="S32" s="118">
         <v>120</v>
       </c>
-      <c r="S32" s="119"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="20"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="143">
+      <c r="W32" s="20"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="191"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="199"/>
       <c r="B33" s="93" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D33" s="94" t="s">
         <v>201</v>
@@ -4007,8 +4359,8 @@
       <c r="F33" s="140">
         <v>0</v>
       </c>
-      <c r="G33" s="164" t="s">
-        <v>236</v>
+      <c r="G33" s="160" t="s">
+        <v>278</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>201</v>
@@ -4029,36 +4381,42 @@
       <c r="N33" s="59">
         <v>70</v>
       </c>
-      <c r="O33" s="143">
-        <v>1</v>
-      </c>
-      <c r="P33" s="164" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q33" s="20" t="s">
+      <c r="O33" s="180">
+        <v>1</v>
+      </c>
+      <c r="P33" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="160" t="s">
+        <v>287</v>
+      </c>
+      <c r="R33" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="R33" s="118">
+      <c r="S33" s="118">
         <v>120</v>
       </c>
-      <c r="S33" s="119"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="20"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="19"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="143">
+      <c r="W33" s="20"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="189" t="s">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="197" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="D34" s="96" t="s">
         <v>194</v>
@@ -4069,7 +4427,7 @@
       <c r="F34" s="140">
         <v>0</v>
       </c>
-      <c r="G34" s="152" t="s">
+      <c r="G34" s="149" t="s">
         <v>158</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -4083,34 +4441,40 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="143">
-        <v>1</v>
-      </c>
-      <c r="P34" s="152" t="s">
+      <c r="O34" s="180">
+        <v>1</v>
+      </c>
+      <c r="P34" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="149" t="s">
         <v>173</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="R34" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R34" s="121">
+      <c r="S34" s="121">
         <v>60</v>
       </c>
-      <c r="S34" s="122"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="10"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="9"/>
       <c r="V34" s="10"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="143">
+      <c r="W34" s="10"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="190"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="198"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>194</v>
@@ -4121,7 +4485,7 @@
       <c r="F35" s="140">
         <v>1</v>
       </c>
-      <c r="G35" s="152" t="s">
+      <c r="G35" s="149" t="s">
         <v>159</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -4143,38 +4507,44 @@
       <c r="N35" s="65">
         <v>100</v>
       </c>
-      <c r="O35" s="143">
-        <v>1</v>
-      </c>
-      <c r="P35" s="152" t="s">
+      <c r="O35" s="180">
+        <v>1</v>
+      </c>
+      <c r="P35" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="Q35" s="10" t="s">
+      <c r="R35" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R35" s="121">
+      <c r="S35" s="121">
         <v>100</v>
       </c>
-      <c r="S35" s="122"/>
-      <c r="T35" s="76" t="s">
+      <c r="T35" s="122"/>
+      <c r="U35" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="U35" s="90" t="s">
+      <c r="V35" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="V35" s="10"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="143">
+      <c r="W35" s="10"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="190"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="198"/>
       <c r="B36" s="95" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D36" s="96" t="s">
         <v>194</v>
@@ -4185,7 +4555,7 @@
       <c r="F36" s="140">
         <v>0</v>
       </c>
-      <c r="G36" s="152" t="s">
+      <c r="G36" s="149" t="s">
         <v>160</v>
       </c>
       <c r="H36" s="10" t="s">
@@ -4207,38 +4577,44 @@
       <c r="N36" s="65">
         <v>160</v>
       </c>
-      <c r="O36" s="143">
-        <v>1</v>
-      </c>
-      <c r="P36" s="152" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q36" s="10" t="s">
+      <c r="O36" s="180">
+        <v>1</v>
+      </c>
+      <c r="P36" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="149" t="s">
+        <v>217</v>
+      </c>
+      <c r="R36" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="121">
+      <c r="S36" s="121">
         <v>140</v>
       </c>
-      <c r="S36" s="122"/>
-      <c r="T36" s="76" t="s">
+      <c r="T36" s="122"/>
+      <c r="U36" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="U36" s="90" t="s">
+      <c r="V36" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="V36" s="10"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="143">
+      <c r="W36" s="10"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="190"/>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="198"/>
       <c r="B37" s="95" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D37" s="96" t="s">
         <v>194</v>
@@ -4249,7 +4625,7 @@
       <c r="F37" s="140">
         <v>0</v>
       </c>
-      <c r="G37" s="152" t="s">
+      <c r="G37" s="149" t="s">
         <v>185</v>
       </c>
       <c r="H37" s="10" t="s">
@@ -4271,34 +4647,40 @@
       <c r="N37" s="65">
         <v>350</v>
       </c>
-      <c r="O37" s="143">
-        <v>1</v>
-      </c>
-      <c r="P37" s="152" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q37" s="10" t="s">
+      <c r="O37" s="180">
+        <v>1</v>
+      </c>
+      <c r="P37" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="149" t="s">
+        <v>218</v>
+      </c>
+      <c r="R37" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="121">
+      <c r="S37" s="121">
         <v>250</v>
       </c>
-      <c r="S37" s="122"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="10"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="9"/>
       <c r="V37" s="10"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="143">
+      <c r="W37" s="10"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="190"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="198"/>
       <c r="B38" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D38" s="96" t="s">
         <v>194</v>
@@ -4306,16 +4688,16 @@
       <c r="E38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="142">
-        <v>0</v>
-      </c>
-      <c r="G38" s="152" t="s">
-        <v>230</v>
+      <c r="F38" s="141">
+        <v>0</v>
+      </c>
+      <c r="G38" s="149" t="s">
+        <v>205</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I38" s="158" t="s">
+      <c r="I38" s="154" t="s">
         <v>16</v>
       </c>
       <c r="J38" s="122"/>
@@ -4323,47 +4705,53 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="153">
-        <v>1</v>
-      </c>
-      <c r="P38" s="152" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q38" s="10" t="s">
+      <c r="O38" s="181">
+        <v>1</v>
+      </c>
+      <c r="P38" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="R38" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R38" s="158" t="s">
+      <c r="S38" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="122"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="10"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="9"/>
       <c r="V38" s="10"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="153">
+      <c r="W38" s="10"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="190"/>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="198"/>
       <c r="B39" s="77"/>
-      <c r="C39" s="162" t="s">
-        <v>214</v>
+      <c r="C39" s="158" t="s">
+        <v>291</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E39" s="79">
         <v>120</v>
       </c>
-      <c r="F39" s="142">
-        <v>0</v>
-      </c>
-      <c r="G39" s="154" t="s">
-        <v>255</v>
+      <c r="F39" s="141">
+        <v>0</v>
+      </c>
+      <c r="G39" s="150" t="s">
+        <v>292</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="I39" s="124">
         <v>120</v>
@@ -4377,32 +4765,38 @@
       </c>
       <c r="M39" s="78"/>
       <c r="N39" s="79"/>
-      <c r="O39" s="153">
-        <v>1</v>
-      </c>
-      <c r="P39" s="154" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q39" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="R39" s="124">
+      <c r="O39" s="181">
+        <v>1</v>
+      </c>
+      <c r="P39" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="150" t="s">
+        <v>293</v>
+      </c>
+      <c r="R39" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="S39" s="124">
         <v>120</v>
       </c>
-      <c r="S39" s="136"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="78"/>
+      <c r="T39" s="136"/>
+      <c r="U39" s="77"/>
       <c r="V39" s="78"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="153">
+      <c r="W39" s="78"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="198"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>199</v>
@@ -4413,7 +4807,7 @@
       <c r="F40" s="140">
         <v>0</v>
       </c>
-      <c r="G40" s="157" t="s">
+      <c r="G40" s="153" t="s">
         <v>153</v>
       </c>
       <c r="H40" s="13" t="s">
@@ -4427,34 +4821,40 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="143">
-        <v>1</v>
-      </c>
-      <c r="P40" s="157" t="s">
+      <c r="O40" s="180">
+        <v>1</v>
+      </c>
+      <c r="P40" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="R40" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="R40" s="126">
+      <c r="S40" s="126">
         <v>60</v>
       </c>
-      <c r="S40" s="127"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="13"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="12"/>
       <c r="V40" s="13"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="143">
+      <c r="W40" s="13"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="190"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="198"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>199</v>
@@ -4465,7 +4865,7 @@
       <c r="F41" s="140">
         <v>1</v>
       </c>
-      <c r="G41" s="157" t="s">
+      <c r="G41" s="153" t="s">
         <v>155</v>
       </c>
       <c r="H41" s="13" t="s">
@@ -4485,38 +4885,44 @@
       <c r="N41" s="12">
         <v>120</v>
       </c>
-      <c r="O41" s="143">
-        <v>1</v>
-      </c>
-      <c r="P41" s="157" t="s">
+      <c r="O41" s="180">
+        <v>1</v>
+      </c>
+      <c r="P41" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="Q41" s="13" t="s">
+      <c r="R41" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="R41" s="126">
+      <c r="S41" s="126">
         <v>100</v>
       </c>
-      <c r="S41" s="137"/>
-      <c r="T41" s="88" t="s">
+      <c r="T41" s="137"/>
+      <c r="U41" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="U41" s="89" t="s">
+      <c r="V41" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="V41" s="13"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="143">
+      <c r="W41" s="13"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="185">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="190"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="198"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>199</v>
@@ -4527,7 +4933,7 @@
       <c r="F42" s="140">
         <v>1</v>
       </c>
-      <c r="G42" s="157" t="s">
+      <c r="G42" s="153" t="s">
         <v>186</v>
       </c>
       <c r="H42" s="13" t="s">
@@ -4547,38 +4953,44 @@
       <c r="N42" s="69">
         <v>160</v>
       </c>
-      <c r="O42" s="143">
-        <v>1</v>
-      </c>
-      <c r="P42" s="157" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q42" s="13" t="s">
+      <c r="O42" s="180">
+        <v>1</v>
+      </c>
+      <c r="P42" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="153" t="s">
+        <v>220</v>
+      </c>
+      <c r="R42" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="R42" s="126">
+      <c r="S42" s="126">
         <v>140</v>
       </c>
-      <c r="S42" s="137"/>
-      <c r="T42" s="88" t="s">
+      <c r="T42" s="137"/>
+      <c r="U42" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="U42" s="89" t="s">
+      <c r="V42" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="V42" s="13"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="143">
+      <c r="W42" s="13"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="190"/>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="198"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>199</v>
@@ -4589,7 +5001,7 @@
       <c r="F43" s="140">
         <v>1</v>
       </c>
-      <c r="G43" s="157" t="s">
+      <c r="G43" s="153" t="s">
         <v>187</v>
       </c>
       <c r="H43" s="13" t="s">
@@ -4609,34 +5021,40 @@
       <c r="N43" s="12">
         <v>300</v>
       </c>
-      <c r="O43" s="143">
-        <v>1</v>
-      </c>
-      <c r="P43" s="157" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q43" s="13" t="s">
+      <c r="O43" s="180">
+        <v>1</v>
+      </c>
+      <c r="P43" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="R43" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="R43" s="126">
+      <c r="S43" s="126">
         <v>250</v>
       </c>
-      <c r="S43" s="127"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="13"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="12"/>
       <c r="V43" s="13"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="143">
+      <c r="W43" s="13"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="191"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="199"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>199</v>
@@ -4644,16 +5062,16 @@
       <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="142">
-        <v>1</v>
-      </c>
-      <c r="G44" s="157" t="s">
-        <v>229</v>
+      <c r="F44" s="141">
+        <v>1</v>
+      </c>
+      <c r="G44" s="153" t="s">
+        <v>204</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I44" s="159" t="s">
+      <c r="I44" s="155" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="127"/>
@@ -4661,588 +5079,930 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="153">
-        <v>1</v>
-      </c>
-      <c r="P44" s="157" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q44" s="13" t="s">
+      <c r="O44" s="181">
+        <v>1</v>
+      </c>
+      <c r="P44" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="R44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="R44" s="159" t="s">
+      <c r="S44" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="127"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="13"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="12"/>
       <c r="V44" s="13"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="153">
+      <c r="W44" s="13"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="184" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="188" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="99"/>
-      <c r="C45" s="166" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="162" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="141">
+        <v>0</v>
+      </c>
+      <c r="G45" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="17">
-        <v>100</v>
-      </c>
-      <c r="F45" s="142">
-        <v>1</v>
-      </c>
-      <c r="G45" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="128">
-        <v>100</v>
-      </c>
-      <c r="J45" s="129" t="s">
-        <v>68</v>
-      </c>
+      <c r="I45" s="128"/>
+      <c r="J45" s="129"/>
       <c r="K45" s="50"/>
-      <c r="L45" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="L45" s="16"/>
       <c r="M45" s="52"/>
       <c r="N45" s="53"/>
-      <c r="O45" s="153">
-        <v>1</v>
-      </c>
-      <c r="P45" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q45" s="16" t="s">
+      <c r="O45" s="181">
+        <v>0</v>
+      </c>
+      <c r="P45" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S45" s="128"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="189"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="R45" s="128">
+      <c r="D46" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="17">
         <v>100</v>
       </c>
-      <c r="S45" s="138"/>
-      <c r="T45" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="U45" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="V45" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="W45" s="17"/>
-      <c r="X45" s="153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="185"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="142">
-        <v>0</v>
-      </c>
-      <c r="G46" s="155" t="s">
-        <v>188</v>
+      <c r="F46" s="141">
+        <v>1</v>
+      </c>
+      <c r="G46" s="151" t="s">
+        <v>113</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I46" s="128">
-        <v>140</v>
-      </c>
-      <c r="J46" s="130" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="J46" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="K46" s="50"/>
       <c r="L46" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M46" s="52"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="153">
-        <v>1</v>
-      </c>
-      <c r="P46" s="155" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="128">
-        <v>140</v>
-      </c>
-      <c r="S46" s="138"/>
-      <c r="T46" s="50" t="s">
+      <c r="O46" s="181">
+        <v>1</v>
+      </c>
+      <c r="P46" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="U46" s="85" t="s">
+      <c r="R46" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S46" s="128">
+        <v>100</v>
+      </c>
+      <c r="T46" s="138"/>
+      <c r="U46" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="V46" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="V46" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="W46" s="17"/>
-      <c r="X46" s="153">
-        <v>0</v>
+      <c r="W46" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="181">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="185">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="185"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="189"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="99"/>
+      <c r="C47" s="162" t="s">
+        <v>260</v>
+      </c>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="142">
-        <v>0</v>
-      </c>
-      <c r="G47" s="155" t="s">
-        <v>189</v>
+      <c r="F47" s="141">
+        <v>0</v>
+      </c>
+      <c r="G47" s="151" t="s">
+        <v>188</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I47" s="128">
-        <v>250</v>
-      </c>
-      <c r="J47" s="129" t="s">
-        <v>76</v>
+        <v>140</v>
+      </c>
+      <c r="J47" s="130" t="s">
+        <v>39</v>
       </c>
       <c r="K47" s="50"/>
       <c r="L47" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M47" s="52"/>
       <c r="N47" s="53"/>
-      <c r="O47" s="153">
-        <v>1</v>
-      </c>
-      <c r="P47" s="155" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="128">
-        <v>250</v>
-      </c>
-      <c r="S47" s="138"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="153">
+      <c r="O47" s="181">
+        <v>1</v>
+      </c>
+      <c r="P47" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="R47" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S47" s="128">
+        <v>140</v>
+      </c>
+      <c r="T47" s="138"/>
+      <c r="U47" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="V47" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="W47" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="189"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="99"/>
+      <c r="C48" s="162" t="s">
+        <v>261</v>
+      </c>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="155"/>
+      <c r="F48" s="141">
+        <v>0</v>
+      </c>
+      <c r="G48" s="151" t="s">
+        <v>189</v>
+      </c>
       <c r="H48" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" s="128"/>
+        <v>202</v>
+      </c>
+      <c r="I48" s="128">
+        <v>250</v>
+      </c>
       <c r="J48" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="50" t="s">
-        <v>112</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K48" s="50"/>
       <c r="L48" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M48" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="N48" s="53">
-        <v>80</v>
-      </c>
-      <c r="O48" s="153">
-        <v>0</v>
-      </c>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="128"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="M48" s="52"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="181">
+        <v>1</v>
+      </c>
+      <c r="P48" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="151" t="s">
+        <v>224</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S48" s="128">
+        <v>250</v>
+      </c>
+      <c r="T48" s="138"/>
+      <c r="U48" s="15"/>
       <c r="V48" s="16"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="153">
+      <c r="W48" s="16"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="189"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="99"/>
+      <c r="C49" s="162" t="s">
+        <v>264</v>
+      </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="155"/>
+      <c r="F49" s="141">
+        <v>0</v>
+      </c>
+      <c r="G49" s="151" t="s">
+        <v>157</v>
+      </c>
       <c r="H49" s="16" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I49" s="128"/>
-      <c r="J49" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="K49" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M49" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="N49" s="53">
-        <v>160</v>
-      </c>
-      <c r="O49" s="153">
-        <v>0</v>
-      </c>
-      <c r="P49" s="155"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="128"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="16"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="181">
+        <v>0</v>
+      </c>
+      <c r="P49" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="S49" s="128"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="15"/>
       <c r="V49" s="16"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="153">
-        <v>0</v>
+      <c r="W49" s="16"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="185">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="185"/>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="189"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="99"/>
+      <c r="C50" s="162" t="s">
+        <v>265</v>
+      </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="155"/>
+      <c r="F50" s="141">
+        <v>0</v>
+      </c>
+      <c r="G50" s="151" t="s">
+        <v>262</v>
+      </c>
       <c r="H50" s="16" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="I50" s="128"/>
-      <c r="J50" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="K50" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="N50" s="53">
-        <v>120</v>
-      </c>
-      <c r="O50" s="153">
-        <v>0</v>
-      </c>
-      <c r="P50" s="155"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="128"/>
-      <c r="S50" s="138"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="16"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="181">
+        <v>0</v>
+      </c>
+      <c r="P50" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="R50" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="S50" s="128"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="15"/>
       <c r="V50" s="16"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="153">
-        <v>0</v>
+      <c r="W50" s="16"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="185">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="185"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="189"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="99"/>
+      <c r="C51" s="162" t="s">
+        <v>266</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="16"/>
+      <c r="F51" s="141">
+        <v>0</v>
+      </c>
+      <c r="G51" s="151" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="I51" s="128"/>
-      <c r="J51" s="129" t="s">
-        <v>86</v>
-      </c>
+      <c r="J51" s="129"/>
       <c r="K51" s="50"/>
-      <c r="L51" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="L51" s="16"/>
       <c r="M51" s="52"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="153">
-        <v>0</v>
-      </c>
-      <c r="P51" s="155"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="16"/>
+      <c r="O51" s="181">
+        <v>0</v>
+      </c>
+      <c r="P51" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="S51" s="128"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="15"/>
       <c r="V51" s="16"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="153">
+      <c r="W51" s="16"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="185"/>
+    <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="189"/>
       <c r="B52" s="30"/>
       <c r="C52" s="99"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="16"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="16" t="s">
+        <v>202</v>
+      </c>
       <c r="I52" s="128"/>
       <c r="J52" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="N52" s="53">
+        <v>80</v>
+      </c>
+      <c r="O52" s="181">
+        <v>0</v>
+      </c>
+      <c r="P52" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="151"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="189"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="128"/>
+      <c r="J53" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" s="53">
+        <v>160</v>
+      </c>
+      <c r="O53" s="181">
+        <v>0</v>
+      </c>
+      <c r="P53" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="189"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="128"/>
+      <c r="J54" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M54" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" s="53">
+        <v>120</v>
+      </c>
+      <c r="O54" s="181">
+        <v>0</v>
+      </c>
+      <c r="P54" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="189"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="50"/>
+      <c r="L55" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="52"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="181">
+        <v>0</v>
+      </c>
+      <c r="P55" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="151"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="138"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="189"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="K52" s="50"/>
-      <c r="L52" s="16" t="s">
+      <c r="K56" s="50"/>
+      <c r="L56" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M52" s="52"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="153">
-        <v>0</v>
-      </c>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="138"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="153">
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="181">
+        <v>0</v>
+      </c>
+      <c r="P56" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="151"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="138"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="185"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="132" t="s">
+    <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="189"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="K53" s="51"/>
-      <c r="L53" s="41" t="s">
+      <c r="K57" s="51"/>
+      <c r="L57" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="M53" s="54"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="153">
-        <v>0</v>
-      </c>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="131"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="153">
+      <c r="M57" s="54"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="181">
+        <v>0</v>
+      </c>
+      <c r="P57" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="152"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="139"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="185"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="133" t="s">
+    <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="189"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="K54" s="51"/>
-      <c r="L54" s="41" t="s">
+      <c r="K58" s="51"/>
+      <c r="L58" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="54"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="153">
-        <v>0</v>
-      </c>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="131"/>
-      <c r="S54" s="139"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="153">
+      <c r="M58" s="54"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="181">
+        <v>0</v>
+      </c>
+      <c r="P58" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="152"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="139"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="186"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="132" t="s">
+    <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="190"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="K55" s="51"/>
-      <c r="L55" s="41" t="s">
+      <c r="K59" s="51"/>
+      <c r="L59" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="M55" s="54"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="153">
-        <v>0</v>
-      </c>
-      <c r="P55" s="156"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="131"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="153">
+      <c r="M59" s="54"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="181">
+        <v>0</v>
+      </c>
+      <c r="P59" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="131"/>
+      <c r="T59" s="139"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="171">
-        <v>0</v>
-      </c>
-      <c r="G56" s="172" t="s">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="167">
+        <v>0</v>
+      </c>
+      <c r="G60" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="H56" s="169" t="s">
+      <c r="H60" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="I56" s="173">
+      <c r="I60" s="169">
         <v>100</v>
       </c>
-      <c r="J56" s="174" t="s">
+      <c r="J60" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="K56" s="175"/>
-      <c r="L56" s="169" t="s">
+      <c r="K60" s="171"/>
+      <c r="L60" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="M56" s="176"/>
-      <c r="N56" s="177"/>
-      <c r="O56" s="178">
-        <v>1</v>
-      </c>
-      <c r="P56" s="172" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q56" s="169"/>
-      <c r="R56" s="173">
+      <c r="M60" s="172"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="182">
+        <v>1</v>
+      </c>
+      <c r="P60" s="179">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="R60" s="165"/>
+      <c r="S60" s="169">
         <v>100</v>
       </c>
-      <c r="S56" s="179"/>
-      <c r="T56" s="180"/>
-      <c r="U56" s="169"/>
-      <c r="V56" s="169"/>
-      <c r="W56" s="170"/>
-      <c r="X56" s="178">
+      <c r="T60" s="174"/>
+      <c r="U60" s="175"/>
+      <c r="V60" s="165"/>
+      <c r="W60" s="165"/>
+      <c r="X60" s="166"/>
+      <c r="Y60" s="182">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="185">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="181">
-        <f>SUM(B57:X57)</f>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="176">
+        <f>F61+O61+Y61</f>
         <v>64</v>
       </c>
-      <c r="B57" s="181"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="181"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="182">
-        <f>SUM(F3:F56)</f>
+      <c r="B61" s="176">
+        <f>F61+P61+Z61</f>
+        <v>62</v>
+      </c>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="177">
+        <f>SUM(F3:F60)</f>
         <v>16</v>
       </c>
-      <c r="G57" s="183"/>
-      <c r="H57" s="181"/>
-      <c r="I57" s="181"/>
-      <c r="J57" s="183"/>
-      <c r="K57" s="183"/>
-      <c r="L57" s="181"/>
-      <c r="M57" s="181"/>
-      <c r="N57" s="181"/>
-      <c r="O57" s="182">
-        <f>SUM(O3:O56)</f>
+      <c r="G61" s="178"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="176"/>
+      <c r="J61" s="178"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="176"/>
+      <c r="M61" s="176"/>
+      <c r="N61" s="176"/>
+      <c r="O61" s="183">
+        <f>SUM(O3:O60)</f>
         <v>37</v>
       </c>
-      <c r="P57" s="181"/>
-      <c r="Q57" s="181"/>
-      <c r="R57" s="181"/>
-      <c r="S57" s="181"/>
-      <c r="T57" s="181"/>
-      <c r="U57" s="181"/>
-      <c r="V57" s="181"/>
-      <c r="W57" s="181"/>
-      <c r="X57" s="182">
-        <f>SUM(X3:X56)</f>
+      <c r="P61" s="184">
+        <f>SUM(P3:P60)</f>
+        <v>32</v>
+      </c>
+      <c r="Q61" s="176"/>
+      <c r="R61" s="176"/>
+      <c r="S61" s="176"/>
+      <c r="T61" s="176"/>
+      <c r="U61" s="176"/>
+      <c r="V61" s="176"/>
+      <c r="W61" s="176"/>
+      <c r="X61" s="176"/>
+      <c r="Y61" s="183">
+        <f>SUM(Y3:Y60)</f>
         <v>11</v>
+      </c>
+      <c r="Z61" s="184">
+        <f>SUM(Z3:Z60)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="P1:W1"/>
+  <mergeCells count="14">
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A45:A59"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:X1"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A45:A55"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="A25:A33"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F56 O3:O56 X3:X56">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Y3:Y1048576 O3:O1048576 F1 F3:F1048576">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z1048576 P1 P3:P1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF99"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF99"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="294">
   <si>
     <t>RLA0</t>
   </si>
@@ -98,9 +98,6 @@
     <t>AC</t>
   </si>
   <si>
-    <t>3-d rail</t>
-  </si>
-  <si>
     <t>ER2D</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>SCAd</t>
   </si>
   <si>
-    <t>Narrow Gauge (730v DC 3rd Rail)</t>
-  </si>
-  <si>
     <t>NAAZ</t>
   </si>
   <si>
@@ -575,12 +569,6 @@
     <t>SAAN</t>
   </si>
   <si>
-    <t>SDAd</t>
-  </si>
-  <si>
-    <t>SDAD</t>
-  </si>
-  <si>
     <t>SDAa</t>
   </si>
   <si>
@@ -632,9 +620,6 @@
     <t>~15kV / ~25kV / =1500V / =3kV</t>
   </si>
   <si>
-    <t>=730V</t>
-  </si>
-  <si>
     <t>BBA3</t>
   </si>
   <si>
@@ -906,6 +891,21 @@
   </si>
   <si>
     <t>NAA$</t>
+  </si>
+  <si>
+    <t>SHAN</t>
+  </si>
+  <si>
+    <t>SHAD</t>
+  </si>
+  <si>
+    <t>SHAd</t>
+  </si>
+  <si>
+    <t>Narrow Gauge (750v DC 3rd Rail)</t>
+  </si>
+  <si>
+    <t>3rd rail</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,9 +1778,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2034,6 +2031,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,515 +2423,515 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <f>F61+O61+Y61</f>
-        <v>64</v>
-      </c>
-      <c r="B1" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="199" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="194" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="195" t="s">
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="196" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="189" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="193" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="186" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q1" s="195" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="193" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z1" s="186" t="s">
-        <v>269</v>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="196" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="189" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="F2" s="195"/>
+      <c r="G2" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="142" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="197"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="141" t="s">
+        <v>32</v>
+      </c>
       <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="102" t="s">
-        <v>33</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="187"/>
+        <v>33</v>
+      </c>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="190"/>
       <c r="AA2" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="191" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>60</v>
       </c>
-      <c r="F3" s="140">
-        <v>1</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>182</v>
+      <c r="F3" s="139">
+        <v>1</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>180</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="103">
+        <v>34</v>
+      </c>
+      <c r="I3" s="102">
         <v>60</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>93</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>94</v>
       </c>
       <c r="N3" s="46">
         <v>80</v>
       </c>
-      <c r="O3" s="180">
-        <v>1</v>
-      </c>
-      <c r="P3" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="143" t="s">
-        <v>129</v>
+      <c r="O3" s="179">
+        <v>0</v>
+      </c>
+      <c r="P3" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="142" t="s">
+        <v>128</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="103">
+        <v>34</v>
+      </c>
+      <c r="S3" s="102">
         <v>60</v>
       </c>
-      <c r="T3" s="104" t="s">
-        <v>59</v>
+      <c r="T3" s="103" t="s">
+        <v>58</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X3" s="46">
         <v>60</v>
       </c>
-      <c r="Y3" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="185">
+      <c r="Y3" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="184">
         <v>1</v>
       </c>
       <c r="AA3" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="140">
-        <v>1</v>
-      </c>
-      <c r="G4" s="143" t="s">
-        <v>99</v>
+      <c r="F4" s="139">
+        <v>1</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="103">
+        <v>34</v>
+      </c>
+      <c r="I4" s="102">
         <v>100</v>
       </c>
-      <c r="J4" s="105" t="s">
-        <v>73</v>
+      <c r="J4" s="104" t="s">
+        <v>72</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N4" s="46">
         <v>125</v>
       </c>
-      <c r="O4" s="180">
-        <v>1</v>
-      </c>
-      <c r="P4" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="143" t="s">
-        <v>130</v>
+      <c r="O4" s="179">
+        <v>0</v>
+      </c>
+      <c r="P4" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="142" t="s">
+        <v>129</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="103">
+        <v>34</v>
+      </c>
+      <c r="S4" s="102">
         <v>100</v>
       </c>
-      <c r="T4" s="104" t="s">
+      <c r="T4" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="W4" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X4" s="46">
         <v>90</v>
       </c>
-      <c r="Y4" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="185">
+      <c r="Y4" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="184">
         <v>1</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4">
         <v>140</v>
       </c>
-      <c r="F5" s="140">
-        <v>1</v>
-      </c>
-      <c r="G5" s="143" t="s">
-        <v>98</v>
+      <c r="F5" s="139">
+        <v>1</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>97</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="103">
+        <v>34</v>
+      </c>
+      <c r="I5" s="102">
         <v>140</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="46">
         <v>180</v>
       </c>
-      <c r="O5" s="180">
-        <v>1</v>
-      </c>
-      <c r="P5" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="143" t="s">
-        <v>131</v>
+      <c r="O5" s="179">
+        <v>0</v>
+      </c>
+      <c r="P5" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="142" t="s">
+        <v>130</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="103">
+        <v>34</v>
+      </c>
+      <c r="S5" s="102">
         <v>140</v>
       </c>
-      <c r="T5" s="106"/>
+      <c r="T5" s="105"/>
       <c r="U5" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X5" s="46">
         <v>120</v>
       </c>
-      <c r="Y5" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="185">
+      <c r="Y5" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="184">
         <v>0</v>
       </c>
       <c r="AA5" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>250</v>
       </c>
-      <c r="F6" s="140">
-        <v>1</v>
-      </c>
-      <c r="G6" s="143" t="s">
-        <v>97</v>
+      <c r="F6" s="139">
+        <v>1</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>289</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="103">
-        <v>250</v>
-      </c>
-      <c r="J6" s="106"/>
+        <v>34</v>
+      </c>
+      <c r="I6" s="186" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="105"/>
       <c r="K6" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" s="46">
         <v>245</v>
       </c>
-      <c r="O6" s="180">
-        <v>1</v>
-      </c>
-      <c r="P6" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="143" t="s">
-        <v>212</v>
+      <c r="O6" s="179">
+        <v>1</v>
+      </c>
+      <c r="P6" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="142" t="s">
+        <v>207</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="103">
+        <v>34</v>
+      </c>
+      <c r="S6" s="102">
         <v>250</v>
       </c>
-      <c r="T6" s="106"/>
+      <c r="T6" s="105"/>
       <c r="U6" s="45"/>
       <c r="V6" s="4"/>
       <c r="W6" s="46"/>
       <c r="X6" s="46"/>
-      <c r="Y6" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="185">
+      <c r="Y6" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="184">
         <v>0</v>
       </c>
       <c r="AA6" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="144"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="106"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="105"/>
       <c r="K7" s="45"/>
       <c r="L7" s="4"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
-      <c r="O7" s="180">
-        <v>0</v>
-      </c>
-      <c r="P7" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="144"/>
+      <c r="O7" s="179">
+        <v>0</v>
+      </c>
+      <c r="P7" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="143"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="106"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="105"/>
       <c r="U7" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X7" s="46">
         <v>60</v>
       </c>
-      <c r="Y7" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="185">
+      <c r="Y7" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="184">
         <v>0</v>
       </c>
       <c r="AA7" s="72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="144"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="106"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="45"/>
       <c r="L8" s="4"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
-      <c r="O8" s="180">
-        <v>0</v>
-      </c>
-      <c r="P8" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="144"/>
+      <c r="O8" s="179">
+        <v>0</v>
+      </c>
+      <c r="P8" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="143"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="106"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="105"/>
       <c r="U8" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X8" s="46">
         <v>120</v>
       </c>
-      <c r="Y8" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="185">
+      <c r="Y8" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="184">
         <v>0</v>
       </c>
       <c r="AA8" s="74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188" t="s">
-        <v>50</v>
+      <c r="A9" s="191" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -2930,3001 +2939,3001 @@
       <c r="E9" s="35">
         <v>60</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="145"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108" t="s">
-        <v>46</v>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="47"/>
-      <c r="O9" s="180">
-        <v>0</v>
-      </c>
-      <c r="P9" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="145"/>
+      <c r="O9" s="179">
+        <v>0</v>
+      </c>
+      <c r="P9" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="144"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108" t="s">
-        <v>61</v>
+      <c r="S9" s="106"/>
+      <c r="T9" s="107" t="s">
+        <v>60</v>
       </c>
       <c r="U9" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V9" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W9" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X9" s="47">
         <v>60</v>
       </c>
-      <c r="Y9" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="185">
+      <c r="Y9" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="184">
         <v>0</v>
       </c>
       <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="189"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35">
         <v>100</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="145"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="109" t="s">
+      <c r="I10" s="106"/>
+      <c r="J10" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>75</v>
-      </c>
       <c r="M10" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" s="47">
         <v>125</v>
       </c>
-      <c r="O10" s="180">
-        <v>0</v>
-      </c>
-      <c r="P10" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="145"/>
+      <c r="O10" s="179">
+        <v>0</v>
+      </c>
+      <c r="P10" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="144"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="108" t="s">
-        <v>57</v>
+      <c r="S10" s="106"/>
+      <c r="T10" s="107" t="s">
+        <v>56</v>
       </c>
       <c r="U10" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V10" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W10" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X10" s="47">
         <v>90</v>
       </c>
-      <c r="Y10" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="185">
+      <c r="Y10" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="184">
         <v>0</v>
       </c>
       <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="145"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="109"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="108"/>
       <c r="K11" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="47">
         <v>160</v>
       </c>
-      <c r="O11" s="180">
-        <v>0</v>
-      </c>
-      <c r="P11" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="145"/>
+      <c r="O11" s="179">
+        <v>0</v>
+      </c>
+      <c r="P11" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="144"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="108"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="107"/>
       <c r="U11" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V11" s="35"/>
       <c r="W11" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X11" s="47">
         <v>120</v>
       </c>
-      <c r="Y11" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="185">
+      <c r="Y11" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="184">
         <v>0</v>
       </c>
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35">
         <v>140</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="145"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108" t="s">
-        <v>49</v>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107" t="s">
+        <v>48</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="47">
         <v>180</v>
       </c>
-      <c r="O12" s="180">
-        <v>0</v>
-      </c>
-      <c r="P12" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="145"/>
+      <c r="O12" s="179">
+        <v>0</v>
+      </c>
+      <c r="P12" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="144"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="108" t="s">
+      <c r="S12" s="106"/>
+      <c r="T12" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="V12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>63</v>
-      </c>
       <c r="W12" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X12" s="47">
         <v>150</v>
       </c>
-      <c r="Y12" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="185">
+      <c r="Y12" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="184">
         <v>0</v>
       </c>
       <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="189"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35">
         <v>250</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="145"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108" t="s">
+      <c r="I13" s="106"/>
+      <c r="J13" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>53</v>
-      </c>
       <c r="M13" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" s="47">
         <v>245</v>
       </c>
-      <c r="O13" s="180">
-        <v>0</v>
-      </c>
-      <c r="P13" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="145"/>
+      <c r="O13" s="179">
+        <v>0</v>
+      </c>
+      <c r="P13" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="144"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="110"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="109"/>
       <c r="U13" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V13" s="35"/>
       <c r="W13" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X13" s="47">
         <v>100</v>
       </c>
-      <c r="Y13" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="185">
+      <c r="Y13" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="184">
         <v>0</v>
       </c>
       <c r="AC13" s="38"/>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="189"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="145"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N14" s="47">
         <v>320</v>
       </c>
-      <c r="O14" s="180">
-        <v>0</v>
-      </c>
-      <c r="P14" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="145"/>
+      <c r="O14" s="179">
+        <v>0</v>
+      </c>
+      <c r="P14" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="144"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="110"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="109"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="47"/>
       <c r="X14" s="47"/>
-      <c r="Y14" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="185">
+      <c r="Y14" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="184">
         <v>0</v>
       </c>
       <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="146"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="110"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N15" s="48">
         <v>405</v>
       </c>
-      <c r="O15" s="180">
-        <v>0</v>
-      </c>
-      <c r="P15" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="146"/>
+      <c r="O15" s="179">
+        <v>0</v>
+      </c>
+      <c r="P15" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="145"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="110"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="109"/>
       <c r="U15" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V15" s="35"/>
       <c r="W15" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X15" s="47">
         <v>120</v>
       </c>
-      <c r="Y15" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="185">
+      <c r="Y15" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="91">
+        <v>225</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="185">
         <v>60</v>
       </c>
-      <c r="F16" s="140">
-        <v>0</v>
-      </c>
-      <c r="G16" s="147" t="s">
-        <v>163</v>
+      <c r="F16" s="139">
+        <v>1</v>
+      </c>
+      <c r="G16" s="146" t="s">
+        <v>162</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I16" s="111">
+        <v>186</v>
+      </c>
+      <c r="I16" s="110">
         <v>60</v>
       </c>
-      <c r="J16" s="112"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="32"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="180">
-        <v>1</v>
-      </c>
-      <c r="P16" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="147" t="s">
-        <v>179</v>
+      <c r="O16" s="179">
+        <v>0</v>
+      </c>
+      <c r="P16" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="146" t="s">
+        <v>177</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="S16" s="111">
+        <v>186</v>
+      </c>
+      <c r="S16" s="110">
         <v>60</v>
       </c>
-      <c r="T16" s="134"/>
+      <c r="T16" s="133"/>
       <c r="U16" s="5"/>
       <c r="V16" s="6"/>
       <c r="W16" s="56"/>
       <c r="X16" s="57"/>
-      <c r="Y16" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="185">
+      <c r="Y16" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="57">
-        <v>85</v>
-      </c>
-      <c r="F17" s="140">
-        <v>1</v>
-      </c>
-      <c r="G17" s="147" t="s">
-        <v>164</v>
+        <v>186</v>
+      </c>
+      <c r="E17" s="185">
+        <v>100</v>
+      </c>
+      <c r="F17" s="139">
+        <v>1</v>
+      </c>
+      <c r="G17" s="146" t="s">
+        <v>163</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I17" s="111">
+        <v>186</v>
+      </c>
+      <c r="I17" s="110">
         <v>100</v>
       </c>
-      <c r="J17" s="113" t="s">
-        <v>163</v>
+      <c r="J17" s="112" t="s">
+        <v>162</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="83" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="180">
-        <v>1</v>
-      </c>
-      <c r="P17" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="147" t="s">
-        <v>180</v>
+      <c r="O17" s="179">
+        <v>0</v>
+      </c>
+      <c r="P17" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="146" t="s">
+        <v>178</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="S17" s="111">
+        <v>186</v>
+      </c>
+      <c r="S17" s="110">
         <v>100</v>
       </c>
-      <c r="T17" s="134"/>
+      <c r="T17" s="133"/>
       <c r="U17" s="82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V17" s="83" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W17" s="56"/>
       <c r="X17" s="57"/>
-      <c r="Y17" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="185">
+      <c r="Y17" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E18" s="91">
         <v>140</v>
       </c>
-      <c r="F18" s="140">
-        <v>0</v>
-      </c>
-      <c r="G18" s="147" t="s">
-        <v>165</v>
+      <c r="F18" s="139">
+        <v>0</v>
+      </c>
+      <c r="G18" s="146" t="s">
+        <v>164</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I18" s="111">
+        <v>186</v>
+      </c>
+      <c r="I18" s="110">
         <v>140</v>
       </c>
-      <c r="J18" s="113" t="s">
-        <v>164</v>
+      <c r="J18" s="112" t="s">
+        <v>163</v>
       </c>
       <c r="K18" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="L18" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>151</v>
-      </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="180">
-        <v>1</v>
-      </c>
-      <c r="P18" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="147" t="s">
-        <v>213</v>
+      <c r="O18" s="179">
+        <v>0</v>
+      </c>
+      <c r="P18" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="146" t="s">
+        <v>208</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="S18" s="111">
+        <v>186</v>
+      </c>
+      <c r="S18" s="110">
         <v>140</v>
       </c>
-      <c r="T18" s="134"/>
+      <c r="T18" s="133"/>
       <c r="U18" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V18" s="83" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W18" s="56"/>
       <c r="X18" s="57"/>
-      <c r="Y18" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="185">
+      <c r="Y18" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="91" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E19" s="91">
         <v>250</v>
       </c>
-      <c r="F19" s="140">
-        <v>0</v>
-      </c>
-      <c r="G19" s="147" t="s">
-        <v>183</v>
+      <c r="F19" s="139">
+        <v>0</v>
+      </c>
+      <c r="G19" s="146" t="s">
+        <v>291</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I19" s="111">
-        <v>250</v>
-      </c>
-      <c r="J19" s="113" t="s">
-        <v>165</v>
+        <v>186</v>
+      </c>
+      <c r="I19" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="112" t="s">
+        <v>164</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="83" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="180">
-        <v>1</v>
-      </c>
-      <c r="P19" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="147" t="s">
-        <v>214</v>
+      <c r="O19" s="179">
+        <v>1</v>
+      </c>
+      <c r="P19" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="146" t="s">
+        <v>209</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="S19" s="111">
+        <v>186</v>
+      </c>
+      <c r="S19" s="110">
         <v>250</v>
       </c>
-      <c r="T19" s="134"/>
+      <c r="T19" s="133"/>
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
       <c r="W19" s="56"/>
       <c r="X19" s="57"/>
-      <c r="Y19" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="185">
+      <c r="Y19" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E20" s="21">
         <v>100</v>
       </c>
-      <c r="F20" s="140">
-        <v>1</v>
-      </c>
-      <c r="G20" s="161" t="s">
-        <v>289</v>
+      <c r="F20" s="139">
+        <v>1</v>
+      </c>
+      <c r="G20" s="160" t="s">
+        <v>284</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="114">
+        <v>205</v>
+      </c>
+      <c r="I20" s="113">
         <v>100</v>
       </c>
-      <c r="J20" s="115"/>
+      <c r="J20" s="114"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="180">
-        <v>1</v>
-      </c>
-      <c r="P20" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="161" t="s">
-        <v>288</v>
+      <c r="O20" s="179">
+        <v>1</v>
+      </c>
+      <c r="P20" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="160" t="s">
+        <v>283</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="S20" s="114">
+        <v>205</v>
+      </c>
+      <c r="S20" s="113">
         <v>100</v>
       </c>
-      <c r="T20" s="115"/>
+      <c r="T20" s="114"/>
       <c r="U20" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V20" s="22"/>
       <c r="W20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X20" s="21">
         <v>60</v>
       </c>
-      <c r="Y20" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="185">
+      <c r="Y20" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="157"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E21" s="7">
         <v>60</v>
       </c>
-      <c r="F21" s="140">
-        <v>0</v>
-      </c>
-      <c r="G21" s="148" t="s">
-        <v>150</v>
+      <c r="F21" s="139">
+        <v>0</v>
+      </c>
+      <c r="G21" s="147" t="s">
+        <v>149</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="116">
+        <v>189</v>
+      </c>
+      <c r="I21" s="115">
         <v>60</v>
       </c>
-      <c r="J21" s="117"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="63"/>
       <c r="L21" s="64"/>
       <c r="M21" s="8"/>
       <c r="N21" s="62"/>
-      <c r="O21" s="180">
-        <v>1</v>
-      </c>
-      <c r="P21" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="148" t="s">
-        <v>176</v>
+      <c r="O21" s="179">
+        <v>0</v>
+      </c>
+      <c r="P21" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="147" t="s">
+        <v>174</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S21" s="116">
+        <v>189</v>
+      </c>
+      <c r="S21" s="115">
         <v>60</v>
       </c>
-      <c r="T21" s="135"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="185">
+      <c r="Y21" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="140">
-        <v>1</v>
-      </c>
-      <c r="G22" s="148" t="s">
-        <v>161</v>
+      <c r="F22" s="139">
+        <v>1</v>
+      </c>
+      <c r="G22" s="147" t="s">
+        <v>160</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" s="116">
+        <v>189</v>
+      </c>
+      <c r="I22" s="115">
         <v>100</v>
       </c>
-      <c r="J22" s="117" t="s">
-        <v>150</v>
+      <c r="J22" s="116" t="s">
+        <v>149</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="62">
         <v>90</v>
       </c>
-      <c r="O22" s="180">
-        <v>1</v>
-      </c>
-      <c r="P22" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="148" t="s">
-        <v>177</v>
+      <c r="O22" s="179">
+        <v>0</v>
+      </c>
+      <c r="P22" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="147" t="s">
+        <v>175</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S22" s="116">
+        <v>189</v>
+      </c>
+      <c r="S22" s="115">
         <v>100</v>
       </c>
-      <c r="T22" s="135"/>
+      <c r="T22" s="134"/>
       <c r="U22" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="V22" s="98" t="s">
         <v>176</v>
-      </c>
-      <c r="V22" s="98" t="s">
-        <v>178</v>
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="185">
+      <c r="Y22" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E23" s="7">
         <v>140</v>
       </c>
-      <c r="F23" s="140">
-        <v>1</v>
-      </c>
-      <c r="G23" s="148" t="s">
-        <v>162</v>
+      <c r="F23" s="139">
+        <v>1</v>
+      </c>
+      <c r="G23" s="147" t="s">
+        <v>161</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I23" s="116">
+        <v>189</v>
+      </c>
+      <c r="I23" s="115">
         <v>140</v>
       </c>
-      <c r="J23" s="117" t="s">
-        <v>161</v>
+      <c r="J23" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="K23" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="62">
         <v>140</v>
       </c>
-      <c r="O23" s="180">
-        <v>1</v>
-      </c>
-      <c r="P23" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="148" t="s">
-        <v>215</v>
+      <c r="O23" s="179">
+        <v>0</v>
+      </c>
+      <c r="P23" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="147" t="s">
+        <v>210</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S23" s="116">
+        <v>189</v>
+      </c>
+      <c r="S23" s="115">
         <v>140</v>
       </c>
-      <c r="T23" s="135"/>
+      <c r="T23" s="134"/>
       <c r="U23" s="81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V23" s="98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="185">
+      <c r="Y23" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E24" s="7">
         <v>250</v>
       </c>
-      <c r="F24" s="140">
-        <v>1</v>
-      </c>
-      <c r="G24" s="148" t="s">
-        <v>184</v>
+      <c r="F24" s="139">
+        <v>1</v>
+      </c>
+      <c r="G24" s="147" t="s">
+        <v>290</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" s="116">
-        <v>250</v>
-      </c>
-      <c r="J24" s="117" t="s">
-        <v>162</v>
+        <v>189</v>
+      </c>
+      <c r="I24" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="116" t="s">
+        <v>161</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="62">
         <v>250</v>
       </c>
-      <c r="O24" s="180">
-        <v>1</v>
-      </c>
-      <c r="P24" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="148" t="s">
-        <v>216</v>
+      <c r="O24" s="179">
+        <v>1</v>
+      </c>
+      <c r="P24" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="147" t="s">
+        <v>211</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S24" s="116">
+        <v>189</v>
+      </c>
+      <c r="S24" s="115">
         <v>250</v>
       </c>
-      <c r="T24" s="135"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="185">
+      <c r="Y24" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="197" t="s">
-        <v>31</v>
+      <c r="A25" s="200" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E25" s="19">
         <v>120</v>
       </c>
-      <c r="F25" s="140">
-        <v>0</v>
-      </c>
-      <c r="G25" s="160" t="s">
-        <v>270</v>
+      <c r="F25" s="139">
+        <v>0</v>
+      </c>
+      <c r="G25" s="159" t="s">
+        <v>265</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" s="118">
+        <v>202</v>
+      </c>
+      <c r="I25" s="117">
         <v>120</v>
       </c>
-      <c r="J25" s="119"/>
+      <c r="J25" s="118"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="180">
-        <v>1</v>
-      </c>
-      <c r="P25" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="160" t="s">
-        <v>279</v>
+      <c r="O25" s="179">
+        <v>1</v>
+      </c>
+      <c r="P25" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="159" t="s">
+        <v>274</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="S25" s="118">
+        <v>202</v>
+      </c>
+      <c r="S25" s="117">
         <v>120</v>
       </c>
-      <c r="T25" s="119"/>
+      <c r="T25" s="118"/>
       <c r="U25" s="87"/>
       <c r="V25" s="86"/>
       <c r="W25" s="20"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="185">
+      <c r="Y25" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="19"/>
       <c r="C26" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E26" s="19">
         <v>120</v>
       </c>
-      <c r="F26" s="140">
-        <v>0</v>
-      </c>
-      <c r="G26" s="160" t="s">
-        <v>271</v>
+      <c r="F26" s="139">
+        <v>0</v>
+      </c>
+      <c r="G26" s="159" t="s">
+        <v>266</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="118">
+        <v>201</v>
+      </c>
+      <c r="I26" s="117">
         <v>120</v>
       </c>
-      <c r="J26" s="119"/>
+      <c r="J26" s="118"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="180">
-        <v>1</v>
-      </c>
-      <c r="P26" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="160" t="s">
-        <v>280</v>
+      <c r="O26" s="179">
+        <v>1</v>
+      </c>
+      <c r="P26" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="159" t="s">
+        <v>275</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="S26" s="118">
+        <v>201</v>
+      </c>
+      <c r="S26" s="117">
         <v>120</v>
       </c>
-      <c r="T26" s="119"/>
+      <c r="T26" s="118"/>
       <c r="U26" s="87"/>
       <c r="V26" s="86"/>
       <c r="W26" s="20"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="185">
+      <c r="Y26" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="198"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E27" s="93">
         <v>120</v>
       </c>
-      <c r="F27" s="140">
-        <v>0</v>
-      </c>
-      <c r="G27" s="160" t="s">
-        <v>272</v>
+      <c r="F27" s="139">
+        <v>0</v>
+      </c>
+      <c r="G27" s="159" t="s">
+        <v>267</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="118">
+        <v>192</v>
+      </c>
+      <c r="I27" s="117">
         <v>120</v>
       </c>
-      <c r="J27" s="119"/>
+      <c r="J27" s="118"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="180">
-        <v>1</v>
-      </c>
-      <c r="P27" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="160" t="s">
-        <v>281</v>
+      <c r="O27" s="179">
+        <v>1</v>
+      </c>
+      <c r="P27" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="159" t="s">
+        <v>276</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="S27" s="118">
+        <v>192</v>
+      </c>
+      <c r="S27" s="117">
         <v>120</v>
       </c>
-      <c r="T27" s="119"/>
+      <c r="T27" s="118"/>
       <c r="U27" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="V27" s="86" t="s">
         <v>167</v>
-      </c>
-      <c r="V27" s="86" t="s">
-        <v>169</v>
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="19"/>
-      <c r="Y27" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="185">
+      <c r="Y27" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="198"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E28" s="19">
         <v>120</v>
       </c>
-      <c r="F28" s="140">
-        <v>1</v>
-      </c>
-      <c r="G28" s="160" t="s">
-        <v>273</v>
+      <c r="F28" s="139">
+        <v>1</v>
+      </c>
+      <c r="G28" s="159" t="s">
+        <v>268</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="118">
+        <v>191</v>
+      </c>
+      <c r="I28" s="117">
         <v>120</v>
       </c>
-      <c r="J28" s="119"/>
+      <c r="J28" s="118"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="180">
-        <v>1</v>
-      </c>
-      <c r="P28" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="160" t="s">
-        <v>282</v>
+      <c r="O28" s="179">
+        <v>1</v>
+      </c>
+      <c r="P28" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="159" t="s">
+        <v>277</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="S28" s="118">
+        <v>191</v>
+      </c>
+      <c r="S28" s="117">
         <v>120</v>
       </c>
-      <c r="T28" s="119"/>
+      <c r="T28" s="118"/>
       <c r="U28" s="87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V28" s="86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W28" s="20"/>
       <c r="X28" s="19"/>
-      <c r="Y28" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="185">
+      <c r="Y28" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="198"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D29" s="94" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E29" s="93">
         <v>120</v>
       </c>
-      <c r="F29" s="140">
-        <v>0</v>
-      </c>
-      <c r="G29" s="160" t="s">
-        <v>274</v>
+      <c r="F29" s="139">
+        <v>0</v>
+      </c>
+      <c r="G29" s="159" t="s">
+        <v>269</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="118">
+        <v>193</v>
+      </c>
+      <c r="I29" s="117">
         <v>120</v>
       </c>
-      <c r="J29" s="119"/>
+      <c r="J29" s="118"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="180">
-        <v>1</v>
-      </c>
-      <c r="P29" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="160" t="s">
-        <v>283</v>
+      <c r="O29" s="179">
+        <v>1</v>
+      </c>
+      <c r="P29" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="159" t="s">
+        <v>278</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="S29" s="118">
+        <v>193</v>
+      </c>
+      <c r="S29" s="117">
         <v>120</v>
       </c>
-      <c r="T29" s="119"/>
+      <c r="T29" s="118"/>
       <c r="U29" s="19"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="185">
+      <c r="Y29" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="198"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="19"/>
       <c r="C30" s="27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E30" s="19">
         <v>120</v>
       </c>
-      <c r="F30" s="140">
-        <v>0</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>275</v>
+      <c r="F30" s="139">
+        <v>0</v>
+      </c>
+      <c r="G30" s="159" t="s">
+        <v>270</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" s="118">
+        <v>203</v>
+      </c>
+      <c r="I30" s="117">
         <v>120</v>
       </c>
-      <c r="J30" s="119"/>
+      <c r="J30" s="118"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="180">
-        <v>1</v>
-      </c>
-      <c r="P30" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="160" t="s">
-        <v>284</v>
+      <c r="O30" s="179">
+        <v>1</v>
+      </c>
+      <c r="P30" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="159" t="s">
+        <v>279</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="S30" s="118">
+        <v>203</v>
+      </c>
+      <c r="S30" s="117">
         <v>120</v>
       </c>
-      <c r="T30" s="119"/>
+      <c r="T30" s="118"/>
       <c r="U30" s="19"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="185">
+      <c r="Y30" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="198"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="19"/>
       <c r="C31" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E31" s="19">
         <v>120</v>
       </c>
-      <c r="F31" s="140">
-        <v>0</v>
-      </c>
-      <c r="G31" s="160" t="s">
-        <v>276</v>
+      <c r="F31" s="139">
+        <v>0</v>
+      </c>
+      <c r="G31" s="159" t="s">
+        <v>271</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I31" s="118">
+        <v>204</v>
+      </c>
+      <c r="I31" s="117">
         <v>120</v>
       </c>
-      <c r="J31" s="119"/>
+      <c r="J31" s="118"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="180">
-        <v>1</v>
-      </c>
-      <c r="P31" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="160" t="s">
-        <v>285</v>
+      <c r="O31" s="179">
+        <v>1</v>
+      </c>
+      <c r="P31" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="159" t="s">
+        <v>280</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="S31" s="118">
+        <v>204</v>
+      </c>
+      <c r="S31" s="117">
         <v>120</v>
       </c>
-      <c r="T31" s="119"/>
+      <c r="T31" s="118"/>
       <c r="U31" s="87"/>
       <c r="V31" s="86"/>
       <c r="W31" s="20"/>
       <c r="X31" s="19"/>
-      <c r="Y31" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="185">
+      <c r="Y31" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="198"/>
+      <c r="A32" s="201"/>
       <c r="B32" s="93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D32" s="94" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E32" s="93">
         <v>120</v>
       </c>
-      <c r="F32" s="140">
-        <v>0</v>
-      </c>
-      <c r="G32" s="160" t="s">
-        <v>277</v>
+      <c r="F32" s="139">
+        <v>0</v>
+      </c>
+      <c r="G32" s="159" t="s">
+        <v>272</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="118">
+        <v>194</v>
+      </c>
+      <c r="I32" s="117">
         <v>120</v>
       </c>
-      <c r="J32" s="119"/>
+      <c r="J32" s="118"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="180">
-        <v>1</v>
-      </c>
-      <c r="P32" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="160" t="s">
-        <v>286</v>
+      <c r="O32" s="179">
+        <v>1</v>
+      </c>
+      <c r="P32" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="159" t="s">
+        <v>281</v>
       </c>
       <c r="R32" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="S32" s="118">
+        <v>194</v>
+      </c>
+      <c r="S32" s="117">
         <v>120</v>
       </c>
-      <c r="T32" s="119"/>
+      <c r="T32" s="118"/>
       <c r="U32" s="19"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="185">
+      <c r="Y32" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D33" s="94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E33" s="93">
         <v>120</v>
       </c>
-      <c r="F33" s="140">
-        <v>0</v>
-      </c>
-      <c r="G33" s="160" t="s">
-        <v>278</v>
+      <c r="F33" s="139">
+        <v>0</v>
+      </c>
+      <c r="G33" s="159" t="s">
+        <v>273</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" s="118">
+        <v>197</v>
+      </c>
+      <c r="I33" s="117">
         <v>120</v>
       </c>
-      <c r="J33" s="120" t="s">
-        <v>157</v>
+      <c r="J33" s="119" t="s">
+        <v>156</v>
       </c>
       <c r="K33" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M33" s="20"/>
       <c r="N33" s="59">
         <v>70</v>
       </c>
-      <c r="O33" s="180">
-        <v>1</v>
-      </c>
-      <c r="P33" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="160" t="s">
-        <v>287</v>
+      <c r="O33" s="179">
+        <v>1</v>
+      </c>
+      <c r="P33" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="159" t="s">
+        <v>282</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="S33" s="118">
+        <v>197</v>
+      </c>
+      <c r="S33" s="117">
         <v>120</v>
       </c>
-      <c r="T33" s="119"/>
+      <c r="T33" s="118"/>
       <c r="U33" s="19"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="19"/>
-      <c r="Y33" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="185">
+      <c r="Y33" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="95">
+        <v>243</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="9">
         <v>60</v>
       </c>
-      <c r="F34" s="140">
-        <v>0</v>
-      </c>
-      <c r="G34" s="149" t="s">
-        <v>158</v>
+      <c r="F34" s="139">
+        <v>1</v>
+      </c>
+      <c r="G34" s="148" t="s">
+        <v>157</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="121">
+        <v>190</v>
+      </c>
+      <c r="I34" s="120">
         <v>60</v>
       </c>
-      <c r="J34" s="122"/>
+      <c r="J34" s="121"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="180">
-        <v>1</v>
-      </c>
-      <c r="P34" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="149" t="s">
-        <v>173</v>
+      <c r="O34" s="179">
+        <v>0</v>
+      </c>
+      <c r="P34" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="148" t="s">
+        <v>171</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S34" s="121">
+        <v>190</v>
+      </c>
+      <c r="S34" s="120">
         <v>60</v>
       </c>
-      <c r="T34" s="122"/>
+      <c r="T34" s="121"/>
       <c r="U34" s="9"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="185">
+      <c r="Y34" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="198"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="100">
-        <v>85</v>
-      </c>
-      <c r="F35" s="140">
-        <v>1</v>
-      </c>
-      <c r="G35" s="149" t="s">
-        <v>159</v>
+        <v>190</v>
+      </c>
+      <c r="E35" s="9">
+        <v>100</v>
+      </c>
+      <c r="F35" s="139">
+        <v>1</v>
+      </c>
+      <c r="G35" s="148" t="s">
+        <v>158</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="121">
+        <v>190</v>
+      </c>
+      <c r="I35" s="120">
         <v>100</v>
       </c>
-      <c r="J35" s="123" t="s">
-        <v>158</v>
+      <c r="J35" s="122" t="s">
+        <v>157</v>
       </c>
       <c r="K35" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="L35" s="67" t="s">
-        <v>140</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="65">
         <v>100</v>
       </c>
-      <c r="O35" s="180">
-        <v>1</v>
-      </c>
-      <c r="P35" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="149" t="s">
-        <v>174</v>
+      <c r="O35" s="179">
+        <v>0</v>
+      </c>
+      <c r="P35" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="148" t="s">
+        <v>172</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S35" s="121">
+        <v>190</v>
+      </c>
+      <c r="S35" s="120">
         <v>100</v>
       </c>
-      <c r="T35" s="122"/>
+      <c r="T35" s="121"/>
       <c r="U35" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="V35" s="90" t="s">
         <v>173</v>
-      </c>
-      <c r="V35" s="90" t="s">
-        <v>175</v>
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="185">
+      <c r="Y35" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="198"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="95" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D36" s="96" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E36" s="95">
         <v>140</v>
       </c>
-      <c r="F36" s="140">
-        <v>0</v>
-      </c>
-      <c r="G36" s="149" t="s">
-        <v>160</v>
+      <c r="F36" s="139">
+        <v>0</v>
+      </c>
+      <c r="G36" s="148" t="s">
+        <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="121">
+        <v>190</v>
+      </c>
+      <c r="I36" s="120">
         <v>140</v>
       </c>
-      <c r="J36" s="123" t="s">
-        <v>159</v>
+      <c r="J36" s="122" t="s">
+        <v>158</v>
       </c>
       <c r="K36" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="L36" s="67" t="s">
         <v>141</v>
-      </c>
-      <c r="L36" s="67" t="s">
-        <v>142</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="65">
         <v>160</v>
       </c>
-      <c r="O36" s="180">
-        <v>1</v>
-      </c>
-      <c r="P36" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="149" t="s">
-        <v>217</v>
+      <c r="O36" s="179">
+        <v>0</v>
+      </c>
+      <c r="P36" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="148" t="s">
+        <v>212</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="121">
+        <v>190</v>
+      </c>
+      <c r="S36" s="120">
         <v>140</v>
       </c>
-      <c r="T36" s="122"/>
+      <c r="T36" s="121"/>
       <c r="U36" s="76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V36" s="90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="185">
+      <c r="Y36" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="198"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="95" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E37" s="95">
         <v>250</v>
       </c>
-      <c r="F37" s="140">
-        <v>0</v>
-      </c>
-      <c r="G37" s="149" t="s">
-        <v>185</v>
+      <c r="F37" s="139">
+        <v>0</v>
+      </c>
+      <c r="G37" s="148" t="s">
+        <v>181</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="121">
+        <v>190</v>
+      </c>
+      <c r="I37" s="120">
         <v>250</v>
       </c>
-      <c r="J37" s="123" t="s">
-        <v>160</v>
+      <c r="J37" s="122" t="s">
+        <v>159</v>
       </c>
       <c r="K37" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="L37" s="67" t="s">
         <v>143</v>
-      </c>
-      <c r="L37" s="67" t="s">
-        <v>144</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="65">
         <v>350</v>
       </c>
-      <c r="O37" s="180">
-        <v>1</v>
-      </c>
-      <c r="P37" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="149" t="s">
-        <v>218</v>
+      <c r="O37" s="179">
+        <v>0</v>
+      </c>
+      <c r="P37" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="148" t="s">
+        <v>213</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S37" s="121">
+        <v>190</v>
+      </c>
+      <c r="S37" s="120">
         <v>250</v>
       </c>
-      <c r="T37" s="122"/>
+      <c r="T37" s="121"/>
       <c r="U37" s="9"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="185">
+      <c r="Y37" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="198"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="95" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D38" s="96" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="141">
-        <v>0</v>
-      </c>
-      <c r="G38" s="149" t="s">
-        <v>205</v>
+      <c r="F38" s="140">
+        <v>0</v>
+      </c>
+      <c r="G38" s="148" t="s">
+        <v>200</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="122"/>
+      <c r="J38" s="121"/>
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="181">
-        <v>1</v>
-      </c>
-      <c r="P38" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="149" t="s">
-        <v>219</v>
+      <c r="O38" s="179">
+        <v>1</v>
+      </c>
+      <c r="P38" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="148" t="s">
+        <v>214</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S38" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="S38" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="122"/>
+      <c r="T38" s="121"/>
       <c r="U38" s="9"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="185">
+      <c r="Y38" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="198"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="77"/>
-      <c r="C39" s="158" t="s">
-        <v>291</v>
+      <c r="C39" s="157" t="s">
+        <v>286</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E39" s="79">
         <v>120</v>
       </c>
-      <c r="F39" s="141">
-        <v>0</v>
-      </c>
-      <c r="G39" s="150" t="s">
-        <v>292</v>
+      <c r="F39" s="140">
+        <v>0</v>
+      </c>
+      <c r="G39" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="124">
+        <v>206</v>
+      </c>
+      <c r="I39" s="123">
         <v>120</v>
       </c>
-      <c r="J39" s="125" t="s">
-        <v>65</v>
+      <c r="J39" s="124" t="s">
+        <v>64</v>
       </c>
       <c r="K39" s="80"/>
       <c r="L39" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M39" s="78"/>
       <c r="N39" s="79"/>
-      <c r="O39" s="181">
-        <v>1</v>
-      </c>
-      <c r="P39" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="150" t="s">
-        <v>293</v>
+      <c r="O39" s="179">
+        <v>0</v>
+      </c>
+      <c r="P39" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="149" t="s">
+        <v>288</v>
       </c>
       <c r="R39" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="S39" s="124">
+        <v>206</v>
+      </c>
+      <c r="S39" s="123">
         <v>120</v>
       </c>
-      <c r="T39" s="136"/>
+      <c r="T39" s="135"/>
       <c r="U39" s="77"/>
       <c r="V39" s="78"/>
       <c r="W39" s="78"/>
       <c r="X39" s="79"/>
-      <c r="Y39" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="185">
+      <c r="Y39" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="198"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E40" s="12">
         <v>60</v>
       </c>
-      <c r="F40" s="140">
-        <v>0</v>
-      </c>
-      <c r="G40" s="153" t="s">
-        <v>153</v>
+      <c r="F40" s="139">
+        <v>0</v>
+      </c>
+      <c r="G40" s="152" t="s">
+        <v>152</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" s="126">
+        <v>195</v>
+      </c>
+      <c r="I40" s="125">
         <v>60</v>
       </c>
-      <c r="J40" s="127"/>
+      <c r="J40" s="126"/>
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="180">
-        <v>1</v>
-      </c>
-      <c r="P40" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="153" t="s">
-        <v>170</v>
+      <c r="O40" s="179">
+        <v>0</v>
+      </c>
+      <c r="P40" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="152" t="s">
+        <v>168</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S40" s="126">
+        <v>195</v>
+      </c>
+      <c r="S40" s="125">
         <v>60</v>
       </c>
-      <c r="T40" s="127"/>
+      <c r="T40" s="126"/>
       <c r="U40" s="12"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="185">
+      <c r="Y40" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="198"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E41" s="12">
         <v>100</v>
       </c>
-      <c r="F41" s="140">
-        <v>1</v>
-      </c>
-      <c r="G41" s="153" t="s">
-        <v>155</v>
+      <c r="F41" s="139">
+        <v>1</v>
+      </c>
+      <c r="G41" s="152" t="s">
+        <v>154</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="126">
+        <v>195</v>
+      </c>
+      <c r="I41" s="125">
         <v>100</v>
       </c>
-      <c r="J41" s="127"/>
+      <c r="J41" s="126"/>
       <c r="K41" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="12">
         <v>120</v>
       </c>
-      <c r="O41" s="180">
-        <v>1</v>
-      </c>
-      <c r="P41" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="153" t="s">
-        <v>171</v>
+      <c r="O41" s="179">
+        <v>0</v>
+      </c>
+      <c r="P41" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="152" t="s">
+        <v>169</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S41" s="126">
+        <v>195</v>
+      </c>
+      <c r="S41" s="125">
         <v>100</v>
       </c>
-      <c r="T41" s="137"/>
+      <c r="T41" s="136"/>
       <c r="U41" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="V41" s="89" t="s">
         <v>170</v>
-      </c>
-      <c r="V41" s="89" t="s">
-        <v>172</v>
       </c>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
-      <c r="Y41" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="185">
+      <c r="Y41" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="198"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E42" s="12">
         <v>140</v>
       </c>
-      <c r="F42" s="140">
-        <v>1</v>
-      </c>
-      <c r="G42" s="153" t="s">
-        <v>186</v>
+      <c r="F42" s="139">
+        <v>1</v>
+      </c>
+      <c r="G42" s="152" t="s">
+        <v>182</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="126">
+        <v>195</v>
+      </c>
+      <c r="I42" s="125">
         <v>140</v>
       </c>
-      <c r="J42" s="127"/>
+      <c r="J42" s="126"/>
       <c r="K42" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L42" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="69">
         <v>160</v>
       </c>
-      <c r="O42" s="180">
-        <v>1</v>
-      </c>
-      <c r="P42" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="153" t="s">
-        <v>220</v>
+      <c r="O42" s="179">
+        <v>0</v>
+      </c>
+      <c r="P42" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="152" t="s">
+        <v>215</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S42" s="126">
+        <v>195</v>
+      </c>
+      <c r="S42" s="125">
         <v>140</v>
       </c>
-      <c r="T42" s="137"/>
+      <c r="T42" s="136"/>
       <c r="U42" s="88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V42" s="89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W42" s="13"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="185">
+      <c r="Y42" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="198"/>
+      <c r="A43" s="201"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E43" s="12">
         <v>250</v>
       </c>
-      <c r="F43" s="140">
-        <v>1</v>
-      </c>
-      <c r="G43" s="153" t="s">
-        <v>187</v>
+      <c r="F43" s="139">
+        <v>1</v>
+      </c>
+      <c r="G43" s="152" t="s">
+        <v>183</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I43" s="126">
+        <v>195</v>
+      </c>
+      <c r="I43" s="125">
         <v>250</v>
       </c>
-      <c r="J43" s="127"/>
+      <c r="J43" s="126"/>
       <c r="K43" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="12">
         <v>300</v>
       </c>
-      <c r="O43" s="180">
-        <v>1</v>
-      </c>
-      <c r="P43" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="153" t="s">
-        <v>221</v>
+      <c r="O43" s="179">
+        <v>0</v>
+      </c>
+      <c r="P43" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="152" t="s">
+        <v>216</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S43" s="126">
+        <v>195</v>
+      </c>
+      <c r="S43" s="125">
         <v>250</v>
       </c>
-      <c r="T43" s="127"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="12"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
-      <c r="Y43" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="185">
+      <c r="Y43" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="199"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="141">
-        <v>1</v>
-      </c>
-      <c r="G44" s="153" t="s">
-        <v>204</v>
+      <c r="F44" s="140">
+        <v>1</v>
+      </c>
+      <c r="G44" s="152" t="s">
+        <v>199</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="127"/>
+      <c r="J44" s="126"/>
       <c r="K44" s="12"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="181">
-        <v>1</v>
-      </c>
-      <c r="P44" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="153" t="s">
-        <v>222</v>
+      <c r="O44" s="179">
+        <v>1</v>
+      </c>
+      <c r="P44" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="152" t="s">
+        <v>217</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S44" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="S44" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="127"/>
+      <c r="T44" s="126"/>
       <c r="U44" s="12"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="185">
+      <c r="Y44" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="188" t="s">
-        <v>24</v>
+      <c r="A45" s="191" t="s">
+        <v>293</v>
       </c>
       <c r="B45" s="99"/>
-      <c r="C45" s="162" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="141">
-        <v>0</v>
-      </c>
-      <c r="G45" s="151" t="s">
-        <v>112</v>
+      <c r="C45" s="161" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="17">
+        <v>100</v>
+      </c>
+      <c r="F45" s="140">
+        <v>1</v>
+      </c>
+      <c r="G45" s="150" t="s">
+        <v>111</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I45" s="128"/>
-      <c r="J45" s="129"/>
+        <v>253</v>
+      </c>
+      <c r="I45" s="127"/>
+      <c r="J45" s="128"/>
       <c r="K45" s="50"/>
       <c r="L45" s="16"/>
       <c r="M45" s="52"/>
       <c r="N45" s="53"/>
-      <c r="O45" s="181">
-        <v>0</v>
-      </c>
-      <c r="P45" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="151" t="s">
-        <v>127</v>
+      <c r="O45" s="179">
+        <v>0</v>
+      </c>
+      <c r="P45" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="150" t="s">
+        <v>126</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S45" s="128"/>
-      <c r="T45" s="138"/>
+        <v>253</v>
+      </c>
+      <c r="S45" s="127"/>
+      <c r="T45" s="137"/>
       <c r="U45" s="50"/>
       <c r="V45" s="85"/>
       <c r="W45" s="52"/>
       <c r="X45" s="17"/>
-      <c r="Y45" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="185">
+      <c r="Y45" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="189"/>
+      <c r="A46" s="192"/>
       <c r="B46" s="99"/>
-      <c r="C46" s="162" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E46" s="17">
+      <c r="C46" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="140">
+        <v>0</v>
+      </c>
+      <c r="G46" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="127">
         <v>100</v>
       </c>
-      <c r="F46" s="141">
-        <v>1</v>
-      </c>
-      <c r="G46" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" s="128">
-        <v>100</v>
-      </c>
-      <c r="J46" s="129" t="s">
-        <v>68</v>
+      <c r="J46" s="128" t="s">
+        <v>67</v>
       </c>
       <c r="K46" s="50"/>
       <c r="L46" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M46" s="52"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="181">
-        <v>1</v>
-      </c>
-      <c r="P46" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="151" t="s">
-        <v>128</v>
+      <c r="O46" s="179">
+        <v>0</v>
+      </c>
+      <c r="P46" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="150" t="s">
+        <v>127</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S46" s="128">
+        <v>253</v>
+      </c>
+      <c r="S46" s="127">
         <v>100</v>
       </c>
-      <c r="T46" s="138"/>
+      <c r="T46" s="137"/>
       <c r="U46" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V46" s="85" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="W46" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X46" s="17"/>
-      <c r="Y46" s="181">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="185">
+      <c r="Y46" s="180">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="189"/>
+      <c r="A47" s="192"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="162" t="s">
-        <v>260</v>
+      <c r="C47" s="161" t="s">
+        <v>255</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="141">
-        <v>0</v>
-      </c>
-      <c r="G47" s="151" t="s">
-        <v>188</v>
+      <c r="F47" s="140">
+        <v>0</v>
+      </c>
+      <c r="G47" s="150" t="s">
+        <v>184</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I47" s="128">
+        <v>253</v>
+      </c>
+      <c r="I47" s="127">
         <v>140</v>
       </c>
-      <c r="J47" s="130" t="s">
-        <v>39</v>
+      <c r="J47" s="129" t="s">
+        <v>38</v>
       </c>
       <c r="K47" s="50"/>
       <c r="L47" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M47" s="52"/>
       <c r="N47" s="53"/>
-      <c r="O47" s="181">
-        <v>1</v>
-      </c>
-      <c r="P47" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="151" t="s">
-        <v>223</v>
+      <c r="O47" s="179">
+        <v>0</v>
+      </c>
+      <c r="P47" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="150" t="s">
+        <v>218</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S47" s="128">
+        <v>253</v>
+      </c>
+      <c r="S47" s="127">
         <v>140</v>
       </c>
-      <c r="T47" s="138"/>
+      <c r="T47" s="137"/>
       <c r="U47" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V47" s="85" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="W47" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X47" s="17"/>
-      <c r="Y47" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="185">
+      <c r="Y47" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="189"/>
+      <c r="A48" s="192"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="162" t="s">
-        <v>261</v>
+      <c r="C48" s="161" t="s">
+        <v>256</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="141">
-        <v>0</v>
-      </c>
-      <c r="G48" s="151" t="s">
-        <v>189</v>
+      <c r="F48" s="140">
+        <v>0</v>
+      </c>
+      <c r="G48" s="150" t="s">
+        <v>185</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I48" s="128">
+        <v>253</v>
+      </c>
+      <c r="I48" s="127">
         <v>250</v>
       </c>
-      <c r="J48" s="129" t="s">
-        <v>76</v>
+      <c r="J48" s="128" t="s">
+        <v>75</v>
       </c>
       <c r="K48" s="50"/>
       <c r="L48" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M48" s="52"/>
       <c r="N48" s="53"/>
-      <c r="O48" s="181">
-        <v>1</v>
-      </c>
-      <c r="P48" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="151" t="s">
-        <v>224</v>
+      <c r="O48" s="179">
+        <v>0</v>
+      </c>
+      <c r="P48" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="150" t="s">
+        <v>219</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S48" s="128">
+        <v>253</v>
+      </c>
+      <c r="S48" s="127">
         <v>250</v>
       </c>
-      <c r="T48" s="138"/>
+      <c r="T48" s="137"/>
       <c r="U48" s="15"/>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17"/>
-      <c r="Y48" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="185">
+      <c r="Y48" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="189"/>
+      <c r="A49" s="192"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="162" t="s">
-        <v>264</v>
+      <c r="C49" s="161" t="s">
+        <v>259</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="141">
-        <v>0</v>
-      </c>
-      <c r="G49" s="151" t="s">
-        <v>157</v>
+      <c r="F49" s="140">
+        <v>0</v>
+      </c>
+      <c r="G49" s="150" t="s">
+        <v>156</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I49" s="128"/>
-      <c r="J49" s="129"/>
+        <v>285</v>
+      </c>
+      <c r="I49" s="127"/>
+      <c r="J49" s="128"/>
       <c r="K49" s="50"/>
       <c r="L49" s="16"/>
       <c r="M49" s="52"/>
       <c r="N49" s="53"/>
-      <c r="O49" s="181">
-        <v>0</v>
-      </c>
-      <c r="P49" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="151" t="s">
-        <v>167</v>
+      <c r="O49" s="179">
+        <v>0</v>
+      </c>
+      <c r="P49" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="150" t="s">
+        <v>165</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="S49" s="128"/>
-      <c r="T49" s="138"/>
+        <v>195</v>
+      </c>
+      <c r="S49" s="127"/>
+      <c r="T49" s="137"/>
       <c r="U49" s="15"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="17"/>
-      <c r="Y49" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="185">
+      <c r="Y49" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="189"/>
+      <c r="A50" s="192"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="162" t="s">
-        <v>265</v>
+      <c r="C50" s="161" t="s">
+        <v>260</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="141">
-        <v>0</v>
-      </c>
-      <c r="G50" s="151" t="s">
-        <v>262</v>
+      <c r="F50" s="140">
+        <v>0</v>
+      </c>
+      <c r="G50" s="150" t="s">
+        <v>257</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I50" s="128"/>
-      <c r="J50" s="129"/>
+        <v>285</v>
+      </c>
+      <c r="I50" s="127"/>
+      <c r="J50" s="128"/>
       <c r="K50" s="50"/>
       <c r="L50" s="16"/>
       <c r="M50" s="52"/>
       <c r="N50" s="53"/>
-      <c r="O50" s="181">
-        <v>0</v>
-      </c>
-      <c r="P50" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="151" t="s">
-        <v>168</v>
+      <c r="O50" s="179">
+        <v>0</v>
+      </c>
+      <c r="P50" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="150" t="s">
+        <v>166</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="S50" s="128"/>
-      <c r="T50" s="138"/>
+        <v>195</v>
+      </c>
+      <c r="S50" s="127"/>
+      <c r="T50" s="137"/>
       <c r="U50" s="15"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="17"/>
-      <c r="Y50" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="185">
+      <c r="Y50" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="184">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
+      <c r="A51" s="192"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="162" t="s">
-        <v>266</v>
+      <c r="C51" s="161" t="s">
+        <v>261</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="141">
-        <v>0</v>
-      </c>
-      <c r="G51" s="151" t="s">
-        <v>263</v>
+      <c r="F51" s="140">
+        <v>0</v>
+      </c>
+      <c r="G51" s="150" t="s">
+        <v>258</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I51" s="128"/>
-      <c r="J51" s="129"/>
+        <v>285</v>
+      </c>
+      <c r="I51" s="127"/>
+      <c r="J51" s="128"/>
       <c r="K51" s="50"/>
       <c r="L51" s="16"/>
       <c r="M51" s="52"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="181">
-        <v>0</v>
-      </c>
-      <c r="P51" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="151" t="s">
-        <v>267</v>
+      <c r="O51" s="179">
+        <v>0</v>
+      </c>
+      <c r="P51" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="150" t="s">
+        <v>262</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="S51" s="128"/>
-      <c r="T51" s="138"/>
+        <v>195</v>
+      </c>
+      <c r="S51" s="127"/>
+      <c r="T51" s="137"/>
       <c r="U51" s="15"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="17"/>
-      <c r="Y51" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="185">
+      <c r="Y51" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="189"/>
+      <c r="A52" s="192"/>
       <c r="B52" s="30"/>
       <c r="C52" s="99"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="151"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="150"/>
       <c r="H52" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="I52" s="127"/>
+      <c r="J52" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="L52" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="M52" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N52" s="53">
         <v>80</v>
       </c>
-      <c r="O52" s="181">
-        <v>0</v>
-      </c>
-      <c r="P52" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="151"/>
+      <c r="O52" s="179">
+        <v>0</v>
+      </c>
+      <c r="P52" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="150"/>
       <c r="R52" s="16"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="138"/>
+      <c r="S52" s="127"/>
+      <c r="T52" s="137"/>
       <c r="U52" s="15"/>
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17"/>
-      <c r="Y52" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="185">
+      <c r="Y52" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
+      <c r="A53" s="192"/>
       <c r="B53" s="30"/>
       <c r="C53" s="99"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="151"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="150"/>
       <c r="H53" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I53" s="128"/>
-      <c r="J53" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="I53" s="127"/>
+      <c r="J53" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L53" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K53" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="M53" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N53" s="53">
         <v>160</v>
       </c>
-      <c r="O53" s="181">
-        <v>0</v>
-      </c>
-      <c r="P53" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="151"/>
+      <c r="O53" s="179">
+        <v>0</v>
+      </c>
+      <c r="P53" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="150"/>
       <c r="R53" s="16"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="138"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="137"/>
       <c r="U53" s="15"/>
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="17"/>
-      <c r="Y53" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="185">
+      <c r="Y53" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="189"/>
+      <c r="A54" s="192"/>
       <c r="B54" s="30"/>
       <c r="C54" s="99"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="151"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="150"/>
       <c r="H54" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I54" s="128"/>
-      <c r="J54" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" s="127"/>
+      <c r="J54" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K54" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="M54" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N54" s="53">
         <v>120</v>
       </c>
-      <c r="O54" s="181">
-        <v>0</v>
-      </c>
-      <c r="P54" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="151"/>
+      <c r="O54" s="179">
+        <v>0</v>
+      </c>
+      <c r="P54" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="150"/>
       <c r="R54" s="16"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="138"/>
+      <c r="S54" s="127"/>
+      <c r="T54" s="137"/>
       <c r="U54" s="15"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="17"/>
-      <c r="Y54" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="185">
+      <c r="Y54" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="189"/>
+      <c r="A55" s="192"/>
       <c r="B55" s="30"/>
       <c r="C55" s="99"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="151"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="150"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="129" t="s">
-        <v>86</v>
+      <c r="I55" s="127"/>
+      <c r="J55" s="128" t="s">
+        <v>85</v>
       </c>
       <c r="K55" s="50"/>
       <c r="L55" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M55" s="52"/>
       <c r="N55" s="53"/>
-      <c r="O55" s="181">
-        <v>0</v>
-      </c>
-      <c r="P55" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="151"/>
+      <c r="O55" s="179">
+        <v>0</v>
+      </c>
+      <c r="P55" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="150"/>
       <c r="R55" s="16"/>
-      <c r="S55" s="128"/>
-      <c r="T55" s="138"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="137"/>
       <c r="U55" s="15"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="17"/>
-      <c r="Y55" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="185">
+      <c r="Y55" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="189"/>
+      <c r="A56" s="192"/>
       <c r="B56" s="30"/>
       <c r="C56" s="99"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="151"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="150"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="129" t="s">
-        <v>88</v>
+      <c r="I56" s="127"/>
+      <c r="J56" s="128" t="s">
+        <v>87</v>
       </c>
       <c r="K56" s="50"/>
       <c r="L56" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M56" s="52"/>
       <c r="N56" s="53"/>
-      <c r="O56" s="181">
-        <v>0</v>
-      </c>
-      <c r="P56" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="151"/>
+      <c r="O56" s="179">
+        <v>0</v>
+      </c>
+      <c r="P56" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="150"/>
       <c r="R56" s="16"/>
-      <c r="S56" s="128"/>
-      <c r="T56" s="138"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="137"/>
       <c r="U56" s="15"/>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17"/>
-      <c r="Y56" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="185">
+      <c r="Y56" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="189"/>
+      <c r="A57" s="192"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="159"/>
+      <c r="C57" s="158"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="152"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="151"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="132" t="s">
-        <v>70</v>
+      <c r="I57" s="130"/>
+      <c r="J57" s="131" t="s">
+        <v>69</v>
       </c>
       <c r="K57" s="51"/>
       <c r="L57" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57" s="54"/>
       <c r="N57" s="55"/>
-      <c r="O57" s="181">
-        <v>0</v>
-      </c>
-      <c r="P57" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="152"/>
+      <c r="O57" s="179">
+        <v>0</v>
+      </c>
+      <c r="P57" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="151"/>
       <c r="R57" s="41"/>
-      <c r="S57" s="131"/>
-      <c r="T57" s="139"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="138"/>
       <c r="U57" s="33"/>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
       <c r="X57" s="42"/>
-      <c r="Y57" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="185">
+      <c r="Y57" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="189"/>
+      <c r="A58" s="192"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="159"/>
+      <c r="C58" s="158"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="152"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="151"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="133" t="s">
-        <v>41</v>
+      <c r="I58" s="130"/>
+      <c r="J58" s="132" t="s">
+        <v>40</v>
       </c>
       <c r="K58" s="51"/>
       <c r="L58" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M58" s="54"/>
       <c r="N58" s="55"/>
-      <c r="O58" s="181">
-        <v>0</v>
-      </c>
-      <c r="P58" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="152"/>
+      <c r="O58" s="179">
+        <v>0</v>
+      </c>
+      <c r="P58" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="151"/>
       <c r="R58" s="41"/>
-      <c r="S58" s="131"/>
-      <c r="T58" s="139"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="138"/>
       <c r="U58" s="33"/>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
       <c r="X58" s="42"/>
-      <c r="Y58" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="185">
+      <c r="Y58" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="190"/>
+      <c r="A59" s="193"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="159"/>
+      <c r="C59" s="158"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="152"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="151"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132" t="s">
-        <v>78</v>
+      <c r="I59" s="130"/>
+      <c r="J59" s="131" t="s">
+        <v>77</v>
       </c>
       <c r="K59" s="51"/>
       <c r="L59" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M59" s="54"/>
       <c r="N59" s="55"/>
-      <c r="O59" s="181">
-        <v>0</v>
-      </c>
-      <c r="P59" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="152"/>
+      <c r="O59" s="179">
+        <v>0</v>
+      </c>
+      <c r="P59" s="178">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="151"/>
       <c r="R59" s="41"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="139"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="138"/>
       <c r="U59" s="33"/>
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
       <c r="X59" s="42"/>
-      <c r="Y59" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="185">
+      <c r="Y59" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="164"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="167">
-        <v>0</v>
-      </c>
-      <c r="G60" s="168" t="s">
+      <c r="B60" s="162"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="166">
+        <v>0</v>
+      </c>
+      <c r="G60" s="167" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60" s="168">
+        <v>100</v>
+      </c>
+      <c r="J60" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60" s="170"/>
+      <c r="L60" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="165" t="s">
-        <v>200</v>
-      </c>
-      <c r="I60" s="169">
+      <c r="M60" s="171"/>
+      <c r="N60" s="172"/>
+      <c r="O60" s="179">
+        <v>0</v>
+      </c>
+      <c r="P60" s="178">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="167" t="s">
+        <v>220</v>
+      </c>
+      <c r="R60" s="164"/>
+      <c r="S60" s="168">
         <v>100</v>
       </c>
-      <c r="J60" s="170" t="s">
-        <v>90</v>
-      </c>
-      <c r="K60" s="171"/>
-      <c r="L60" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="M60" s="172"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="182">
-        <v>1</v>
-      </c>
-      <c r="P60" s="179">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="168" t="s">
-        <v>225</v>
-      </c>
-      <c r="R60" s="165"/>
-      <c r="S60" s="169">
-        <v>100</v>
-      </c>
-      <c r="T60" s="174"/>
-      <c r="U60" s="175"/>
-      <c r="V60" s="165"/>
-      <c r="W60" s="165"/>
-      <c r="X60" s="166"/>
-      <c r="Y60" s="182">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="185">
+      <c r="T60" s="173"/>
+      <c r="U60" s="174"/>
+      <c r="V60" s="164"/>
+      <c r="W60" s="164"/>
+      <c r="X60" s="165"/>
+      <c r="Y60" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="184">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="176">
+      <c r="A61" s="175">
         <f>F61+O61+Y61</f>
+        <v>44</v>
+      </c>
+      <c r="B61" s="175">
+        <f>F61+P61+Z61</f>
         <v>64</v>
       </c>
-      <c r="B61" s="176">
-        <f>F61+P61+Z61</f>
-        <v>62</v>
-      </c>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="177">
+      <c r="C61" s="175"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="176">
         <f>SUM(F3:F60)</f>
-        <v>16</v>
-      </c>
-      <c r="G61" s="178"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="178"/>
-      <c r="L61" s="176"/>
-      <c r="M61" s="176"/>
-      <c r="N61" s="176"/>
-      <c r="O61" s="183">
+        <v>18</v>
+      </c>
+      <c r="G61" s="177"/>
+      <c r="H61" s="175"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="175"/>
+      <c r="M61" s="175"/>
+      <c r="N61" s="175"/>
+      <c r="O61" s="182">
         <f>SUM(O3:O60)</f>
-        <v>37</v>
-      </c>
-      <c r="P61" s="184">
+        <v>15</v>
+      </c>
+      <c r="P61" s="183">
         <f>SUM(P3:P60)</f>
         <v>32</v>
       </c>
-      <c r="Q61" s="176"/>
-      <c r="R61" s="176"/>
-      <c r="S61" s="176"/>
-      <c r="T61" s="176"/>
-      <c r="U61" s="176"/>
-      <c r="V61" s="176"/>
-      <c r="W61" s="176"/>
-      <c r="X61" s="176"/>
-      <c r="Y61" s="183">
+      <c r="Q61" s="175"/>
+      <c r="R61" s="175"/>
+      <c r="S61" s="175"/>
+      <c r="T61" s="175"/>
+      <c r="U61" s="175"/>
+      <c r="V61" s="175"/>
+      <c r="W61" s="175"/>
+      <c r="X61" s="175"/>
+      <c r="Y61" s="182">
         <f>SUM(Y3:Y60)</f>
         <v>11</v>
       </c>
-      <c r="Z61" s="184">
+      <c r="Z61" s="183">
         <f>SUM(Z3:Z60)</f>
         <v>14</v>
       </c>
@@ -5946,7 +5955,7 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="A25:A33"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y3:Y1048576 O3:O1048576 F1 F3:F1048576">
+  <conditionalFormatting sqref="Y3:Y1048576 F1 F3:F1048576 O3:O1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="290">
   <si>
     <t>RLA0</t>
   </si>
@@ -566,9 +566,6 @@
     <t>SETS</t>
   </si>
   <si>
-    <t>SAAN</t>
-  </si>
-  <si>
     <t>SDAa</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>~15kV / ~25kV / =1500V / =3kV</t>
   </si>
   <si>
-    <t>BBA3</t>
-  </si>
-  <si>
     <t>SHAA</t>
   </si>
   <si>
@@ -791,36 +785,18 @@
     <t>BAA3</t>
   </si>
   <si>
-    <t>BCA3</t>
-  </si>
-  <si>
-    <t>BDA3</t>
-  </si>
-  <si>
     <t>SBAZ</t>
   </si>
   <si>
     <t>SCAZ</t>
   </si>
   <si>
-    <t>BAAZ</t>
-  </si>
-  <si>
-    <t>BBAZ</t>
-  </si>
-  <si>
-    <t>BCAZ</t>
-  </si>
-  <si>
     <t>NCAZ</t>
   </si>
   <si>
     <t>xUSSR</t>
   </si>
   <si>
-    <t>SMITS</t>
-  </si>
-  <si>
     <t>SAA[</t>
   </si>
   <si>
@@ -845,9 +821,6 @@
     <t>SAA_</t>
   </si>
   <si>
-    <t>SAA*</t>
-  </si>
-  <si>
     <t>NAA[</t>
   </si>
   <si>
@@ -906,13 +879,29 @@
   </si>
   <si>
     <t>3rd rail</t>
+  </si>
+  <si>
+    <t>BAA@</t>
+  </si>
+  <si>
+    <t>MONO</t>
+  </si>
+  <si>
+    <t>MGLV</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>xUSSR
+add-on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1087,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1485,7 +1482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,9 +1607,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2045,19 +2039,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,6 +2088,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -2380,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2403,7 @@
     <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="3" hidden="1" customWidth="1"/>
@@ -2402,7 +2411,7 @@
     <col min="12" max="12" width="43.140625" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="6.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="18" customWidth="1"/>
     <col min="16" max="16" width="3.42578125" style="18" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -2412,8 +2421,9 @@
     <col min="22" max="22" width="41.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="6.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="3"/>
     <col min="29" max="29" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -2422,49 +2432,49 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <f>F61+O61+Y61</f>
-        <v>44</v>
-      </c>
-      <c r="B1" s="199" t="s">
+        <f>F63+P63+Z63</f>
+        <v>64</v>
+      </c>
+      <c r="B1" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="194" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="198" t="s">
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="196" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="196" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" s="189" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q1" s="198" t="s">
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="205" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="193" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="196" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z1" s="189" t="s">
-        <v>264</v>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z1" s="193" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -2472,7 +2482,7 @@
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="154" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2481,17 +2491,17 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="141" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="140" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="100" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2502,18 +2512,18 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="141" t="s">
+      <c r="O2" s="206"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="140" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="100" t="s">
+      <c r="S2" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="100" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -2524,21 +2534,21 @@
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="190"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="194"/>
       <c r="AA2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="190" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
@@ -2546,67 +2556,67 @@
       <c r="E3" s="4">
         <v>60</v>
       </c>
-      <c r="F3" s="139">
-        <v>1</v>
-      </c>
-      <c r="G3" s="142" t="s">
-        <v>180</v>
+      <c r="F3" s="138">
+        <v>1</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>92</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="102">
+      <c r="I3" s="101">
         <v>60</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>92</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="45">
         <v>80</v>
       </c>
-      <c r="O3" s="179">
-        <v>0</v>
-      </c>
-      <c r="P3" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="142" t="s">
+      <c r="O3" s="178">
+        <v>0</v>
+      </c>
+      <c r="P3" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="141" t="s">
         <v>128</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="102">
+      <c r="S3" s="101">
         <v>60</v>
       </c>
-      <c r="T3" s="103" t="s">
+      <c r="T3" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="U3" s="44" t="s">
         <v>128</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="W3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3" s="45">
         <v>60</v>
       </c>
-      <c r="Y3" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="184">
+      <c r="Y3" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="183">
         <v>1</v>
       </c>
       <c r="AA3" s="37" t="s">
@@ -2614,12 +2624,12 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="192"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
@@ -2627,67 +2637,67 @@
       <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="139">
-        <v>1</v>
-      </c>
-      <c r="G4" s="142" t="s">
+      <c r="F4" s="138">
+        <v>1</v>
+      </c>
+      <c r="G4" s="141" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="101">
         <v>100</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="44" t="s">
         <v>98</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="45">
         <v>125</v>
       </c>
-      <c r="O4" s="179">
-        <v>0</v>
-      </c>
-      <c r="P4" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="142" t="s">
+      <c r="O4" s="178">
+        <v>0</v>
+      </c>
+      <c r="P4" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="141" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="102">
+      <c r="S4" s="101">
         <v>100</v>
       </c>
-      <c r="T4" s="103" t="s">
+      <c r="T4" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="44" t="s">
         <v>129</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="45">
         <v>90</v>
       </c>
-      <c r="Y4" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="184">
+      <c r="Y4" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="183">
         <v>1</v>
       </c>
       <c r="AA4" s="39" t="s">
@@ -2695,12 +2705,12 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>34</v>
@@ -2708,63 +2718,63 @@
       <c r="E5" s="4">
         <v>140</v>
       </c>
-      <c r="F5" s="139">
-        <v>1</v>
-      </c>
-      <c r="G5" s="142" t="s">
+      <c r="F5" s="138">
+        <v>1</v>
+      </c>
+      <c r="G5" s="141" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="101">
         <v>140</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>97</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="45">
         <v>180</v>
       </c>
-      <c r="O5" s="179">
-        <v>0</v>
-      </c>
-      <c r="P5" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="142" t="s">
+      <c r="O5" s="178">
+        <v>0</v>
+      </c>
+      <c r="P5" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="141" t="s">
         <v>130</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="102">
+      <c r="S5" s="101">
         <v>140</v>
       </c>
-      <c r="T5" s="105"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="104"/>
+      <c r="U5" s="44" t="s">
         <v>130</v>
       </c>
       <c r="V5" s="4"/>
-      <c r="W5" s="46" t="s">
+      <c r="W5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5" s="45">
         <v>120</v>
       </c>
-      <c r="Y5" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="184">
+      <c r="Y5" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="183">
         <v>0</v>
       </c>
       <c r="AA5" s="43" t="s">
@@ -2772,12 +2782,12 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -2785,152 +2795,152 @@
       <c r="E6" s="4">
         <v>250</v>
       </c>
-      <c r="F6" s="139">
-        <v>1</v>
-      </c>
-      <c r="G6" s="142" t="s">
-        <v>289</v>
+      <c r="F6" s="138">
+        <v>1</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>280</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="186" t="s">
+      <c r="I6" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="45" t="s">
+      <c r="J6" s="104"/>
+      <c r="K6" s="44" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="45">
         <v>245</v>
       </c>
-      <c r="O6" s="179">
-        <v>1</v>
-      </c>
-      <c r="P6" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="142" t="s">
-        <v>207</v>
+      <c r="O6" s="178">
+        <v>1</v>
+      </c>
+      <c r="P6" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="141" t="s">
+        <v>205</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="102">
+      <c r="S6" s="101">
         <v>250</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="45"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="44"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="184">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="58" t="s">
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="183">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="57" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="143"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="45"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="179">
-        <v>0</v>
-      </c>
-      <c r="P7" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="143"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="178">
+        <v>0</v>
+      </c>
+      <c r="P7" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="142"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="45" t="s">
+      <c r="S7" s="101"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="44" t="s">
         <v>131</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="46" t="s">
+      <c r="W7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="X7" s="46">
+      <c r="X7" s="45">
         <v>60</v>
       </c>
-      <c r="Y7" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="184">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="72" t="s">
+      <c r="Y7" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="183">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="192"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="143"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="179">
-        <v>0</v>
-      </c>
-      <c r="P8" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="143"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="178">
+        <v>0</v>
+      </c>
+      <c r="P8" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="142"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="45" t="s">
+      <c r="S8" s="101"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="44" t="s">
         <v>132</v>
       </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="46" t="s">
+      <c r="W8" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="45">
         <v>120</v>
       </c>
-      <c r="Y8" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="184">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="74" t="s">
+      <c r="Y8" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="183">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="73" t="s">
         <v>179</v>
       </c>
       <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="190" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="34"/>
@@ -2939,673 +2949,673 @@
       <c r="E9" s="35">
         <v>60</v>
       </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="144"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107" t="s">
+      <c r="I9" s="105"/>
+      <c r="J9" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="74" t="s">
         <v>155</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>107</v>
       </c>
       <c r="M9" s="35"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="179">
-        <v>0</v>
-      </c>
-      <c r="P9" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="144"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="178">
+        <v>0</v>
+      </c>
+      <c r="P9" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="143"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="107" t="s">
+      <c r="S9" s="105"/>
+      <c r="T9" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="49" t="s">
+      <c r="U9" s="48" t="s">
         <v>122</v>
       </c>
       <c r="V9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="47">
+      <c r="X9" s="46">
         <v>60</v>
       </c>
-      <c r="Y9" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="184">
+      <c r="Y9" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="183">
         <v>0</v>
       </c>
       <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35">
         <v>100</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="144"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="108" t="s">
+      <c r="I10" s="105"/>
+      <c r="J10" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="48" t="s">
         <v>102</v>
       </c>
       <c r="L10" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="46">
         <v>125</v>
       </c>
-      <c r="O10" s="179">
-        <v>0</v>
-      </c>
-      <c r="P10" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="144"/>
+      <c r="O10" s="178">
+        <v>0</v>
+      </c>
+      <c r="P10" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="143"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="107" t="s">
+      <c r="S10" s="105"/>
+      <c r="T10" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="49" t="s">
+      <c r="U10" s="48" t="s">
         <v>123</v>
       </c>
       <c r="V10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="47" t="s">
+      <c r="W10" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X10" s="46">
         <v>90</v>
       </c>
-      <c r="Y10" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="184">
+      <c r="Y10" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="183">
         <v>0</v>
       </c>
       <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="144"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="49" t="s">
+      <c r="I11" s="105"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="48" t="s">
         <v>108</v>
       </c>
       <c r="L11" s="35"/>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="46">
         <v>160</v>
       </c>
-      <c r="O11" s="179">
-        <v>0</v>
-      </c>
-      <c r="P11" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="144"/>
+      <c r="O11" s="178">
+        <v>0</v>
+      </c>
+      <c r="P11" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="143"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="49" t="s">
+      <c r="S11" s="105"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="48" t="s">
         <v>124</v>
       </c>
       <c r="V11" s="35"/>
-      <c r="W11" s="47" t="s">
+      <c r="W11" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="X11" s="47">
+      <c r="X11" s="46">
         <v>120</v>
       </c>
-      <c r="Y11" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="184">
+      <c r="Y11" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="183">
         <v>0</v>
       </c>
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35">
         <v>140</v>
       </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="144"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="143"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107" t="s">
+      <c r="I12" s="105"/>
+      <c r="J12" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="48" t="s">
         <v>103</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="46">
         <v>180</v>
       </c>
-      <c r="O12" s="179">
-        <v>0</v>
-      </c>
-      <c r="P12" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="144"/>
+      <c r="O12" s="178">
+        <v>0</v>
+      </c>
+      <c r="P12" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="143"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="107" t="s">
+      <c r="S12" s="105"/>
+      <c r="T12" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="48" t="s">
         <v>125</v>
       </c>
       <c r="V12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="W12" s="47" t="s">
+      <c r="W12" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="X12" s="47">
+      <c r="X12" s="46">
         <v>150</v>
       </c>
-      <c r="Y12" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="184">
+      <c r="Y12" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="183">
         <v>0</v>
       </c>
       <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="192"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35">
         <v>250</v>
       </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="144"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="143"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107" t="s">
+      <c r="I13" s="105"/>
+      <c r="J13" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="48" t="s">
         <v>104</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="46">
         <v>245</v>
       </c>
-      <c r="O13" s="179">
-        <v>0</v>
-      </c>
-      <c r="P13" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="144"/>
+      <c r="O13" s="178">
+        <v>0</v>
+      </c>
+      <c r="P13" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="143"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="49" t="s">
+      <c r="S13" s="105"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="48" t="s">
         <v>121</v>
       </c>
       <c r="V13" s="35"/>
-      <c r="W13" s="47" t="s">
+      <c r="W13" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="X13" s="47">
+      <c r="X13" s="46">
         <v>100</v>
       </c>
-      <c r="Y13" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="184">
+      <c r="Y13" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="183">
         <v>0</v>
       </c>
       <c r="AC13" s="38"/>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="144"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="49" t="s">
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="48" t="s">
         <v>105</v>
       </c>
       <c r="L14" s="35"/>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="46">
         <v>320</v>
       </c>
-      <c r="O14" s="179">
-        <v>0</v>
-      </c>
-      <c r="P14" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="144"/>
+      <c r="O14" s="178">
+        <v>0</v>
+      </c>
+      <c r="P14" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="143"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="109"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="108"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="184">
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="183">
         <v>0</v>
       </c>
       <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="145"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="49" t="s">
+      <c r="I15" s="105"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="48" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="35"/>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="47">
         <v>405</v>
       </c>
-      <c r="O15" s="179">
-        <v>0</v>
-      </c>
-      <c r="P15" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="145"/>
+      <c r="O15" s="178">
+        <v>0</v>
+      </c>
+      <c r="P15" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="144"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="49" t="s">
+      <c r="S15" s="105"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="48" t="s">
         <v>133</v>
       </c>
       <c r="V15" s="35"/>
-      <c r="W15" s="47" t="s">
+      <c r="W15" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="X15" s="47">
+      <c r="X15" s="46">
         <v>120</v>
       </c>
-      <c r="Y15" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="184">
+      <c r="Y15" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="202" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="185">
+        <v>185</v>
+      </c>
+      <c r="E16" s="184">
         <v>60</v>
       </c>
-      <c r="F16" s="139">
-        <v>1</v>
-      </c>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="138">
+        <v>1</v>
+      </c>
+      <c r="G16" s="145" t="s">
         <v>162</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I16" s="110">
+        <v>185</v>
+      </c>
+      <c r="I16" s="109">
         <v>60</v>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="110"/>
       <c r="K16" s="32"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="179">
-        <v>0</v>
-      </c>
-      <c r="P16" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="146" t="s">
+      <c r="O16" s="178">
+        <v>0</v>
+      </c>
+      <c r="P16" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="145" t="s">
         <v>177</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S16" s="110">
+        <v>185</v>
+      </c>
+      <c r="S16" s="109">
         <v>60</v>
       </c>
-      <c r="T16" s="133"/>
+      <c r="T16" s="132"/>
       <c r="U16" s="5"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="184">
+      <c r="W16" s="55"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="184">
+        <v>100</v>
+      </c>
+      <c r="F17" s="138">
+        <v>1</v>
+      </c>
+      <c r="G17" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="109">
+        <v>100</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="82" t="s">
         <v>186</v>
-      </c>
-      <c r="E17" s="185">
-        <v>100</v>
-      </c>
-      <c r="F17" s="139">
-        <v>1</v>
-      </c>
-      <c r="G17" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I17" s="110">
-        <v>100</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="83" t="s">
-        <v>187</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="179">
-        <v>0</v>
-      </c>
-      <c r="P17" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="146" t="s">
+      <c r="O17" s="178">
+        <v>0</v>
+      </c>
+      <c r="P17" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="145" t="s">
         <v>178</v>
       </c>
       <c r="R17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S17" s="109">
+        <v>100</v>
+      </c>
+      <c r="T17" s="132"/>
+      <c r="U17" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="V17" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="203"/>
+      <c r="B18" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="90">
+        <v>140</v>
+      </c>
+      <c r="F18" s="138">
+        <v>0</v>
+      </c>
+      <c r="G18" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="109">
+        <v>140</v>
+      </c>
+      <c r="J18" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="S17" s="110">
-        <v>100</v>
-      </c>
-      <c r="T17" s="133"/>
-      <c r="U17" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="V17" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
-      <c r="B18" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="92" t="s">
+      <c r="M18" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="178">
+        <v>0</v>
+      </c>
+      <c r="P18" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="145" t="s">
+        <v>206</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="109">
+        <v>140</v>
+      </c>
+      <c r="T18" s="132"/>
+      <c r="U18" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="V18" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="W18" s="55"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="203"/>
+      <c r="B19" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="90">
+        <v>250</v>
+      </c>
+      <c r="F19" s="138">
+        <v>0</v>
+      </c>
+      <c r="G19" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="82" t="s">
         <v>186</v>
-      </c>
-      <c r="E18" s="91">
-        <v>140</v>
-      </c>
-      <c r="F18" s="139">
-        <v>0</v>
-      </c>
-      <c r="G18" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="110">
-        <v>140</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="L18" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="179">
-        <v>0</v>
-      </c>
-      <c r="P18" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S18" s="110">
-        <v>140</v>
-      </c>
-      <c r="T18" s="133"/>
-      <c r="U18" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="V18" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="W18" s="56"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
-      <c r="B19" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="91">
-        <v>250</v>
-      </c>
-      <c r="F19" s="139">
-        <v>0</v>
-      </c>
-      <c r="G19" s="146" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="83" t="s">
-        <v>187</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="179">
-        <v>1</v>
-      </c>
-      <c r="P19" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="146" t="s">
-        <v>209</v>
+      <c r="O19" s="178">
+        <v>1</v>
+      </c>
+      <c r="P19" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="145" t="s">
+        <v>207</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S19" s="110">
+        <v>185</v>
+      </c>
+      <c r="S19" s="109">
         <v>250</v>
       </c>
-      <c r="T19" s="133"/>
+      <c r="T19" s="132"/>
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="184">
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E20" s="21">
         <v>100</v>
       </c>
-      <c r="F20" s="139">
-        <v>1</v>
-      </c>
-      <c r="G20" s="160" t="s">
-        <v>284</v>
+      <c r="F20" s="138">
+        <v>1</v>
+      </c>
+      <c r="G20" s="159" t="s">
+        <v>275</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="113">
+        <v>203</v>
+      </c>
+      <c r="I20" s="112">
         <v>100</v>
       </c>
-      <c r="J20" s="114"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="179">
-        <v>1</v>
-      </c>
-      <c r="P20" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="160" t="s">
-        <v>283</v>
+      <c r="O20" s="178">
+        <v>1</v>
+      </c>
+      <c r="P20" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="159" t="s">
+        <v>274</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="S20" s="113">
+        <v>203</v>
+      </c>
+      <c r="S20" s="112">
         <v>100</v>
       </c>
-      <c r="T20" s="114"/>
+      <c r="T20" s="113"/>
       <c r="U20" s="21" t="s">
         <v>25</v>
       </c>
@@ -3616,1275 +3626,1275 @@
       <c r="X20" s="21">
         <v>60</v>
       </c>
-      <c r="Y20" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="184">
+      <c r="Y20" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
-      <c r="B21" s="156"/>
+      <c r="A21" s="203"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="7">
         <v>60</v>
       </c>
-      <c r="F21" s="139">
-        <v>0</v>
-      </c>
-      <c r="G21" s="147" t="s">
+      <c r="F21" s="138">
+        <v>0</v>
+      </c>
+      <c r="G21" s="146" t="s">
         <v>149</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="115">
+        <v>188</v>
+      </c>
+      <c r="I21" s="114">
         <v>60</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="179">
-        <v>0</v>
-      </c>
-      <c r="P21" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="147" t="s">
+      <c r="N21" s="61"/>
+      <c r="O21" s="178">
+        <v>0</v>
+      </c>
+      <c r="P21" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="146" t="s">
         <v>174</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S21" s="115">
+        <v>188</v>
+      </c>
+      <c r="S21" s="114">
         <v>60</v>
       </c>
-      <c r="T21" s="134"/>
+      <c r="T21" s="133"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="184">
+      <c r="Y21" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="201"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="139">
-        <v>1</v>
-      </c>
-      <c r="G22" s="147" t="s">
+      <c r="F22" s="138">
+        <v>1</v>
+      </c>
+      <c r="G22" s="146" t="s">
         <v>160</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="115">
+        <v>188</v>
+      </c>
+      <c r="I22" s="114">
         <v>100</v>
       </c>
-      <c r="J22" s="116" t="s">
+      <c r="J22" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="64" t="s">
+      <c r="L22" s="63" t="s">
         <v>135</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="62">
+      <c r="N22" s="61">
         <v>90</v>
       </c>
-      <c r="O22" s="179">
-        <v>0</v>
-      </c>
-      <c r="P22" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="147" t="s">
+      <c r="O22" s="178">
+        <v>0</v>
+      </c>
+      <c r="P22" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="146" t="s">
         <v>175</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S22" s="115">
+        <v>188</v>
+      </c>
+      <c r="S22" s="114">
         <v>100</v>
       </c>
-      <c r="T22" s="134"/>
-      <c r="U22" s="81" t="s">
+      <c r="T22" s="133"/>
+      <c r="U22" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="V22" s="98" t="s">
+      <c r="V22" s="97" t="s">
         <v>176</v>
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="184">
+      <c r="Y22" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="201"/>
+      <c r="A23" s="203"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="7">
         <v>140</v>
       </c>
-      <c r="F23" s="139">
-        <v>1</v>
-      </c>
-      <c r="G23" s="147" t="s">
+      <c r="F23" s="138">
+        <v>1</v>
+      </c>
+      <c r="G23" s="146" t="s">
         <v>161</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="115">
+        <v>188</v>
+      </c>
+      <c r="I23" s="114">
         <v>140</v>
       </c>
-      <c r="J23" s="116" t="s">
+      <c r="J23" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="64" t="s">
+      <c r="L23" s="63" t="s">
         <v>136</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="62">
+      <c r="N23" s="61">
         <v>140</v>
       </c>
-      <c r="O23" s="179">
-        <v>0</v>
-      </c>
-      <c r="P23" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="147" t="s">
-        <v>210</v>
+      <c r="O23" s="178">
+        <v>0</v>
+      </c>
+      <c r="P23" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="146" t="s">
+        <v>208</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="115">
+        <v>188</v>
+      </c>
+      <c r="S23" s="114">
         <v>140</v>
       </c>
-      <c r="T23" s="134"/>
-      <c r="U23" s="81" t="s">
+      <c r="T23" s="133"/>
+      <c r="U23" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="V23" s="98" t="s">
+      <c r="V23" s="97" t="s">
         <v>176</v>
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="184">
+      <c r="Y23" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="7">
         <v>250</v>
       </c>
-      <c r="F24" s="139">
-        <v>1</v>
-      </c>
-      <c r="G24" s="147" t="s">
-        <v>290</v>
+      <c r="F24" s="138">
+        <v>1</v>
+      </c>
+      <c r="G24" s="146" t="s">
+        <v>281</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I24" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="116" t="s">
+      <c r="J24" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="64" t="s">
+      <c r="L24" s="63" t="s">
         <v>137</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="62">
+      <c r="N24" s="61">
         <v>250</v>
       </c>
-      <c r="O24" s="179">
-        <v>1</v>
-      </c>
-      <c r="P24" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="147" t="s">
-        <v>211</v>
+      <c r="O24" s="178">
+        <v>1</v>
+      </c>
+      <c r="P24" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="146" t="s">
+        <v>209</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S24" s="115">
+        <v>188</v>
+      </c>
+      <c r="S24" s="114">
         <v>250</v>
       </c>
-      <c r="T24" s="134"/>
+      <c r="T24" s="133"/>
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="184">
+      <c r="Y24" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="202" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E25" s="19">
         <v>120</v>
       </c>
-      <c r="F25" s="139">
-        <v>0</v>
-      </c>
-      <c r="G25" s="159" t="s">
-        <v>265</v>
+      <c r="F25" s="138">
+        <v>0</v>
+      </c>
+      <c r="G25" s="158" t="s">
+        <v>257</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="117">
+        <v>200</v>
+      </c>
+      <c r="I25" s="116">
         <v>120</v>
       </c>
-      <c r="J25" s="118"/>
+      <c r="J25" s="117"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="179">
-        <v>1</v>
-      </c>
-      <c r="P25" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="159" t="s">
-        <v>274</v>
+      <c r="O25" s="178">
+        <v>1</v>
+      </c>
+      <c r="P25" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="158" t="s">
+        <v>265</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="S25" s="117">
+        <v>200</v>
+      </c>
+      <c r="S25" s="116">
         <v>120</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="86"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="85"/>
       <c r="W25" s="20"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="184">
+      <c r="Y25" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="19"/>
       <c r="C26" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="19">
         <v>120</v>
       </c>
-      <c r="F26" s="139">
-        <v>0</v>
-      </c>
-      <c r="G26" s="159" t="s">
-        <v>266</v>
+      <c r="F26" s="138">
+        <v>0</v>
+      </c>
+      <c r="G26" s="158" t="s">
+        <v>258</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" s="117">
+        <v>199</v>
+      </c>
+      <c r="I26" s="116">
         <v>120</v>
       </c>
-      <c r="J26" s="118"/>
+      <c r="J26" s="117"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="179">
-        <v>1</v>
-      </c>
-      <c r="P26" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="159" t="s">
-        <v>275</v>
+      <c r="O26" s="178">
+        <v>1</v>
+      </c>
+      <c r="P26" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="158" t="s">
+        <v>266</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="S26" s="117">
+        <v>199</v>
+      </c>
+      <c r="S26" s="116">
         <v>120</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="86"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="85"/>
       <c r="W26" s="20"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="184">
+      <c r="Y26" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="203"/>
+      <c r="B27" s="92" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="93">
+        <v>234</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="92">
         <v>120</v>
       </c>
-      <c r="F27" s="139">
-        <v>0</v>
-      </c>
-      <c r="G27" s="159" t="s">
-        <v>267</v>
+      <c r="F27" s="138">
+        <v>0</v>
+      </c>
+      <c r="G27" s="158" t="s">
+        <v>259</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" s="117">
+        <v>191</v>
+      </c>
+      <c r="I27" s="116">
         <v>120</v>
       </c>
-      <c r="J27" s="118"/>
+      <c r="J27" s="117"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="179">
-        <v>1</v>
-      </c>
-      <c r="P27" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="159" t="s">
-        <v>276</v>
+      <c r="O27" s="178">
+        <v>1</v>
+      </c>
+      <c r="P27" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="158" t="s">
+        <v>267</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="S27" s="117">
+        <v>191</v>
+      </c>
+      <c r="S27" s="116">
         <v>120</v>
       </c>
-      <c r="T27" s="118"/>
-      <c r="U27" s="87" t="s">
+      <c r="T27" s="117"/>
+      <c r="U27" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="V27" s="86" t="s">
+      <c r="V27" s="85" t="s">
         <v>167</v>
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="19"/>
-      <c r="Y27" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="184">
+      <c r="Y27" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="19">
         <v>120</v>
       </c>
-      <c r="F28" s="139">
-        <v>1</v>
-      </c>
-      <c r="G28" s="159" t="s">
-        <v>268</v>
+      <c r="F28" s="138">
+        <v>1</v>
+      </c>
+      <c r="G28" s="158" t="s">
+        <v>260</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="117">
+        <v>190</v>
+      </c>
+      <c r="I28" s="116">
         <v>120</v>
       </c>
-      <c r="J28" s="118"/>
+      <c r="J28" s="117"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="179">
-        <v>1</v>
-      </c>
-      <c r="P28" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="159" t="s">
-        <v>277</v>
+      <c r="O28" s="178">
+        <v>1</v>
+      </c>
+      <c r="P28" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="158" t="s">
+        <v>268</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="S28" s="117">
+        <v>190</v>
+      </c>
+      <c r="S28" s="116">
         <v>120</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="U28" s="87" t="s">
+      <c r="T28" s="117"/>
+      <c r="U28" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="V28" s="86" t="s">
+      <c r="V28" s="85" t="s">
         <v>167</v>
       </c>
       <c r="W28" s="20"/>
       <c r="X28" s="19"/>
-      <c r="Y28" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="184">
+      <c r="Y28" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="203"/>
+      <c r="B29" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="93">
+        <v>236</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="92">
         <v>120</v>
       </c>
-      <c r="F29" s="139">
-        <v>0</v>
-      </c>
-      <c r="G29" s="159" t="s">
-        <v>269</v>
+      <c r="F29" s="138">
+        <v>0</v>
+      </c>
+      <c r="G29" s="158" t="s">
+        <v>261</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="117">
+        <v>192</v>
+      </c>
+      <c r="I29" s="116">
         <v>120</v>
       </c>
-      <c r="J29" s="118"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="179">
-        <v>1</v>
-      </c>
-      <c r="P29" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="159" t="s">
-        <v>278</v>
+      <c r="O29" s="178">
+        <v>1</v>
+      </c>
+      <c r="P29" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="158" t="s">
+        <v>269</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="S29" s="117">
+        <v>192</v>
+      </c>
+      <c r="S29" s="116">
         <v>120</v>
       </c>
-      <c r="T29" s="118"/>
+      <c r="T29" s="117"/>
       <c r="U29" s="19"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="184">
+      <c r="Y29" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="19"/>
       <c r="C30" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E30" s="19">
         <v>120</v>
       </c>
-      <c r="F30" s="139">
-        <v>0</v>
-      </c>
-      <c r="G30" s="159" t="s">
-        <v>270</v>
+      <c r="F30" s="138">
+        <v>0</v>
+      </c>
+      <c r="G30" s="158" t="s">
+        <v>262</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" s="117">
+        <v>201</v>
+      </c>
+      <c r="I30" s="116">
         <v>120</v>
       </c>
-      <c r="J30" s="118"/>
+      <c r="J30" s="117"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="179">
-        <v>1</v>
-      </c>
-      <c r="P30" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="159" t="s">
-        <v>279</v>
+      <c r="O30" s="178">
+        <v>1</v>
+      </c>
+      <c r="P30" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="158" t="s">
+        <v>270</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="S30" s="117">
+        <v>201</v>
+      </c>
+      <c r="S30" s="116">
         <v>120</v>
       </c>
-      <c r="T30" s="118"/>
+      <c r="T30" s="117"/>
       <c r="U30" s="19"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="184">
+      <c r="Y30" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="201"/>
+      <c r="A31" s="203"/>
       <c r="B31" s="19"/>
       <c r="C31" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E31" s="19">
         <v>120</v>
       </c>
-      <c r="F31" s="139">
-        <v>0</v>
-      </c>
-      <c r="G31" s="159" t="s">
-        <v>271</v>
+      <c r="F31" s="138">
+        <v>0</v>
+      </c>
+      <c r="G31" s="158" t="s">
+        <v>263</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="I31" s="117">
+        <v>202</v>
+      </c>
+      <c r="I31" s="116">
         <v>120</v>
       </c>
-      <c r="J31" s="118"/>
+      <c r="J31" s="117"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="179">
-        <v>1</v>
-      </c>
-      <c r="P31" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="159" t="s">
-        <v>280</v>
+      <c r="O31" s="178">
+        <v>1</v>
+      </c>
+      <c r="P31" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="158" t="s">
+        <v>271</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="S31" s="117">
+        <v>202</v>
+      </c>
+      <c r="S31" s="116">
         <v>120</v>
       </c>
-      <c r="T31" s="118"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="86"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="85"/>
       <c r="W31" s="20"/>
       <c r="X31" s="19"/>
-      <c r="Y31" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="184">
+      <c r="Y31" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="201"/>
-      <c r="B32" s="93" t="s">
+      <c r="A32" s="203"/>
+      <c r="B32" s="92" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="93">
+        <v>239</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="92">
         <v>120</v>
       </c>
-      <c r="F32" s="139">
-        <v>0</v>
-      </c>
-      <c r="G32" s="159" t="s">
-        <v>272</v>
+      <c r="F32" s="138">
+        <v>0</v>
+      </c>
+      <c r="G32" s="158" t="s">
+        <v>264</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="117">
+        <v>193</v>
+      </c>
+      <c r="I32" s="116">
         <v>120</v>
       </c>
-      <c r="J32" s="118"/>
+      <c r="J32" s="117"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="179">
-        <v>1</v>
-      </c>
-      <c r="P32" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="159" t="s">
-        <v>281</v>
+      <c r="O32" s="178">
+        <v>1</v>
+      </c>
+      <c r="P32" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="158" t="s">
+        <v>272</v>
       </c>
       <c r="R32" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="117">
+        <v>193</v>
+      </c>
+      <c r="S32" s="116">
         <v>120</v>
       </c>
-      <c r="T32" s="118"/>
+      <c r="T32" s="117"/>
       <c r="U32" s="19"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="184">
+      <c r="Y32" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="202"/>
-      <c r="B33" s="93" t="s">
+      <c r="A33" s="204"/>
+      <c r="B33" s="92" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="93">
+        <v>240</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="92">
         <v>120</v>
       </c>
-      <c r="F33" s="139">
-        <v>0</v>
-      </c>
-      <c r="G33" s="159" t="s">
+      <c r="F33" s="138">
+        <v>0</v>
+      </c>
+      <c r="G33" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="116">
+        <v>120</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="58">
+        <v>70</v>
+      </c>
+      <c r="O33" s="178">
+        <v>11</v>
+      </c>
+      <c r="P33" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="117">
+      <c r="R33" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="116">
         <v>120</v>
       </c>
-      <c r="J33" s="119" t="s">
-        <v>156</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="59">
-        <v>70</v>
-      </c>
-      <c r="O33" s="179">
-        <v>1</v>
-      </c>
-      <c r="P33" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="159" t="s">
-        <v>282</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="S33" s="117">
-        <v>120</v>
-      </c>
-      <c r="T33" s="118"/>
+      <c r="T33" s="117"/>
       <c r="U33" s="19"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="19"/>
-      <c r="Y33" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="184">
-        <v>0</v>
+      <c r="Y33" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="183">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="202" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="9">
         <v>60</v>
       </c>
-      <c r="F34" s="139">
-        <v>1</v>
-      </c>
-      <c r="G34" s="148" t="s">
+      <c r="F34" s="138">
+        <v>1</v>
+      </c>
+      <c r="G34" s="147" t="s">
         <v>157</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I34" s="120">
+        <v>189</v>
+      </c>
+      <c r="I34" s="119">
         <v>60</v>
       </c>
-      <c r="J34" s="121"/>
+      <c r="J34" s="120"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="179">
-        <v>0</v>
-      </c>
-      <c r="P34" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="148" t="s">
+      <c r="O34" s="178">
+        <v>0</v>
+      </c>
+      <c r="P34" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="147" t="s">
         <v>171</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S34" s="120">
+        <v>189</v>
+      </c>
+      <c r="S34" s="119">
         <v>60</v>
       </c>
-      <c r="T34" s="121"/>
+      <c r="T34" s="120"/>
       <c r="U34" s="9"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="184">
+      <c r="Y34" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="201"/>
+      <c r="A35" s="203"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E35" s="9">
         <v>100</v>
       </c>
-      <c r="F35" s="139">
-        <v>1</v>
-      </c>
-      <c r="G35" s="148" t="s">
+      <c r="F35" s="138">
+        <v>1</v>
+      </c>
+      <c r="G35" s="147" t="s">
         <v>158</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I35" s="120">
+        <v>189</v>
+      </c>
+      <c r="I35" s="119">
         <v>100</v>
       </c>
-      <c r="J35" s="122" t="s">
+      <c r="J35" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="L35" s="67" t="s">
+      <c r="L35" s="66" t="s">
         <v>139</v>
       </c>
       <c r="M35" s="10"/>
-      <c r="N35" s="65">
+      <c r="N35" s="64">
         <v>100</v>
       </c>
-      <c r="O35" s="179">
-        <v>0</v>
-      </c>
-      <c r="P35" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="148" t="s">
+      <c r="O35" s="178">
+        <v>0</v>
+      </c>
+      <c r="P35" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="147" t="s">
         <v>172</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S35" s="120">
+        <v>189</v>
+      </c>
+      <c r="S35" s="119">
         <v>100</v>
       </c>
-      <c r="T35" s="121"/>
-      <c r="U35" s="76" t="s">
+      <c r="T35" s="120"/>
+      <c r="U35" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="V35" s="90" t="s">
+      <c r="V35" s="89" t="s">
         <v>173</v>
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="184">
+      <c r="Y35" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
-      <c r="B36" s="95" t="s">
+      <c r="A36" s="203"/>
+      <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="95">
+        <v>243</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="94">
         <v>140</v>
       </c>
-      <c r="F36" s="139">
-        <v>0</v>
-      </c>
-      <c r="G36" s="148" t="s">
+      <c r="F36" s="138">
+        <v>0</v>
+      </c>
+      <c r="G36" s="147" t="s">
         <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" s="120">
+        <v>189</v>
+      </c>
+      <c r="I36" s="119">
         <v>140</v>
       </c>
-      <c r="J36" s="122" t="s">
+      <c r="J36" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="66" t="s">
+      <c r="K36" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="L36" s="66" t="s">
         <v>141</v>
       </c>
       <c r="M36" s="10"/>
-      <c r="N36" s="65">
+      <c r="N36" s="64">
         <v>160</v>
       </c>
-      <c r="O36" s="179">
-        <v>0</v>
-      </c>
-      <c r="P36" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="148" t="s">
-        <v>212</v>
+      <c r="O36" s="178">
+        <v>0</v>
+      </c>
+      <c r="P36" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="147" t="s">
+        <v>210</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S36" s="120">
+        <v>189</v>
+      </c>
+      <c r="S36" s="119">
         <v>140</v>
       </c>
-      <c r="T36" s="121"/>
-      <c r="U36" s="76" t="s">
+      <c r="T36" s="120"/>
+      <c r="U36" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="V36" s="90" t="s">
+      <c r="V36" s="89" t="s">
         <v>173</v>
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="184">
+      <c r="Y36" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="201"/>
-      <c r="B37" s="95" t="s">
+      <c r="A37" s="203"/>
+      <c r="B37" s="94" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="95">
+        <v>244</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="94">
         <v>250</v>
       </c>
-      <c r="F37" s="139">
-        <v>0</v>
-      </c>
-      <c r="G37" s="148" t="s">
-        <v>181</v>
+      <c r="F37" s="138">
+        <v>0</v>
+      </c>
+      <c r="G37" s="147" t="s">
+        <v>180</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I37" s="120">
+        <v>189</v>
+      </c>
+      <c r="I37" s="119">
         <v>250</v>
       </c>
-      <c r="J37" s="122" t="s">
+      <c r="J37" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="L37" s="67" t="s">
+      <c r="L37" s="66" t="s">
         <v>143</v>
       </c>
       <c r="M37" s="10"/>
-      <c r="N37" s="65">
+      <c r="N37" s="64">
         <v>350</v>
       </c>
-      <c r="O37" s="179">
-        <v>0</v>
-      </c>
-      <c r="P37" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="148" t="s">
-        <v>213</v>
+      <c r="O37" s="178">
+        <v>0</v>
+      </c>
+      <c r="P37" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="147" t="s">
+        <v>211</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S37" s="120">
+        <v>189</v>
+      </c>
+      <c r="S37" s="119">
         <v>250</v>
       </c>
-      <c r="T37" s="121"/>
+      <c r="T37" s="120"/>
       <c r="U37" s="9"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="184">
+      <c r="Y37" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
-      <c r="B38" s="95" t="s">
+      <c r="A38" s="203"/>
+      <c r="B38" s="94" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="140">
-        <v>0</v>
-      </c>
-      <c r="G38" s="148" t="s">
-        <v>200</v>
+      <c r="F38" s="139">
+        <v>0</v>
+      </c>
+      <c r="G38" s="147" t="s">
+        <v>198</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I38" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="121"/>
+      <c r="J38" s="120"/>
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="179">
-        <v>1</v>
-      </c>
-      <c r="P38" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="148" t="s">
-        <v>214</v>
+      <c r="O38" s="178">
+        <v>1</v>
+      </c>
+      <c r="P38" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="147" t="s">
+        <v>212</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S38" s="153" t="s">
+        <v>189</v>
+      </c>
+      <c r="S38" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="121"/>
+      <c r="T38" s="120"/>
       <c r="U38" s="9"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="184">
+      <c r="Y38" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="201"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="157" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E39" s="79">
+      <c r="A39" s="203"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="78">
         <v>120</v>
       </c>
-      <c r="F39" s="140">
-        <v>0</v>
-      </c>
-      <c r="G39" s="149" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" s="123">
+      <c r="F39" s="139">
+        <v>0</v>
+      </c>
+      <c r="G39" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="122">
         <v>120</v>
       </c>
-      <c r="J39" s="124" t="s">
+      <c r="J39" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="K39" s="80"/>
-      <c r="L39" s="78" t="s">
+      <c r="K39" s="79"/>
+      <c r="L39" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="78"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="179">
-        <v>0</v>
-      </c>
-      <c r="P39" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="149" t="s">
-        <v>288</v>
-      </c>
-      <c r="R39" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="S39" s="123">
+      <c r="M39" s="77"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="178">
+        <v>1</v>
+      </c>
+      <c r="P39" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="148" t="s">
+        <v>279</v>
+      </c>
+      <c r="R39" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="S39" s="122">
         <v>120</v>
       </c>
-      <c r="T39" s="135"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="184">
+      <c r="T39" s="134"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="201"/>
+      <c r="A40" s="203"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E40" s="12">
         <v>60</v>
       </c>
-      <c r="F40" s="139">
-        <v>0</v>
-      </c>
-      <c r="G40" s="152" t="s">
+      <c r="F40" s="138">
+        <v>0</v>
+      </c>
+      <c r="G40" s="151" t="s">
         <v>152</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="125">
+        <v>194</v>
+      </c>
+      <c r="I40" s="124">
         <v>60</v>
       </c>
-      <c r="J40" s="126"/>
+      <c r="J40" s="125"/>
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="179">
-        <v>0</v>
-      </c>
-      <c r="P40" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="152" t="s">
+      <c r="O40" s="178">
+        <v>0</v>
+      </c>
+      <c r="P40" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="151" t="s">
         <v>168</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S40" s="125">
+        <v>194</v>
+      </c>
+      <c r="S40" s="124">
         <v>60</v>
       </c>
-      <c r="T40" s="126"/>
+      <c r="T40" s="125"/>
       <c r="U40" s="12"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="184">
+      <c r="Y40" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="201"/>
+      <c r="A41" s="203"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" s="12">
         <v>100</v>
       </c>
-      <c r="F41" s="139">
-        <v>1</v>
-      </c>
-      <c r="G41" s="152" t="s">
+      <c r="F41" s="138">
+        <v>1</v>
+      </c>
+      <c r="G41" s="151" t="s">
         <v>154</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="125">
+        <v>194</v>
+      </c>
+      <c r="I41" s="124">
         <v>100</v>
       </c>
-      <c r="J41" s="126"/>
-      <c r="K41" s="71" t="s">
+      <c r="J41" s="125"/>
+      <c r="K41" s="70" t="s">
         <v>152</v>
       </c>
       <c r="L41" s="13" t="s">
@@ -4894,133 +4904,133 @@
       <c r="N41" s="12">
         <v>120</v>
       </c>
-      <c r="O41" s="179">
-        <v>0</v>
-      </c>
-      <c r="P41" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="152" t="s">
+      <c r="O41" s="178">
+        <v>0</v>
+      </c>
+      <c r="P41" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="151" t="s">
         <v>169</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S41" s="125">
+        <v>194</v>
+      </c>
+      <c r="S41" s="124">
         <v>100</v>
       </c>
-      <c r="T41" s="136"/>
-      <c r="U41" s="88" t="s">
+      <c r="T41" s="135"/>
+      <c r="U41" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="V41" s="89" t="s">
+      <c r="V41" s="88" t="s">
         <v>170</v>
       </c>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
-      <c r="Y41" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="184">
+      <c r="Y41" s="178">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
+      <c r="A42" s="203"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E42" s="12">
         <v>140</v>
       </c>
-      <c r="F42" s="139">
-        <v>1</v>
-      </c>
-      <c r="G42" s="152" t="s">
-        <v>182</v>
+      <c r="F42" s="138">
+        <v>1</v>
+      </c>
+      <c r="G42" s="151" t="s">
+        <v>181</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" s="125">
+        <v>194</v>
+      </c>
+      <c r="I42" s="124">
         <v>140</v>
       </c>
-      <c r="J42" s="126"/>
-      <c r="K42" s="70" t="s">
+      <c r="J42" s="125"/>
+      <c r="K42" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="67" t="s">
         <v>144</v>
       </c>
       <c r="M42" s="13"/>
-      <c r="N42" s="69">
+      <c r="N42" s="68">
         <v>160</v>
       </c>
-      <c r="O42" s="179">
-        <v>0</v>
-      </c>
-      <c r="P42" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="152" t="s">
-        <v>215</v>
+      <c r="O42" s="178">
+        <v>0</v>
+      </c>
+      <c r="P42" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="151" t="s">
+        <v>213</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S42" s="125">
+        <v>194</v>
+      </c>
+      <c r="S42" s="124">
         <v>140</v>
       </c>
-      <c r="T42" s="136"/>
-      <c r="U42" s="88" t="s">
+      <c r="T42" s="135"/>
+      <c r="U42" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="V42" s="89" t="s">
+      <c r="V42" s="88" t="s">
         <v>170</v>
       </c>
       <c r="W42" s="13"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="184">
+      <c r="Y42" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="201"/>
+      <c r="A43" s="203"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E43" s="12">
         <v>250</v>
       </c>
-      <c r="F43" s="139">
-        <v>1</v>
-      </c>
-      <c r="G43" s="152" t="s">
-        <v>183</v>
+      <c r="F43" s="138">
+        <v>1</v>
+      </c>
+      <c r="G43" s="151" t="s">
+        <v>182</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" s="125">
+        <v>194</v>
+      </c>
+      <c r="I43" s="124">
         <v>250</v>
       </c>
-      <c r="J43" s="126"/>
-      <c r="K43" s="71" t="s">
+      <c r="J43" s="125"/>
+      <c r="K43" s="70" t="s">
         <v>154</v>
       </c>
       <c r="L43" s="13" t="s">
@@ -5030,916 +5040,1009 @@
       <c r="N43" s="12">
         <v>300</v>
       </c>
-      <c r="O43" s="179">
-        <v>0</v>
-      </c>
-      <c r="P43" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="152" t="s">
-        <v>216</v>
+      <c r="O43" s="178">
+        <v>0</v>
+      </c>
+      <c r="P43" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="151" t="s">
+        <v>214</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S43" s="125">
+        <v>194</v>
+      </c>
+      <c r="S43" s="124">
         <v>250</v>
       </c>
-      <c r="T43" s="126"/>
+      <c r="T43" s="125"/>
       <c r="U43" s="12"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
-      <c r="Y43" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="184">
+      <c r="Y43" s="178">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="202"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="140">
-        <v>1</v>
-      </c>
-      <c r="G44" s="152" t="s">
-        <v>199</v>
+      <c r="F44" s="139">
+        <v>1</v>
+      </c>
+      <c r="G44" s="151" t="s">
+        <v>197</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I44" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="126"/>
+      <c r="J44" s="125"/>
       <c r="K44" s="12"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="179">
-        <v>1</v>
-      </c>
-      <c r="P44" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="152" t="s">
-        <v>217</v>
+      <c r="O44" s="178">
+        <v>1</v>
+      </c>
+      <c r="P44" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="151" t="s">
+        <v>215</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S44" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="S44" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="126"/>
+      <c r="T44" s="125"/>
       <c r="U44" s="12"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="184">
+      <c r="Y44" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="191" t="s">
-        <v>293</v>
-      </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="161" t="s">
-        <v>254</v>
+      <c r="A45" s="195" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="98"/>
+      <c r="C45" s="160" t="s">
+        <v>252</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E45" s="17">
         <v>100</v>
       </c>
-      <c r="F45" s="140">
-        <v>1</v>
-      </c>
-      <c r="G45" s="150" t="s">
+      <c r="F45" s="139">
+        <v>1</v>
+      </c>
+      <c r="G45" s="149" t="s">
         <v>111</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I45" s="127"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="50"/>
+        <v>251</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="49"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="179">
-        <v>0</v>
-      </c>
-      <c r="P45" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="150" t="s">
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="178">
+        <v>0</v>
+      </c>
+      <c r="P45" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="149" t="s">
         <v>126</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="S45" s="127"/>
-      <c r="T45" s="137"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="85"/>
-      <c r="W45" s="52"/>
+        <v>251</v>
+      </c>
+      <c r="S45" s="126"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="84"/>
+      <c r="W45" s="51"/>
       <c r="X45" s="17"/>
-      <c r="Y45" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="184">
+      <c r="Y45" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="192"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="161" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="140">
-        <v>0</v>
-      </c>
-      <c r="G46" s="150" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="160" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="17">
+        <v>100</v>
+      </c>
+      <c r="F46" s="139">
+        <v>1</v>
+      </c>
+      <c r="G46" s="149" t="s">
         <v>112</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I46" s="127">
+        <v>251</v>
+      </c>
+      <c r="I46" s="126">
         <v>100</v>
       </c>
-      <c r="J46" s="128" t="s">
+      <c r="J46" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="K46" s="50"/>
+      <c r="K46" s="49"/>
       <c r="L46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="179">
-        <v>0</v>
-      </c>
-      <c r="P46" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="150" t="s">
+      <c r="M46" s="51"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="178">
+        <v>0</v>
+      </c>
+      <c r="P46" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="149" t="s">
         <v>127</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="S46" s="127">
+        <v>251</v>
+      </c>
+      <c r="S46" s="126">
         <v>100</v>
       </c>
-      <c r="T46" s="137"/>
-      <c r="U46" s="50" t="s">
+      <c r="T46" s="136"/>
+      <c r="U46" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="V46" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="W46" s="52" t="s">
+      <c r="V46" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="W46" s="51" t="s">
         <v>116</v>
       </c>
       <c r="X46" s="17"/>
-      <c r="Y46" s="180">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="184">
+      <c r="Y46" s="179">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="192"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="161" t="s">
-        <v>255</v>
-      </c>
+      <c r="C47" s="160"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="140">
-        <v>0</v>
-      </c>
-      <c r="G47" s="150" t="s">
-        <v>184</v>
+      <c r="F47" s="139">
+        <v>0</v>
+      </c>
+      <c r="G47" s="149" t="s">
+        <v>183</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I47" s="127">
+        <v>251</v>
+      </c>
+      <c r="I47" s="126">
         <v>140</v>
       </c>
-      <c r="J47" s="129" t="s">
+      <c r="J47" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="50"/>
+      <c r="K47" s="49"/>
       <c r="L47" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="52"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="179">
-        <v>0</v>
-      </c>
-      <c r="P47" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="150" t="s">
-        <v>218</v>
+      <c r="M47" s="51"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="178">
+        <v>0</v>
+      </c>
+      <c r="P47" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="149" t="s">
+        <v>216</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="S47" s="127">
+        <v>251</v>
+      </c>
+      <c r="S47" s="126">
         <v>140</v>
       </c>
-      <c r="T47" s="137"/>
-      <c r="U47" s="50" t="s">
+      <c r="T47" s="136"/>
+      <c r="U47" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="V47" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="W47" s="52" t="s">
+      <c r="V47" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="W47" s="51" t="s">
         <v>117</v>
       </c>
       <c r="X47" s="17"/>
-      <c r="Y47" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="184">
+      <c r="Y47" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="192"/>
+      <c r="A48" s="195"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="161" t="s">
-        <v>256</v>
-      </c>
+      <c r="C48" s="160"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="140">
-        <v>0</v>
-      </c>
-      <c r="G48" s="150" t="s">
-        <v>185</v>
+      <c r="F48" s="139">
+        <v>0</v>
+      </c>
+      <c r="G48" s="149" t="s">
+        <v>184</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I48" s="127">
+        <v>251</v>
+      </c>
+      <c r="I48" s="126">
         <v>250</v>
       </c>
-      <c r="J48" s="128" t="s">
+      <c r="J48" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="50"/>
+      <c r="K48" s="49"/>
       <c r="L48" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="179">
-        <v>0</v>
-      </c>
-      <c r="P48" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="150" t="s">
-        <v>219</v>
+      <c r="M48" s="51"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="178">
+        <v>0</v>
+      </c>
+      <c r="P48" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="149" t="s">
+        <v>217</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="S48" s="127">
+        <v>251</v>
+      </c>
+      <c r="S48" s="126">
         <v>250</v>
       </c>
-      <c r="T48" s="137"/>
+      <c r="T48" s="136"/>
       <c r="U48" s="15"/>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17"/>
-      <c r="Y48" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="184">
+      <c r="Y48" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="192"/>
+      <c r="A49" s="195"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="161" t="s">
-        <v>259</v>
-      </c>
+      <c r="C49" s="160"/>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="140">
-        <v>0</v>
-      </c>
-      <c r="G49" s="150" t="s">
+      <c r="F49" s="139">
+        <v>0</v>
+      </c>
+      <c r="G49" s="149" t="s">
         <v>156</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I49" s="127"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="50"/>
+        <v>276</v>
+      </c>
+      <c r="I49" s="126"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="49"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="179">
-        <v>0</v>
-      </c>
-      <c r="P49" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="150" t="s">
+      <c r="M49" s="51"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="178">
+        <v>0</v>
+      </c>
+      <c r="P49" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="149" t="s">
         <v>165</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="S49" s="127"/>
-      <c r="T49" s="137"/>
+        <v>194</v>
+      </c>
+      <c r="S49" s="126"/>
+      <c r="T49" s="136"/>
       <c r="U49" s="15"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="17"/>
-      <c r="Y49" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="184">
+      <c r="Y49" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="192"/>
+      <c r="A50" s="195"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="161" t="s">
-        <v>260</v>
-      </c>
+      <c r="C50" s="160"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="140">
-        <v>0</v>
-      </c>
-      <c r="G50" s="150" t="s">
-        <v>257</v>
+      <c r="F50" s="139">
+        <v>0</v>
+      </c>
+      <c r="G50" s="149" t="s">
+        <v>253</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="50"/>
+        <v>276</v>
+      </c>
+      <c r="I50" s="126"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="49"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="179">
-        <v>0</v>
-      </c>
-      <c r="P50" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="150" t="s">
+      <c r="M50" s="51"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="178">
+        <v>0</v>
+      </c>
+      <c r="P50" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="149" t="s">
         <v>166</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="S50" s="127"/>
-      <c r="T50" s="137"/>
+        <v>194</v>
+      </c>
+      <c r="S50" s="126"/>
+      <c r="T50" s="136"/>
       <c r="U50" s="15"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="17"/>
-      <c r="Y50" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="184">
+      <c r="Y50" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="192"/>
+      <c r="A51" s="195"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="161" t="s">
-        <v>261</v>
-      </c>
+      <c r="C51" s="160"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="140">
-        <v>0</v>
-      </c>
-      <c r="G51" s="150" t="s">
-        <v>258</v>
+      <c r="F51" s="139">
+        <v>0</v>
+      </c>
+      <c r="G51" s="149" t="s">
+        <v>254</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" s="127"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="50"/>
+        <v>276</v>
+      </c>
+      <c r="I51" s="126"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="49"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="179">
-        <v>0</v>
-      </c>
-      <c r="P51" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="150" t="s">
-        <v>262</v>
+      <c r="M51" s="51"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="178">
+        <v>0</v>
+      </c>
+      <c r="P51" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="149" t="s">
+        <v>255</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="S51" s="127"/>
-      <c r="T51" s="137"/>
+        <v>194</v>
+      </c>
+      <c r="S51" s="126"/>
+      <c r="T51" s="136"/>
       <c r="U51" s="15"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="17"/>
-      <c r="Y51" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="184">
+      <c r="Y51" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="192"/>
+      <c r="A52" s="195"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="99"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="150"/>
+      <c r="F52" s="139">
+        <v>0</v>
+      </c>
+      <c r="G52" s="149"/>
       <c r="H52" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I52" s="127"/>
-      <c r="J52" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="I52" s="126"/>
+      <c r="J52" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="49" t="s">
         <v>111</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M52" s="52" t="s">
+      <c r="M52" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="N52" s="53">
+      <c r="N52" s="52">
         <v>80</v>
       </c>
-      <c r="O52" s="179">
-        <v>0</v>
-      </c>
-      <c r="P52" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="150"/>
+      <c r="O52" s="178">
+        <v>0</v>
+      </c>
+      <c r="P52" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="149"/>
       <c r="R52" s="16"/>
-      <c r="S52" s="127"/>
-      <c r="T52" s="137"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="136"/>
       <c r="U52" s="15"/>
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17"/>
-      <c r="Y52" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="184">
+      <c r="Y52" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="192"/>
+      <c r="A53" s="195"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="99"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="150"/>
+      <c r="F53" s="139">
+        <v>0</v>
+      </c>
+      <c r="G53" s="149"/>
       <c r="H53" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I53" s="127"/>
-      <c r="J53" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="I53" s="126"/>
+      <c r="J53" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="49" t="s">
         <v>112</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M53" s="52" t="s">
+      <c r="M53" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N53" s="53">
+      <c r="N53" s="52">
         <v>160</v>
       </c>
-      <c r="O53" s="179">
-        <v>0</v>
-      </c>
-      <c r="P53" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="150"/>
+      <c r="O53" s="178">
+        <v>0</v>
+      </c>
+      <c r="P53" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="149"/>
       <c r="R53" s="16"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="137"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="136"/>
       <c r="U53" s="15"/>
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="17"/>
-      <c r="Y53" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="184">
+      <c r="Y53" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="192"/>
+      <c r="A54" s="195"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="99"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="150"/>
+      <c r="F54" s="139">
+        <v>0</v>
+      </c>
+      <c r="G54" s="149"/>
       <c r="H54" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I54" s="127"/>
-      <c r="J54" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54" s="126"/>
+      <c r="J54" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="50" t="s">
+      <c r="K54" s="49" t="s">
         <v>113</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M54" s="52" t="s">
+      <c r="M54" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="N54" s="53">
+      <c r="N54" s="52">
         <v>120</v>
       </c>
-      <c r="O54" s="179">
-        <v>0</v>
-      </c>
-      <c r="P54" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="150"/>
+      <c r="O54" s="178">
+        <v>0</v>
+      </c>
+      <c r="P54" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="149"/>
       <c r="R54" s="16"/>
-      <c r="S54" s="127"/>
-      <c r="T54" s="137"/>
+      <c r="S54" s="126"/>
+      <c r="T54" s="136"/>
       <c r="U54" s="15"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="17"/>
-      <c r="Y54" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="184">
+      <c r="Y54" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="192"/>
+      <c r="A55" s="195"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="99"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="150"/>
+      <c r="F55" s="139">
+        <v>0</v>
+      </c>
+      <c r="G55" s="149"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="128" t="s">
+      <c r="I55" s="126"/>
+      <c r="J55" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="50"/>
+      <c r="K55" s="49"/>
       <c r="L55" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M55" s="52"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="179">
-        <v>0</v>
-      </c>
-      <c r="P55" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="150"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="178">
+        <v>0</v>
+      </c>
+      <c r="P55" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="149"/>
       <c r="R55" s="16"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="137"/>
+      <c r="S55" s="126"/>
+      <c r="T55" s="136"/>
       <c r="U55" s="15"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="17"/>
-      <c r="Y55" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="184">
+      <c r="Y55" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
+      <c r="A56" s="195"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="99"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="150"/>
+      <c r="F56" s="139">
+        <v>0</v>
+      </c>
+      <c r="G56" s="149"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="128" t="s">
+      <c r="I56" s="126"/>
+      <c r="J56" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="K56" s="50"/>
+      <c r="K56" s="49"/>
       <c r="L56" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="179">
-        <v>0</v>
-      </c>
-      <c r="P56" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="150"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="178">
+        <v>0</v>
+      </c>
+      <c r="P56" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="149"/>
       <c r="R56" s="16"/>
-      <c r="S56" s="127"/>
-      <c r="T56" s="137"/>
+      <c r="S56" s="126"/>
+      <c r="T56" s="136"/>
       <c r="U56" s="15"/>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17"/>
-      <c r="Y56" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="184">
+      <c r="Y56" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="192"/>
+      <c r="A57" s="195"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="158"/>
+      <c r="C57" s="157"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="151"/>
+      <c r="F57" s="139">
+        <v>0</v>
+      </c>
+      <c r="G57" s="150"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="131" t="s">
+      <c r="I57" s="129"/>
+      <c r="J57" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="51"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M57" s="54"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="179">
-        <v>0</v>
-      </c>
-      <c r="P57" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="151"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="178">
+        <v>0</v>
+      </c>
+      <c r="P57" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="150"/>
       <c r="R57" s="41"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="138"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="137"/>
       <c r="U57" s="33"/>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
       <c r="X57" s="42"/>
-      <c r="Y57" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="184">
+      <c r="Y57" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="192"/>
+      <c r="A58" s="195"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="158"/>
+      <c r="C58" s="157"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="151"/>
+      <c r="F58" s="139">
+        <v>0</v>
+      </c>
+      <c r="G58" s="150"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="132" t="s">
+      <c r="I58" s="129"/>
+      <c r="J58" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="51"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="179">
-        <v>0</v>
-      </c>
-      <c r="P58" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="151"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="178">
+        <v>0</v>
+      </c>
+      <c r="P58" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="150"/>
       <c r="R58" s="41"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="138"/>
+      <c r="S58" s="129"/>
+      <c r="T58" s="137"/>
       <c r="U58" s="33"/>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
       <c r="X58" s="42"/>
-      <c r="Y58" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="184">
+      <c r="Y58" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="183">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
+      <c r="A59" s="195"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="158"/>
+      <c r="C59" s="157"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="151"/>
+      <c r="F59" s="139">
+        <v>0</v>
+      </c>
+      <c r="G59" s="150"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="131" t="s">
+      <c r="I59" s="129"/>
+      <c r="J59" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="K59" s="51"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="M59" s="54"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="179">
-        <v>0</v>
-      </c>
-      <c r="P59" s="178">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="151"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="178">
+        <v>0</v>
+      </c>
+      <c r="P59" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="150"/>
       <c r="R59" s="41"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="138"/>
+      <c r="S59" s="129"/>
+      <c r="T59" s="137"/>
       <c r="U59" s="33"/>
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
       <c r="X59" s="42"/>
-      <c r="Y59" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="162"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="166">
-        <v>0</v>
-      </c>
-      <c r="G60" s="167" t="s">
+      <c r="Y59" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="139">
+        <v>0</v>
+      </c>
+      <c r="G60" s="166" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60" s="163"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="188"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="163"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="178">
+        <v>0</v>
+      </c>
+      <c r="P60" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="166"/>
+      <c r="R60" s="163"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="172"/>
+      <c r="U60" s="173"/>
+      <c r="V60" s="163"/>
+      <c r="W60" s="163"/>
+      <c r="X60" s="164"/>
+      <c r="Y60" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="191"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="139">
+        <v>0</v>
+      </c>
+      <c r="G61" s="166" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="163"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="188"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="163"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="178">
+        <v>0</v>
+      </c>
+      <c r="P61" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="166"/>
+      <c r="R61" s="163"/>
+      <c r="S61" s="167"/>
+      <c r="T61" s="172"/>
+      <c r="U61" s="173"/>
+      <c r="V61" s="163"/>
+      <c r="W61" s="163"/>
+      <c r="X61" s="164"/>
+      <c r="Y61" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="192"/>
+      <c r="B62" s="161"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="164"/>
+      <c r="F62" s="165">
+        <v>0</v>
+      </c>
+      <c r="G62" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="H60" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="I60" s="168">
+      <c r="H62" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" s="167">
         <v>100</v>
       </c>
-      <c r="J60" s="169" t="s">
+      <c r="J62" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="K60" s="170"/>
-      <c r="L60" s="164" t="s">
+      <c r="K62" s="169"/>
+      <c r="L62" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="M60" s="171"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="179">
-        <v>0</v>
-      </c>
-      <c r="P60" s="178">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="167" t="s">
-        <v>220</v>
-      </c>
-      <c r="R60" s="164"/>
-      <c r="S60" s="168">
+      <c r="M62" s="170"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="178">
+        <v>0</v>
+      </c>
+      <c r="P62" s="177">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="166" t="s">
+        <v>218</v>
+      </c>
+      <c r="R62" s="163"/>
+      <c r="S62" s="167">
         <v>100</v>
       </c>
-      <c r="T60" s="173"/>
-      <c r="U60" s="174"/>
-      <c r="V60" s="164"/>
-      <c r="W60" s="164"/>
-      <c r="X60" s="165"/>
-      <c r="Y60" s="181">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="175">
-        <f>F61+O61+Y61</f>
-        <v>44</v>
-      </c>
-      <c r="B61" s="175">
-        <f>F61+P61+Z61</f>
+      <c r="T62" s="172"/>
+      <c r="U62" s="173"/>
+      <c r="V62" s="163"/>
+      <c r="W62" s="163"/>
+      <c r="X62" s="164"/>
+      <c r="Y62" s="180">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="189">
+        <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="176">
-        <f>SUM(F3:F60)</f>
-        <v>18</v>
-      </c>
-      <c r="G61" s="177"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="175"/>
-      <c r="N61" s="175"/>
-      <c r="O61" s="182">
-        <f>SUM(O3:O60)</f>
+      <c r="B63" s="174">
+        <f>F63+O63+Y63</f>
+        <v>56</v>
+      </c>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
+      <c r="E63" s="174"/>
+      <c r="F63" s="175">
+        <f>SUM(F3:F62)</f>
+        <v>19</v>
+      </c>
+      <c r="G63" s="176"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="176"/>
+      <c r="K63" s="176"/>
+      <c r="L63" s="174"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="181">
+        <f>SUM(O3:O62)</f>
+        <v>26</v>
+      </c>
+      <c r="P63" s="182">
+        <f>SUM(P3:P62)</f>
+        <v>30</v>
+      </c>
+      <c r="Q63" s="174"/>
+      <c r="R63" s="174"/>
+      <c r="S63" s="174"/>
+      <c r="T63" s="174"/>
+      <c r="U63" s="174"/>
+      <c r="V63" s="174"/>
+      <c r="W63" s="174"/>
+      <c r="X63" s="174"/>
+      <c r="Y63" s="181">
+        <f>SUM(Y3:Y62)</f>
+        <v>11</v>
+      </c>
+      <c r="Z63" s="182">
+        <f>SUM(Z3:Z62)</f>
         <v>15</v>
       </c>
-      <c r="P61" s="183">
-        <f>SUM(P3:P60)</f>
-        <v>32</v>
-      </c>
-      <c r="Q61" s="175"/>
-      <c r="R61" s="175"/>
-      <c r="S61" s="175"/>
-      <c r="T61" s="175"/>
-      <c r="U61" s="175"/>
-      <c r="V61" s="175"/>
-      <c r="W61" s="175"/>
-      <c r="X61" s="175"/>
-      <c r="Y61" s="182">
-        <f>SUM(Y3:Y60)</f>
-        <v>11</v>
-      </c>
-      <c r="Z61" s="183">
-        <f>SUM(Z3:Z60)</f>
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A60:A62"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="A45:A59"/>
     <mergeCell ref="F1:F2"/>
@@ -5955,8 +6058,8 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="A25:A33"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y3:Y1048576 F1 F3:F1048576 O3:O1048576">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="F3:F45 F1 F47:F1048576 O3:O1048576 Y3:Y1048576">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -5967,8 +6070,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z1048576 P1 P3:P1048576">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="P3:P1048576 P1 Z3:Z1048576">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -5980,6 +6083,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5991,8 +6106,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1">
+  <conditionalFormatting sqref="Z1">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF99"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -6003,18 +6130,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF99"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -881,9 +881,6 @@
     <t>3rd rail</t>
   </si>
   <si>
-    <t>BAA@</t>
-  </si>
-  <si>
     <t>MONO</t>
   </si>
   <si>
@@ -895,6 +892,9 @@
   <si>
     <t>xUSSR
 add-on</t>
+  </si>
+  <si>
+    <t>B3A3</t>
   </si>
 </sst>
 </file>
@@ -2069,6 +2069,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -2088,12 +2094,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,42 +2435,42 @@
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
       <c r="F1" s="196" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="200" t="s">
+      <c r="G1" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="205" t="s">
-        <v>289</v>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="198" t="s">
+        <v>288</v>
       </c>
       <c r="P1" s="193" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="200" t="s">
+      <c r="Q1" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="198" t="s">
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="200" t="s">
         <v>256</v>
       </c>
       <c r="Z1" s="193" t="s">
@@ -2512,7 +2512,7 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="206"/>
+      <c r="O2" s="199"/>
       <c r="P2" s="194"/>
       <c r="Q2" s="140" t="s">
         <v>32</v>
@@ -2534,7 +2534,7 @@
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="199"/>
+      <c r="Y2" s="201"/>
       <c r="Z2" s="194"/>
       <c r="AA2" s="31" t="s">
         <v>39</v>
@@ -3312,7 +3312,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="202" t="s">
+      <c r="A16" s="204" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -3372,7 +3372,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="203"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="203"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="90" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3508,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="203"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="90" t="s">
         <v>7</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="203"/>
+      <c r="A20" s="205"/>
       <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="155"/>
       <c r="C21" s="26" t="s">
         <v>228</v>
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="203"/>
+      <c r="A22" s="205"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="203"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="204"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="204" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19"/>
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="203"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="19"/>
       <c r="C26" s="27" t="s">
         <v>233</v>
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="92" t="s">
         <v>26</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="203"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="203"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="92" t="s">
         <v>27</v>
       </c>
@@ -4192,7 +4192,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="203"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="19"/>
       <c r="C30" s="27" t="s">
         <v>237</v>
@@ -4248,7 +4248,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="203"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="19"/>
       <c r="C31" s="27" t="s">
         <v>238</v>
@@ -4304,7 +4304,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="203"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="92" t="s">
         <v>28</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="204"/>
+      <c r="A33" s="206"/>
       <c r="B33" s="92" t="s">
         <v>29</v>
       </c>
@@ -4428,7 +4428,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="202" t="s">
+      <c r="A34" s="204" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
@@ -4488,7 +4488,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="203"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="203"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="94" t="s">
         <v>14</v>
       </c>
@@ -4694,7 +4694,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="203"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="94" t="s">
         <v>15</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="203"/>
+      <c r="A39" s="205"/>
       <c r="B39" s="76"/>
       <c r="C39" s="156" t="s">
         <v>277</v>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="203"/>
+      <c r="A40" s="205"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
         <v>246</v>
@@ -4868,7 +4868,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="203"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="203"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="203"/>
+      <c r="A43" s="205"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="A46" s="195"/>
       <c r="B46" s="98"/>
       <c r="C46" s="160" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>251</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="190" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B60" s="161"/>
       <c r="C60" s="162"/>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="166" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H60" s="163"/>
       <c r="I60" s="167"/>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H61" s="163"/>
       <c r="I61" s="167"/>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -901,7 +901,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1095,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1482,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1937,156 +1973,141 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2095,6 +2116,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2391,15 +2466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="217" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -2435,45 +2510,45 @@
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="196" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="191" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="202" t="s">
+      <c r="G1" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="198" t="s">
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="193" t="s">
         <v>288</v>
       </c>
-      <c r="P1" s="193" t="s">
+      <c r="P1" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="202" t="s">
+      <c r="Q1" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="200" t="s">
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="195" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="193" t="s">
+      <c r="Z1" s="188" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2482,7 +2557,7 @@
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="202" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2491,7 +2566,7 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="197"/>
+      <c r="F2" s="192"/>
       <c r="G2" s="140" t="s">
         <v>32</v>
       </c>
@@ -2512,8 +2587,8 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="199"/>
-      <c r="P2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="189"/>
       <c r="Q2" s="140" t="s">
         <v>32</v>
       </c>
@@ -2534,20 +2609,20 @@
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="194"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="189"/>
       <c r="AA2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="185" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="203" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2583,10 +2658,10 @@
       <c r="N3" s="45">
         <v>80</v>
       </c>
-      <c r="O3" s="178">
-        <v>0</v>
-      </c>
-      <c r="P3" s="177">
+      <c r="O3" s="173">
+        <v>0</v>
+      </c>
+      <c r="P3" s="172">
         <v>1</v>
       </c>
       <c r="Q3" s="141" t="s">
@@ -2613,10 +2688,10 @@
       <c r="X3" s="45">
         <v>60</v>
       </c>
-      <c r="Y3" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="183">
+      <c r="Y3" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="178">
         <v>1</v>
       </c>
       <c r="AA3" s="37" t="s">
@@ -2624,11 +2699,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="203" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2664,10 +2739,10 @@
       <c r="N4" s="45">
         <v>125</v>
       </c>
-      <c r="O4" s="178">
-        <v>0</v>
-      </c>
-      <c r="P4" s="177">
+      <c r="O4" s="173">
+        <v>0</v>
+      </c>
+      <c r="P4" s="172">
         <v>1</v>
       </c>
       <c r="Q4" s="141" t="s">
@@ -2694,10 +2769,10 @@
       <c r="X4" s="45">
         <v>90</v>
       </c>
-      <c r="Y4" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="183">
+      <c r="Y4" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="178">
         <v>1</v>
       </c>
       <c r="AA4" s="39" t="s">
@@ -2705,11 +2780,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="203" t="s">
         <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2745,10 +2820,10 @@
       <c r="N5" s="45">
         <v>180</v>
       </c>
-      <c r="O5" s="178">
-        <v>0</v>
-      </c>
-      <c r="P5" s="177">
+      <c r="O5" s="173">
+        <v>0</v>
+      </c>
+      <c r="P5" s="172">
         <v>1</v>
       </c>
       <c r="Q5" s="141" t="s">
@@ -2771,10 +2846,10 @@
       <c r="X5" s="45">
         <v>120</v>
       </c>
-      <c r="Y5" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="183">
+      <c r="Y5" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="178">
         <v>0</v>
       </c>
       <c r="AA5" s="43" t="s">
@@ -2782,11 +2857,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="203" t="s">
         <v>222</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2804,7 +2879,7 @@
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="185" t="s">
+      <c r="I6" s="180" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="104"/>
@@ -2818,10 +2893,10 @@
       <c r="N6" s="45">
         <v>245</v>
       </c>
-      <c r="O6" s="178">
-        <v>1</v>
-      </c>
-      <c r="P6" s="177">
+      <c r="O6" s="173">
+        <v>1</v>
+      </c>
+      <c r="P6" s="172">
         <v>0</v>
       </c>
       <c r="Q6" s="141" t="s">
@@ -2838,10 +2913,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="183">
+      <c r="Y6" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="178">
         <v>0</v>
       </c>
       <c r="AA6" s="57" t="s">
@@ -2849,9 +2924,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="138"/>
@@ -2863,10 +2938,10 @@
       <c r="L7" s="4"/>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
-      <c r="O7" s="178">
-        <v>0</v>
-      </c>
-      <c r="P7" s="177">
+      <c r="O7" s="173">
+        <v>0</v>
+      </c>
+      <c r="P7" s="172">
         <v>0</v>
       </c>
       <c r="Q7" s="142"/>
@@ -2883,10 +2958,10 @@
       <c r="X7" s="45">
         <v>60</v>
       </c>
-      <c r="Y7" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="183">
+      <c r="Y7" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="178">
         <v>0</v>
       </c>
       <c r="AA7" s="71" t="s">
@@ -2894,9 +2969,9 @@
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="138"/>
@@ -2908,10 +2983,10 @@
       <c r="L8" s="4"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
-      <c r="O8" s="178">
-        <v>0</v>
-      </c>
-      <c r="P8" s="177">
+      <c r="O8" s="173">
+        <v>0</v>
+      </c>
+      <c r="P8" s="172">
         <v>0</v>
       </c>
       <c r="Q8" s="142"/>
@@ -2928,10 +3003,10 @@
       <c r="X8" s="45">
         <v>120</v>
       </c>
-      <c r="Y8" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="183">
+      <c r="Y8" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="178">
         <v>0</v>
       </c>
       <c r="AA8" s="73" t="s">
@@ -2940,11 +3015,11 @@
       <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="185" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35">
         <v>60</v>
@@ -2964,10 +3039,10 @@
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="46"/>
-      <c r="O9" s="178">
-        <v>0</v>
-      </c>
-      <c r="P9" s="177">
+      <c r="O9" s="173">
+        <v>0</v>
+      </c>
+      <c r="P9" s="172">
         <v>0</v>
       </c>
       <c r="Q9" s="143"/>
@@ -2988,18 +3063,18 @@
       <c r="X9" s="46">
         <v>60</v>
       </c>
-      <c r="Y9" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="183">
+      <c r="Y9" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="178">
         <v>0</v>
       </c>
       <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35">
         <v>100</v>
@@ -3023,10 +3098,10 @@
       <c r="N10" s="46">
         <v>125</v>
       </c>
-      <c r="O10" s="178">
-        <v>0</v>
-      </c>
-      <c r="P10" s="177">
+      <c r="O10" s="173">
+        <v>0</v>
+      </c>
+      <c r="P10" s="172">
         <v>0</v>
       </c>
       <c r="Q10" s="143"/>
@@ -3047,18 +3122,18 @@
       <c r="X10" s="46">
         <v>90</v>
       </c>
-      <c r="Y10" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="183">
+      <c r="Y10" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="178">
         <v>0</v>
       </c>
       <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="204"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="138"/>
@@ -3076,10 +3151,10 @@
       <c r="N11" s="46">
         <v>160</v>
       </c>
-      <c r="O11" s="178">
-        <v>0</v>
-      </c>
-      <c r="P11" s="177">
+      <c r="O11" s="173">
+        <v>0</v>
+      </c>
+      <c r="P11" s="172">
         <v>0</v>
       </c>
       <c r="Q11" s="143"/>
@@ -3096,18 +3171,18 @@
       <c r="X11" s="46">
         <v>120</v>
       </c>
-      <c r="Y11" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="183">
+      <c r="Y11" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="178">
         <v>0</v>
       </c>
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="204"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35">
         <v>140</v>
@@ -3131,10 +3206,10 @@
       <c r="N12" s="46">
         <v>180</v>
       </c>
-      <c r="O12" s="178">
-        <v>0</v>
-      </c>
-      <c r="P12" s="177">
+      <c r="O12" s="173">
+        <v>0</v>
+      </c>
+      <c r="P12" s="172">
         <v>0</v>
       </c>
       <c r="Q12" s="143"/>
@@ -3155,18 +3230,18 @@
       <c r="X12" s="46">
         <v>150</v>
       </c>
-      <c r="Y12" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="183">
+      <c r="Y12" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="178">
         <v>0</v>
       </c>
       <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35">
         <v>250</v>
@@ -3190,10 +3265,10 @@
       <c r="N13" s="46">
         <v>245</v>
       </c>
-      <c r="O13" s="178">
-        <v>0</v>
-      </c>
-      <c r="P13" s="177">
+      <c r="O13" s="173">
+        <v>0</v>
+      </c>
+      <c r="P13" s="172">
         <v>0</v>
       </c>
       <c r="Q13" s="143"/>
@@ -3210,18 +3285,18 @@
       <c r="X13" s="46">
         <v>100</v>
       </c>
-      <c r="Y13" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="183">
+      <c r="Y13" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="178">
         <v>0</v>
       </c>
       <c r="AC13" s="38"/>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="191"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="204"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="138"/>
@@ -3239,10 +3314,10 @@
       <c r="N14" s="46">
         <v>320</v>
       </c>
-      <c r="O14" s="178">
-        <v>0</v>
-      </c>
-      <c r="P14" s="177">
+      <c r="O14" s="173">
+        <v>0</v>
+      </c>
+      <c r="P14" s="172">
         <v>0</v>
       </c>
       <c r="Q14" s="143"/>
@@ -3253,18 +3328,18 @@
       <c r="V14" s="35"/>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="183">
+      <c r="Y14" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="178">
         <v>0</v>
       </c>
       <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
+      <c r="A15" s="187"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="204"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
         <v>16</v>
@@ -3284,10 +3359,10 @@
       <c r="N15" s="47">
         <v>405</v>
       </c>
-      <c r="O15" s="178">
-        <v>0</v>
-      </c>
-      <c r="P15" s="177">
+      <c r="O15" s="173">
+        <v>0</v>
+      </c>
+      <c r="P15" s="172">
         <v>0</v>
       </c>
       <c r="Q15" s="144"/>
@@ -3304,27 +3379,27 @@
       <c r="X15" s="46">
         <v>120</v>
       </c>
-      <c r="Y15" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="183">
+      <c r="Y15" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="199" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="205" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="184">
+      <c r="E16" s="179">
         <v>60</v>
       </c>
       <c r="F16" s="138">
@@ -3344,10 +3419,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="178">
-        <v>0</v>
-      </c>
-      <c r="P16" s="177">
+      <c r="O16" s="173">
+        <v>0</v>
+      </c>
+      <c r="P16" s="172">
         <v>1</v>
       </c>
       <c r="Q16" s="145" t="s">
@@ -3364,25 +3439,25 @@
       <c r="V16" s="6"/>
       <c r="W16" s="55"/>
       <c r="X16" s="56"/>
-      <c r="Y16" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="183">
+      <c r="Y16" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="205"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="205" t="s">
         <v>224</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="184">
+      <c r="E17" s="179">
         <v>100</v>
       </c>
       <c r="F17" s="138">
@@ -3406,10 +3481,10 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="178">
-        <v>0</v>
-      </c>
-      <c r="P17" s="177">
+      <c r="O17" s="173">
+        <v>0</v>
+      </c>
+      <c r="P17" s="172">
         <v>1</v>
       </c>
       <c r="Q17" s="145" t="s">
@@ -3430,19 +3505,19 @@
       </c>
       <c r="W17" s="55"/>
       <c r="X17" s="56"/>
-      <c r="Y17" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="183">
+      <c r="Y17" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="205"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="205" t="s">
         <v>225</v>
       </c>
       <c r="D18" s="91" t="s">
@@ -3476,10 +3551,10 @@
         <v>150</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="178">
-        <v>0</v>
-      </c>
-      <c r="P18" s="177">
+      <c r="O18" s="173">
+        <v>0</v>
+      </c>
+      <c r="P18" s="172">
         <v>1</v>
       </c>
       <c r="Q18" s="145" t="s">
@@ -3500,19 +3575,19 @@
       </c>
       <c r="W18" s="55"/>
       <c r="X18" s="56"/>
-      <c r="Y18" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="183">
+      <c r="Y18" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="205"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="205" t="s">
         <v>226</v>
       </c>
       <c r="D19" s="91" t="s">
@@ -3530,7 +3605,7 @@
       <c r="H19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="187" t="s">
+      <c r="I19" s="182" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="111" t="s">
@@ -3542,10 +3617,10 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="178">
-        <v>1</v>
-      </c>
-      <c r="P19" s="177">
+      <c r="O19" s="173">
+        <v>1</v>
+      </c>
+      <c r="P19" s="172">
         <v>0</v>
       </c>
       <c r="Q19" s="145" t="s">
@@ -3562,19 +3637,19 @@
       <c r="V19" s="6"/>
       <c r="W19" s="55"/>
       <c r="X19" s="56"/>
-      <c r="Y19" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="183">
+      <c r="Y19" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="205"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="206" t="s">
         <v>227</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -3586,7 +3661,7 @@
       <c r="F20" s="138">
         <v>1</v>
       </c>
-      <c r="G20" s="159" t="s">
+      <c r="G20" s="156" t="s">
         <v>275</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -3600,13 +3675,13 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="178">
-        <v>1</v>
-      </c>
-      <c r="P20" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="159" t="s">
+      <c r="O20" s="173">
+        <v>1</v>
+      </c>
+      <c r="P20" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="156" t="s">
         <v>274</v>
       </c>
       <c r="R20" s="22" t="s">
@@ -3626,17 +3701,17 @@
       <c r="X20" s="21">
         <v>60</v>
       </c>
-      <c r="Y20" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="183">
+      <c r="Y20" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="205"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="200"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="207" t="s">
         <v>228</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3662,10 +3737,10 @@
       <c r="L21" s="63"/>
       <c r="M21" s="8"/>
       <c r="N21" s="61"/>
-      <c r="O21" s="178">
-        <v>0</v>
-      </c>
-      <c r="P21" s="177">
+      <c r="O21" s="173">
+        <v>0</v>
+      </c>
+      <c r="P21" s="172">
         <v>1</v>
       </c>
       <c r="Q21" s="146" t="s">
@@ -3682,19 +3757,19 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="183">
+      <c r="Y21" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="205"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="207" t="s">
         <v>229</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3728,10 +3803,10 @@
       <c r="N22" s="61">
         <v>90</v>
       </c>
-      <c r="O22" s="178">
-        <v>0</v>
-      </c>
-      <c r="P22" s="177">
+      <c r="O22" s="173">
+        <v>0</v>
+      </c>
+      <c r="P22" s="172">
         <v>1</v>
       </c>
       <c r="Q22" s="146" t="s">
@@ -3752,19 +3827,19 @@
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="183">
+      <c r="Y22" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="205"/>
+      <c r="A23" s="200"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="207" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3798,10 +3873,10 @@
       <c r="N23" s="61">
         <v>140</v>
       </c>
-      <c r="O23" s="178">
-        <v>0</v>
-      </c>
-      <c r="P23" s="177">
+      <c r="O23" s="173">
+        <v>0</v>
+      </c>
+      <c r="P23" s="172">
         <v>1</v>
       </c>
       <c r="Q23" s="146" t="s">
@@ -3822,19 +3897,19 @@
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="183">
+      <c r="Y23" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="207" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3852,7 +3927,7 @@
       <c r="H24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="186" t="s">
+      <c r="I24" s="181" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="115" t="s">
@@ -3868,10 +3943,10 @@
       <c r="N24" s="61">
         <v>250</v>
       </c>
-      <c r="O24" s="178">
-        <v>1</v>
-      </c>
-      <c r="P24" s="177">
+      <c r="O24" s="173">
+        <v>1</v>
+      </c>
+      <c r="P24" s="172">
         <v>0</v>
       </c>
       <c r="Q24" s="146" t="s">
@@ -3888,19 +3963,19 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="183">
+      <c r="Y24" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="199" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="208" t="s">
         <v>232</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -3912,7 +3987,7 @@
       <c r="F25" s="138">
         <v>0</v>
       </c>
-      <c r="G25" s="158" t="s">
+      <c r="G25" s="155" t="s">
         <v>257</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -3926,13 +4001,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="178">
-        <v>1</v>
-      </c>
-      <c r="P25" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="158" t="s">
+      <c r="O25" s="173">
+        <v>1</v>
+      </c>
+      <c r="P25" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="155" t="s">
         <v>265</v>
       </c>
       <c r="R25" s="20" t="s">
@@ -3946,17 +4021,17 @@
       <c r="V25" s="85"/>
       <c r="W25" s="20"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="183">
+      <c r="Y25" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="205"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="208" t="s">
         <v>233</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -3968,7 +4043,7 @@
       <c r="F26" s="138">
         <v>0</v>
       </c>
-      <c r="G26" s="158" t="s">
+      <c r="G26" s="155" t="s">
         <v>258</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -3982,13 +4057,13 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="178">
-        <v>1</v>
-      </c>
-      <c r="P26" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="158" t="s">
+      <c r="O26" s="173">
+        <v>1</v>
+      </c>
+      <c r="P26" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="155" t="s">
         <v>266</v>
       </c>
       <c r="R26" s="20" t="s">
@@ -4002,19 +4077,19 @@
       <c r="V26" s="85"/>
       <c r="W26" s="20"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="183">
+      <c r="Y26" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="205"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="208" t="s">
         <v>234</v>
       </c>
       <c r="D27" s="93" t="s">
@@ -4026,7 +4101,7 @@
       <c r="F27" s="138">
         <v>0</v>
       </c>
-      <c r="G27" s="158" t="s">
+      <c r="G27" s="155" t="s">
         <v>259</v>
       </c>
       <c r="H27" s="20" t="s">
@@ -4040,13 +4115,13 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="178">
-        <v>1</v>
-      </c>
-      <c r="P27" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="158" t="s">
+      <c r="O27" s="173">
+        <v>1</v>
+      </c>
+      <c r="P27" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="155" t="s">
         <v>267</v>
       </c>
       <c r="R27" s="20" t="s">
@@ -4064,19 +4139,19 @@
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="19"/>
-      <c r="Y27" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="183">
+      <c r="Y27" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="208" t="s">
         <v>235</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -4088,7 +4163,7 @@
       <c r="F28" s="138">
         <v>1</v>
       </c>
-      <c r="G28" s="158" t="s">
+      <c r="G28" s="155" t="s">
         <v>260</v>
       </c>
       <c r="H28" s="20" t="s">
@@ -4102,13 +4177,13 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="178">
-        <v>1</v>
-      </c>
-      <c r="P28" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="158" t="s">
+      <c r="O28" s="173">
+        <v>1</v>
+      </c>
+      <c r="P28" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="155" t="s">
         <v>268</v>
       </c>
       <c r="R28" s="20" t="s">
@@ -4126,19 +4201,19 @@
       </c>
       <c r="W28" s="20"/>
       <c r="X28" s="19"/>
-      <c r="Y28" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="183">
+      <c r="Y28" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="208" t="s">
         <v>236</v>
       </c>
       <c r="D29" s="93" t="s">
@@ -4150,7 +4225,7 @@
       <c r="F29" s="138">
         <v>0</v>
       </c>
-      <c r="G29" s="158" t="s">
+      <c r="G29" s="155" t="s">
         <v>261</v>
       </c>
       <c r="H29" s="20" t="s">
@@ -4164,13 +4239,13 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="178">
-        <v>1</v>
-      </c>
-      <c r="P29" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="158" t="s">
+      <c r="O29" s="173">
+        <v>1</v>
+      </c>
+      <c r="P29" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="155" t="s">
         <v>269</v>
       </c>
       <c r="R29" s="20" t="s">
@@ -4184,17 +4259,17 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="183">
+      <c r="Y29" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="208" t="s">
         <v>237</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -4206,7 +4281,7 @@
       <c r="F30" s="138">
         <v>0</v>
       </c>
-      <c r="G30" s="158" t="s">
+      <c r="G30" s="155" t="s">
         <v>262</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -4220,13 +4295,13 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="178">
-        <v>1</v>
-      </c>
-      <c r="P30" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="158" t="s">
+      <c r="O30" s="173">
+        <v>1</v>
+      </c>
+      <c r="P30" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="155" t="s">
         <v>270</v>
       </c>
       <c r="R30" s="20" t="s">
@@ -4240,17 +4315,17 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="183">
+      <c r="Y30" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="205"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="208" t="s">
         <v>238</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -4262,7 +4337,7 @@
       <c r="F31" s="138">
         <v>0</v>
       </c>
-      <c r="G31" s="158" t="s">
+      <c r="G31" s="155" t="s">
         <v>263</v>
       </c>
       <c r="H31" s="20" t="s">
@@ -4276,13 +4351,13 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="178">
-        <v>1</v>
-      </c>
-      <c r="P31" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="158" t="s">
+      <c r="O31" s="173">
+        <v>1</v>
+      </c>
+      <c r="P31" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="155" t="s">
         <v>271</v>
       </c>
       <c r="R31" s="20" t="s">
@@ -4296,19 +4371,19 @@
       <c r="V31" s="85"/>
       <c r="W31" s="20"/>
       <c r="X31" s="19"/>
-      <c r="Y31" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="183">
+      <c r="Y31" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="208" t="s">
         <v>239</v>
       </c>
       <c r="D32" s="93" t="s">
@@ -4320,7 +4395,7 @@
       <c r="F32" s="138">
         <v>0</v>
       </c>
-      <c r="G32" s="158" t="s">
+      <c r="G32" s="155" t="s">
         <v>264</v>
       </c>
       <c r="H32" s="20" t="s">
@@ -4334,13 +4409,13 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="178">
-        <v>1</v>
-      </c>
-      <c r="P32" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="158" t="s">
+      <c r="O32" s="173">
+        <v>1</v>
+      </c>
+      <c r="P32" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="155" t="s">
         <v>272</v>
       </c>
       <c r="R32" s="20" t="s">
@@ -4354,19 +4429,19 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="183">
+      <c r="Y32" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="208" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="93" t="s">
@@ -4378,7 +4453,7 @@
       <c r="F33" s="138">
         <v>0</v>
       </c>
-      <c r="G33" s="158" t="s">
+      <c r="G33" s="155" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="20" t="s">
@@ -4400,13 +4475,13 @@
       <c r="N33" s="58">
         <v>70</v>
       </c>
-      <c r="O33" s="178">
+      <c r="O33" s="173">
         <v>11</v>
       </c>
-      <c r="P33" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="158" t="s">
+      <c r="P33" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="155" t="s">
         <v>273</v>
       </c>
       <c r="R33" s="20" t="s">
@@ -4420,21 +4495,21 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="19"/>
-      <c r="Y33" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="183">
+      <c r="Y33" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="204" t="s">
+      <c r="A34" s="199" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="209" t="s">
         <v>241</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -4460,10 +4535,10 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="178">
-        <v>0</v>
-      </c>
-      <c r="P34" s="177">
+      <c r="O34" s="173">
+        <v>0</v>
+      </c>
+      <c r="P34" s="172">
         <v>1</v>
       </c>
       <c r="Q34" s="147" t="s">
@@ -4480,19 +4555,19 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="183">
+      <c r="Y34" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="205"/>
+      <c r="A35" s="200"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="209" t="s">
         <v>242</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -4526,10 +4601,10 @@
       <c r="N35" s="64">
         <v>100</v>
       </c>
-      <c r="O35" s="178">
-        <v>0</v>
-      </c>
-      <c r="P35" s="177">
+      <c r="O35" s="173">
+        <v>0</v>
+      </c>
+      <c r="P35" s="172">
         <v>1</v>
       </c>
       <c r="Q35" s="147" t="s">
@@ -4550,19 +4625,19 @@
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="183">
+      <c r="Y35" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="205"/>
+      <c r="A36" s="200"/>
       <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="209" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="95" t="s">
@@ -4596,10 +4671,10 @@
       <c r="N36" s="64">
         <v>160</v>
       </c>
-      <c r="O36" s="178">
-        <v>0</v>
-      </c>
-      <c r="P36" s="177">
+      <c r="O36" s="173">
+        <v>0</v>
+      </c>
+      <c r="P36" s="172">
         <v>1</v>
       </c>
       <c r="Q36" s="147" t="s">
@@ -4620,19 +4695,19 @@
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="183">
+      <c r="Y36" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="205"/>
+      <c r="A37" s="200"/>
       <c r="B37" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="209" t="s">
         <v>244</v>
       </c>
       <c r="D37" s="95" t="s">
@@ -4666,10 +4741,10 @@
       <c r="N37" s="64">
         <v>350</v>
       </c>
-      <c r="O37" s="178">
-        <v>0</v>
-      </c>
-      <c r="P37" s="177">
+      <c r="O37" s="173">
+        <v>0</v>
+      </c>
+      <c r="P37" s="172">
         <v>0</v>
       </c>
       <c r="Q37" s="147" t="s">
@@ -4686,19 +4761,19 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="183">
+      <c r="Y37" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
+      <c r="A38" s="200"/>
       <c r="B38" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="209" t="s">
         <v>245</v>
       </c>
       <c r="D38" s="95" t="s">
@@ -4724,10 +4799,10 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="178">
-        <v>1</v>
-      </c>
-      <c r="P38" s="177">
+      <c r="O38" s="173">
+        <v>1</v>
+      </c>
+      <c r="P38" s="172">
         <v>0</v>
       </c>
       <c r="Q38" s="147" t="s">
@@ -4744,17 +4819,17 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="183">
+      <c r="Y38" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="205"/>
+      <c r="A39" s="200"/>
       <c r="B39" s="76"/>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="210" t="s">
         <v>277</v>
       </c>
       <c r="D39" s="77" t="s">
@@ -4784,10 +4859,10 @@
       </c>
       <c r="M39" s="77"/>
       <c r="N39" s="78"/>
-      <c r="O39" s="178">
-        <v>1</v>
-      </c>
-      <c r="P39" s="177">
+      <c r="O39" s="173">
+        <v>1</v>
+      </c>
+      <c r="P39" s="172">
         <v>1</v>
       </c>
       <c r="Q39" s="148" t="s">
@@ -4804,17 +4879,17 @@
       <c r="V39" s="77"/>
       <c r="W39" s="77"/>
       <c r="X39" s="78"/>
-      <c r="Y39" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="183">
+      <c r="Y39" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="205"/>
+      <c r="A40" s="200"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="211" t="s">
         <v>246</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -4840,10 +4915,10 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="178">
-        <v>0</v>
-      </c>
-      <c r="P40" s="177">
+      <c r="O40" s="173">
+        <v>0</v>
+      </c>
+      <c r="P40" s="172">
         <v>1</v>
       </c>
       <c r="Q40" s="151" t="s">
@@ -4860,19 +4935,19 @@
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="183">
+      <c r="Y40" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="205"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="211" t="s">
         <v>247</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -4904,10 +4979,10 @@
       <c r="N41" s="12">
         <v>120</v>
       </c>
-      <c r="O41" s="178">
-        <v>0</v>
-      </c>
-      <c r="P41" s="177">
+      <c r="O41" s="173">
+        <v>0</v>
+      </c>
+      <c r="P41" s="172">
         <v>1</v>
       </c>
       <c r="Q41" s="151" t="s">
@@ -4928,19 +5003,19 @@
       </c>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
-      <c r="Y41" s="178">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="183">
+      <c r="Y41" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="205"/>
+      <c r="A42" s="200"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="211" t="s">
         <v>248</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -4972,10 +5047,10 @@
       <c r="N42" s="68">
         <v>160</v>
       </c>
-      <c r="O42" s="178">
-        <v>0</v>
-      </c>
-      <c r="P42" s="177">
+      <c r="O42" s="173">
+        <v>0</v>
+      </c>
+      <c r="P42" s="172">
         <v>1</v>
       </c>
       <c r="Q42" s="151" t="s">
@@ -4996,19 +5071,19 @@
       </c>
       <c r="W42" s="13"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="183">
+      <c r="Y42" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="205"/>
+      <c r="A43" s="200"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="211" t="s">
         <v>249</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -5040,10 +5115,10 @@
       <c r="N43" s="12">
         <v>300</v>
       </c>
-      <c r="O43" s="178">
-        <v>0</v>
-      </c>
-      <c r="P43" s="177">
+      <c r="O43" s="173">
+        <v>0</v>
+      </c>
+      <c r="P43" s="172">
         <v>0</v>
       </c>
       <c r="Q43" s="151" t="s">
@@ -5060,19 +5135,19 @@
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
-      <c r="Y43" s="178">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="183">
+      <c r="Y43" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="206"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="211" t="s">
         <v>250</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5098,10 +5173,10 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="178">
-        <v>1</v>
-      </c>
-      <c r="P44" s="177">
+      <c r="O44" s="173">
+        <v>1</v>
+      </c>
+      <c r="P44" s="172">
         <v>0</v>
       </c>
       <c r="Q44" s="151" t="s">
@@ -5118,19 +5193,19 @@
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="183">
+      <c r="Y44" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="190" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="160" t="s">
+      <c r="B45" s="218"/>
+      <c r="C45" s="219" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -5154,10 +5229,10 @@
       <c r="L45" s="16"/>
       <c r="M45" s="51"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="178">
-        <v>0</v>
-      </c>
-      <c r="P45" s="177">
+      <c r="O45" s="173">
+        <v>0</v>
+      </c>
+      <c r="P45" s="172">
         <v>1</v>
       </c>
       <c r="Q45" s="149" t="s">
@@ -5172,17 +5247,17 @@
       <c r="V45" s="84"/>
       <c r="W45" s="51"/>
       <c r="X45" s="17"/>
-      <c r="Y45" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="183">
+      <c r="Y45" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="195"/>
+      <c r="A46" s="190"/>
       <c r="B46" s="98"/>
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="219" t="s">
         <v>289</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -5212,10 +5287,10 @@
       </c>
       <c r="M46" s="51"/>
       <c r="N46" s="52"/>
-      <c r="O46" s="178">
-        <v>0</v>
-      </c>
-      <c r="P46" s="177">
+      <c r="O46" s="173">
+        <v>0</v>
+      </c>
+      <c r="P46" s="172">
         <v>1</v>
       </c>
       <c r="Q46" s="149" t="s">
@@ -5238,17 +5313,17 @@
         <v>116</v>
       </c>
       <c r="X46" s="17"/>
-      <c r="Y46" s="179">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="183">
+      <c r="Y46" s="174">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="195"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="160"/>
+      <c r="C47" s="212"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="139">
@@ -5272,10 +5347,10 @@
       </c>
       <c r="M47" s="51"/>
       <c r="N47" s="52"/>
-      <c r="O47" s="178">
-        <v>0</v>
-      </c>
-      <c r="P47" s="177">
+      <c r="O47" s="173">
+        <v>0</v>
+      </c>
+      <c r="P47" s="172">
         <v>0</v>
       </c>
       <c r="Q47" s="149" t="s">
@@ -5298,17 +5373,17 @@
         <v>117</v>
       </c>
       <c r="X47" s="17"/>
-      <c r="Y47" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="183">
+      <c r="Y47" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="195"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="160"/>
+      <c r="C48" s="212"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
       <c r="F48" s="139">
@@ -5332,10 +5407,10 @@
       </c>
       <c r="M48" s="51"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="178">
-        <v>0</v>
-      </c>
-      <c r="P48" s="177">
+      <c r="O48" s="173">
+        <v>0</v>
+      </c>
+      <c r="P48" s="172">
         <v>0</v>
       </c>
       <c r="Q48" s="149" t="s">
@@ -5352,17 +5427,17 @@
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17"/>
-      <c r="Y48" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="183">
+      <c r="Y48" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="195"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="160"/>
+      <c r="C49" s="212"/>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
       <c r="F49" s="139">
@@ -5380,10 +5455,10 @@
       <c r="L49" s="16"/>
       <c r="M49" s="51"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="178">
-        <v>0</v>
-      </c>
-      <c r="P49" s="177">
+      <c r="O49" s="173">
+        <v>0</v>
+      </c>
+      <c r="P49" s="172">
         <v>0</v>
       </c>
       <c r="Q49" s="149" t="s">
@@ -5398,17 +5473,17 @@
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="17"/>
-      <c r="Y49" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="183">
+      <c r="Y49" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="195"/>
+      <c r="A50" s="190"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="160"/>
+      <c r="C50" s="212"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
       <c r="F50" s="139">
@@ -5426,10 +5501,10 @@
       <c r="L50" s="16"/>
       <c r="M50" s="51"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="178">
-        <v>0</v>
-      </c>
-      <c r="P50" s="177">
+      <c r="O50" s="173">
+        <v>0</v>
+      </c>
+      <c r="P50" s="172">
         <v>0</v>
       </c>
       <c r="Q50" s="149" t="s">
@@ -5444,17 +5519,17 @@
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="17"/>
-      <c r="Y50" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="183">
+      <c r="Y50" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="178">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="195"/>
+      <c r="A51" s="190"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="160"/>
+      <c r="C51" s="212"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="139">
@@ -5472,10 +5547,10 @@
       <c r="L51" s="16"/>
       <c r="M51" s="51"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="178">
-        <v>0</v>
-      </c>
-      <c r="P51" s="177">
+      <c r="O51" s="173">
+        <v>0</v>
+      </c>
+      <c r="P51" s="172">
         <v>0</v>
       </c>
       <c r="Q51" s="149" t="s">
@@ -5490,17 +5565,17 @@
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="17"/>
-      <c r="Y51" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="183">
+      <c r="Y51" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="195"/>
+      <c r="A52" s="190"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="98"/>
+      <c r="C52" s="213"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
       <c r="F52" s="139">
@@ -5526,10 +5601,10 @@
       <c r="N52" s="52">
         <v>80</v>
       </c>
-      <c r="O52" s="178">
-        <v>0</v>
-      </c>
-      <c r="P52" s="177">
+      <c r="O52" s="173">
+        <v>0</v>
+      </c>
+      <c r="P52" s="172">
         <v>0</v>
       </c>
       <c r="Q52" s="149"/>
@@ -5540,17 +5615,17 @@
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17"/>
-      <c r="Y52" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="183">
+      <c r="Y52" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195"/>
+      <c r="A53" s="190"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="98"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
       <c r="F53" s="139">
@@ -5576,10 +5651,10 @@
       <c r="N53" s="52">
         <v>160</v>
       </c>
-      <c r="O53" s="178">
-        <v>0</v>
-      </c>
-      <c r="P53" s="177">
+      <c r="O53" s="173">
+        <v>0</v>
+      </c>
+      <c r="P53" s="172">
         <v>0</v>
       </c>
       <c r="Q53" s="149"/>
@@ -5590,17 +5665,17 @@
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="17"/>
-      <c r="Y53" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="183">
+      <c r="Y53" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="195"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="98"/>
+      <c r="C54" s="213"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
       <c r="F54" s="139">
@@ -5626,10 +5701,10 @@
       <c r="N54" s="52">
         <v>120</v>
       </c>
-      <c r="O54" s="178">
-        <v>0</v>
-      </c>
-      <c r="P54" s="177">
+      <c r="O54" s="173">
+        <v>0</v>
+      </c>
+      <c r="P54" s="172">
         <v>0</v>
       </c>
       <c r="Q54" s="149"/>
@@ -5640,17 +5715,17 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="17"/>
-      <c r="Y54" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="183">
+      <c r="Y54" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="195"/>
+      <c r="A55" s="190"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="98"/>
+      <c r="C55" s="213"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="139">
@@ -5668,10 +5743,10 @@
       </c>
       <c r="M55" s="51"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="178">
-        <v>0</v>
-      </c>
-      <c r="P55" s="177">
+      <c r="O55" s="173">
+        <v>0</v>
+      </c>
+      <c r="P55" s="172">
         <v>0</v>
       </c>
       <c r="Q55" s="149"/>
@@ -5682,17 +5757,17 @@
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="17"/>
-      <c r="Y55" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="183">
+      <c r="Y55" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="195"/>
+      <c r="A56" s="190"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="98"/>
+      <c r="C56" s="213"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
       <c r="F56" s="139">
@@ -5710,10 +5785,10 @@
       </c>
       <c r="M56" s="51"/>
       <c r="N56" s="52"/>
-      <c r="O56" s="178">
-        <v>0</v>
-      </c>
-      <c r="P56" s="177">
+      <c r="O56" s="173">
+        <v>0</v>
+      </c>
+      <c r="P56" s="172">
         <v>0</v>
       </c>
       <c r="Q56" s="149"/>
@@ -5724,17 +5799,17 @@
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17"/>
-      <c r="Y56" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="183">
+      <c r="Y56" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="195"/>
+      <c r="A57" s="190"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="157"/>
+      <c r="C57" s="214"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
       <c r="F57" s="139">
@@ -5752,10 +5827,10 @@
       </c>
       <c r="M57" s="53"/>
       <c r="N57" s="54"/>
-      <c r="O57" s="178">
-        <v>0</v>
-      </c>
-      <c r="P57" s="177">
+      <c r="O57" s="173">
+        <v>0</v>
+      </c>
+      <c r="P57" s="172">
         <v>0</v>
       </c>
       <c r="Q57" s="150"/>
@@ -5766,17 +5841,17 @@
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
       <c r="X57" s="42"/>
-      <c r="Y57" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="183">
+      <c r="Y57" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="195"/>
+      <c r="A58" s="190"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="157"/>
+      <c r="C58" s="214"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
       <c r="F58" s="139">
@@ -5794,10 +5869,10 @@
       </c>
       <c r="M58" s="53"/>
       <c r="N58" s="54"/>
-      <c r="O58" s="178">
-        <v>0</v>
-      </c>
-      <c r="P58" s="177">
+      <c r="O58" s="173">
+        <v>0</v>
+      </c>
+      <c r="P58" s="172">
         <v>0</v>
       </c>
       <c r="Q58" s="150"/>
@@ -5808,17 +5883,17 @@
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
       <c r="X58" s="42"/>
-      <c r="Y58" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="183">
+      <c r="Y58" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="195"/>
+      <c r="A59" s="190"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="157"/>
+      <c r="C59" s="214"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
       <c r="F59" s="139">
@@ -5836,10 +5911,10 @@
       </c>
       <c r="M59" s="53"/>
       <c r="N59" s="54"/>
-      <c r="O59" s="178">
-        <v>0</v>
-      </c>
-      <c r="P59" s="177">
+      <c r="O59" s="173">
+        <v>0</v>
+      </c>
+      <c r="P59" s="172">
         <v>0</v>
       </c>
       <c r="Q59" s="150"/>
@@ -5850,192 +5925,192 @@
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
       <c r="X59" s="42"/>
-      <c r="Y59" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="183">
+      <c r="Y59" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="190" t="s">
+      <c r="A60" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="164"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="159"/>
       <c r="F60" s="139">
         <v>0</v>
       </c>
-      <c r="G60" s="166" t="s">
+      <c r="G60" s="161" t="s">
         <v>285</v>
       </c>
-      <c r="H60" s="163"/>
-      <c r="I60" s="167"/>
-      <c r="J60" s="188"/>
-      <c r="K60" s="169"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="171"/>
-      <c r="O60" s="178">
-        <v>0</v>
-      </c>
-      <c r="P60" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="166"/>
-      <c r="R60" s="163"/>
-      <c r="S60" s="167"/>
-      <c r="T60" s="172"/>
-      <c r="U60" s="173"/>
-      <c r="V60" s="163"/>
-      <c r="W60" s="163"/>
-      <c r="X60" s="164"/>
-      <c r="Y60" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="183">
+      <c r="H60" s="158"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="183"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="165"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="173">
+        <v>0</v>
+      </c>
+      <c r="P60" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="161"/>
+      <c r="R60" s="158"/>
+      <c r="S60" s="162"/>
+      <c r="T60" s="167"/>
+      <c r="U60" s="168"/>
+      <c r="V60" s="158"/>
+      <c r="W60" s="158"/>
+      <c r="X60" s="159"/>
+      <c r="Y60" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="191"/>
-      <c r="B61" s="161"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="164"/>
+      <c r="A61" s="186"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
       <c r="F61" s="139">
         <v>0</v>
       </c>
-      <c r="G61" s="166" t="s">
+      <c r="G61" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="H61" s="163"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="188"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="170"/>
-      <c r="N61" s="171"/>
-      <c r="O61" s="178">
-        <v>0</v>
-      </c>
-      <c r="P61" s="177">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="166"/>
-      <c r="R61" s="163"/>
-      <c r="S61" s="167"/>
-      <c r="T61" s="172"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="163"/>
-      <c r="W61" s="163"/>
-      <c r="X61" s="164"/>
-      <c r="Y61" s="179">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="183">
+      <c r="H61" s="158"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="183"/>
+      <c r="K61" s="164"/>
+      <c r="L61" s="158"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="166"/>
+      <c r="O61" s="173">
+        <v>0</v>
+      </c>
+      <c r="P61" s="172">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="161"/>
+      <c r="R61" s="158"/>
+      <c r="S61" s="162"/>
+      <c r="T61" s="167"/>
+      <c r="U61" s="168"/>
+      <c r="V61" s="158"/>
+      <c r="W61" s="158"/>
+      <c r="X61" s="159"/>
+      <c r="Y61" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="192"/>
-      <c r="B62" s="161"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="165">
-        <v>0</v>
-      </c>
-      <c r="G62" s="166" t="s">
+      <c r="A62" s="187"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160">
+        <v>0</v>
+      </c>
+      <c r="G62" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="H62" s="163" t="s">
+      <c r="H62" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="167">
+      <c r="I62" s="162">
         <v>100</v>
       </c>
-      <c r="J62" s="168" t="s">
+      <c r="J62" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="169"/>
-      <c r="L62" s="163" t="s">
+      <c r="K62" s="164"/>
+      <c r="L62" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="M62" s="170"/>
-      <c r="N62" s="171"/>
-      <c r="O62" s="178">
-        <v>0</v>
-      </c>
-      <c r="P62" s="177">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="166" t="s">
+      <c r="M62" s="165"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="173">
+        <v>0</v>
+      </c>
+      <c r="P62" s="172">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="R62" s="163"/>
-      <c r="S62" s="167">
+      <c r="R62" s="158"/>
+      <c r="S62" s="162">
         <v>100</v>
       </c>
-      <c r="T62" s="172"/>
-      <c r="U62" s="173"/>
-      <c r="V62" s="163"/>
-      <c r="W62" s="163"/>
-      <c r="X62" s="164"/>
-      <c r="Y62" s="180">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="183">
+      <c r="T62" s="167"/>
+      <c r="U62" s="168"/>
+      <c r="V62" s="158"/>
+      <c r="W62" s="158"/>
+      <c r="X62" s="159"/>
+      <c r="Y62" s="175">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="178">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="189">
+      <c r="A63" s="184">
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B63" s="174">
+      <c r="B63" s="169">
         <f>F63+O63+Y63</f>
         <v>56</v>
       </c>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
-      <c r="E63" s="174"/>
-      <c r="F63" s="175">
+      <c r="C63" s="216"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="170">
         <f>SUM(F3:F62)</f>
         <v>19</v>
       </c>
-      <c r="G63" s="176"/>
-      <c r="H63" s="174"/>
-      <c r="I63" s="174"/>
-      <c r="J63" s="176"/>
-      <c r="K63" s="176"/>
-      <c r="L63" s="174"/>
-      <c r="M63" s="174"/>
-      <c r="N63" s="174"/>
-      <c r="O63" s="181">
+      <c r="G63" s="171"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="171"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="176">
         <f>SUM(O3:O62)</f>
         <v>26</v>
       </c>
-      <c r="P63" s="182">
+      <c r="P63" s="177">
         <f>SUM(P3:P62)</f>
         <v>30</v>
       </c>
-      <c r="Q63" s="174"/>
-      <c r="R63" s="174"/>
-      <c r="S63" s="174"/>
-      <c r="T63" s="174"/>
-      <c r="U63" s="174"/>
-      <c r="V63" s="174"/>
-      <c r="W63" s="174"/>
-      <c r="X63" s="174"/>
-      <c r="Y63" s="181">
+      <c r="Q63" s="169"/>
+      <c r="R63" s="169"/>
+      <c r="S63" s="169"/>
+      <c r="T63" s="169"/>
+      <c r="U63" s="169"/>
+      <c r="V63" s="169"/>
+      <c r="W63" s="169"/>
+      <c r="X63" s="169"/>
+      <c r="Y63" s="176">
         <f>SUM(Y3:Y62)</f>
         <v>11</v>
       </c>
-      <c r="Z63" s="182">
+      <c r="Z63" s="177">
         <f>SUM(Z3:Z62)</f>
         <v>15</v>
       </c>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -2066,6 +2066,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -2116,60 +2170,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2466,15 +2466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z63" sqref="A1:Z63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="217" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="200" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -2510,45 +2510,45 @@
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="191" t="s">
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="209" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="193" t="s">
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="211" t="s">
         <v>288</v>
       </c>
-      <c r="P1" s="188" t="s">
+      <c r="P1" s="206" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="197" t="s">
+      <c r="Q1" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="195" t="s">
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="213" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="188" t="s">
+      <c r="Z1" s="206" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="185" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2566,7 +2566,7 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="192"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="140" t="s">
         <v>32</v>
       </c>
@@ -2587,8 +2587,8 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="189"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="207"/>
       <c r="Q2" s="140" t="s">
         <v>32</v>
       </c>
@@ -2609,20 +2609,20 @@
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="189"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="207"/>
       <c r="AA2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="203" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="186" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2699,11 +2699,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="186"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="186" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2780,11 +2780,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="186" t="s">
         <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2857,11 +2857,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="203" t="s">
+      <c r="C6" s="186" t="s">
         <v>222</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2924,9 +2924,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="203"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="138"/>
@@ -2969,9 +2969,9 @@
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="203"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="138"/>
@@ -3015,11 +3015,11 @@
       <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="203" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="204"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35">
         <v>60</v>
@@ -3072,9 +3072,9 @@
       <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="204"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35">
         <v>100</v>
@@ -3131,9 +3131,9 @@
       <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="204"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="138"/>
@@ -3180,9 +3180,9 @@
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="204"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35">
         <v>140</v>
@@ -3239,9 +3239,9 @@
       <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="204"/>
+      <c r="C13" s="187"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35">
         <v>250</v>
@@ -3294,9 +3294,9 @@
       <c r="AC13" s="38"/>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="204"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="138"/>
@@ -3337,9 +3337,9 @@
       <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="204"/>
+      <c r="C15" s="187"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
         <v>16</v>
@@ -3387,13 +3387,13 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="217" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="188" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3447,11 +3447,11 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="200"/>
+      <c r="A17" s="218"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="205" t="s">
+      <c r="C17" s="188" t="s">
         <v>224</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3513,11 +3513,11 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="200"/>
+      <c r="A18" s="218"/>
       <c r="B18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="205" t="s">
+      <c r="C18" s="188" t="s">
         <v>225</v>
       </c>
       <c r="D18" s="91" t="s">
@@ -3583,11 +3583,11 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="200"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="205" t="s">
+      <c r="C19" s="188" t="s">
         <v>226</v>
       </c>
       <c r="D19" s="91" t="s">
@@ -3645,11 +3645,11 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="200"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="189" t="s">
         <v>227</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -3709,9 +3709,9 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="200"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="154"/>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="190" t="s">
         <v>228</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3765,11 +3765,11 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="200"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="190" t="s">
         <v>229</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3835,11 +3835,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="200"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="207" t="s">
+      <c r="C23" s="190" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3905,11 +3905,11 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="201"/>
+      <c r="A24" s="219"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="190" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3971,11 +3971,11 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="217" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="208" t="s">
+      <c r="C25" s="191" t="s">
         <v>232</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4029,9 +4029,9 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="200"/>
+      <c r="A26" s="218"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="208" t="s">
+      <c r="C26" s="191" t="s">
         <v>233</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -4085,11 +4085,11 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="200"/>
+      <c r="A27" s="218"/>
       <c r="B27" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="208" t="s">
+      <c r="C27" s="191" t="s">
         <v>234</v>
       </c>
       <c r="D27" s="93" t="s">
@@ -4147,11 +4147,11 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
+      <c r="A28" s="218"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="208" t="s">
+      <c r="C28" s="191" t="s">
         <v>235</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -4209,11 +4209,11 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="200"/>
+      <c r="A29" s="218"/>
       <c r="B29" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="191" t="s">
         <v>236</v>
       </c>
       <c r="D29" s="93" t="s">
@@ -4267,9 +4267,9 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="200"/>
+      <c r="A30" s="218"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="191" t="s">
         <v>237</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -4323,9 +4323,9 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="200"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="191" t="s">
         <v>238</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -4379,11 +4379,11 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="208" t="s">
+      <c r="C32" s="191" t="s">
         <v>239</v>
       </c>
       <c r="D32" s="93" t="s">
@@ -4437,11 +4437,11 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="201"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="208" t="s">
+      <c r="C33" s="191" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="93" t="s">
@@ -4503,13 +4503,13 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="217" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="209" t="s">
+      <c r="C34" s="192" t="s">
         <v>241</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -4563,11 +4563,11 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="200"/>
+      <c r="A35" s="218"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="209" t="s">
+      <c r="C35" s="192" t="s">
         <v>242</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -4633,11 +4633,11 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="200"/>
+      <c r="A36" s="218"/>
       <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="209" t="s">
+      <c r="C36" s="192" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="95" t="s">
@@ -4703,11 +4703,11 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="200"/>
+      <c r="A37" s="218"/>
       <c r="B37" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="209" t="s">
+      <c r="C37" s="192" t="s">
         <v>244</v>
       </c>
       <c r="D37" s="95" t="s">
@@ -4769,11 +4769,11 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="200"/>
+      <c r="A38" s="218"/>
       <c r="B38" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="192" t="s">
         <v>245</v>
       </c>
       <c r="D38" s="95" t="s">
@@ -4827,9 +4827,9 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="200"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="76"/>
-      <c r="C39" s="210" t="s">
+      <c r="C39" s="193" t="s">
         <v>277</v>
       </c>
       <c r="D39" s="77" t="s">
@@ -4887,9 +4887,9 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="200"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="211" t="s">
+      <c r="C40" s="194" t="s">
         <v>246</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -4943,11 +4943,11 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="200"/>
+      <c r="A41" s="218"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="211" t="s">
+      <c r="C41" s="194" t="s">
         <v>247</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -5011,11 +5011,11 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="200"/>
+      <c r="A42" s="218"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="211" t="s">
+      <c r="C42" s="194" t="s">
         <v>248</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -5079,11 +5079,11 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="200"/>
+      <c r="A43" s="218"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="194" t="s">
         <v>249</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -5143,11 +5143,11 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="201"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="211" t="s">
+      <c r="C44" s="194" t="s">
         <v>250</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5201,11 +5201,11 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="190" t="s">
+      <c r="A45" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="218"/>
-      <c r="C45" s="219" t="s">
+      <c r="B45" s="201"/>
+      <c r="C45" s="202" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -5255,9 +5255,9 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="190"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="98"/>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="202" t="s">
         <v>289</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -5321,9 +5321,9 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="190"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="212"/>
+      <c r="C47" s="195"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="139">
@@ -5381,9 +5381,9 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="212"/>
+      <c r="C48" s="195"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
       <c r="F48" s="139">
@@ -5435,9 +5435,9 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="190"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="212"/>
+      <c r="C49" s="195"/>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
       <c r="F49" s="139">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="149" t="s">
         <v>165</v>
@@ -5477,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="Z49" s="178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="190"/>
+      <c r="A50" s="208"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="212"/>
+      <c r="C50" s="195"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
       <c r="F50" s="139">
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="149" t="s">
         <v>166</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="Z50" s="178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="190"/>
+      <c r="A51" s="208"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="212"/>
+      <c r="C51" s="195"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="139">
@@ -5573,9 +5573,9 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="190"/>
+      <c r="A52" s="208"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="213"/>
+      <c r="C52" s="196"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
       <c r="F52" s="139">
@@ -5623,9 +5623,9 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="190"/>
+      <c r="A53" s="208"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="213"/>
+      <c r="C53" s="196"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
       <c r="F53" s="139">
@@ -5673,9 +5673,9 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="190"/>
+      <c r="A54" s="208"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="213"/>
+      <c r="C54" s="196"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
       <c r="F54" s="139">
@@ -5723,9 +5723,9 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="190"/>
+      <c r="A55" s="208"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="213"/>
+      <c r="C55" s="196"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="139">
@@ -5765,9 +5765,9 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="190"/>
+      <c r="A56" s="208"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="213"/>
+      <c r="C56" s="196"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
       <c r="F56" s="139">
@@ -5807,9 +5807,9 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="190"/>
+      <c r="A57" s="208"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="214"/>
+      <c r="C57" s="197"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
       <c r="F57" s="139">
@@ -5849,9 +5849,9 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="190"/>
+      <c r="A58" s="208"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="214"/>
+      <c r="C58" s="197"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
       <c r="F58" s="139">
@@ -5891,9 +5891,9 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="190"/>
+      <c r="A59" s="208"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="214"/>
+      <c r="C59" s="197"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
       <c r="F59" s="139">
@@ -5933,11 +5933,11 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="185" t="s">
+      <c r="A60" s="203" t="s">
         <v>287</v>
       </c>
       <c r="B60" s="157"/>
-      <c r="C60" s="215"/>
+      <c r="C60" s="198"/>
       <c r="D60" s="158"/>
       <c r="E60" s="159"/>
       <c r="F60" s="139">
@@ -5975,9 +5975,9 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="186"/>
+      <c r="A61" s="204"/>
       <c r="B61" s="157"/>
-      <c r="C61" s="215"/>
+      <c r="C61" s="198"/>
       <c r="D61" s="158"/>
       <c r="E61" s="159"/>
       <c r="F61" s="139">
@@ -6015,9 +6015,9 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="205"/>
       <c r="B62" s="157"/>
-      <c r="C62" s="215"/>
+      <c r="C62" s="198"/>
       <c r="D62" s="158"/>
       <c r="E62" s="159"/>
       <c r="F62" s="160">
@@ -6075,7 +6075,7 @@
         <f>F63+O63+Y63</f>
         <v>56</v>
       </c>
-      <c r="C63" s="216"/>
+      <c r="C63" s="199"/>
       <c r="D63" s="169"/>
       <c r="E63" s="169"/>
       <c r="F63" s="170">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="P63" s="177">
         <f>SUM(P3:P62)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="169"/>
       <c r="R63" s="169"/>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="Z63" s="177">
         <f>SUM(Z3:Z62)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Electric.xlsx
+++ b/docs/Electric.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="292">
   <si>
     <t>RLA0</t>
   </si>
@@ -895,13 +895,19 @@
   </si>
   <si>
     <t>B3A3</t>
+  </si>
+  <si>
+    <t>SW1L</t>
+  </si>
+  <si>
+    <t>SW1R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,16 +938,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1122,15 +1118,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1518,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,9 +1615,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1640,103 +1627,103 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,37 +1735,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,10 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,7 +1804,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,7 +1816,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,7 +1828,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,7 +1840,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,7 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,13 +1858,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1900,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,37 +1918,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1963,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1994,22 +1978,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,7 +2032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2060,64 +2044,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2129,31 +2110,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2466,15 +2447,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z63" sqref="A1:Z63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="200" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="199" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -2510,45 +2491,45 @@
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="209" t="s">
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="207" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="211" t="s">
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="209" t="s">
         <v>288</v>
       </c>
-      <c r="P1" s="206" t="s">
+      <c r="P1" s="204" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="213" t="s">
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="211" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="206" t="s">
+      <c r="Z1" s="204" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2557,7 +2538,7 @@
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="184" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2566,17 +2547,17 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="210"/>
-      <c r="G2" s="140" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="139" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="99" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2587,18 +2568,18 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="212"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="140" t="s">
+      <c r="O2" s="210"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="139" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="99" t="s">
+      <c r="S2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="100" t="s">
+      <c r="T2" s="99" t="s">
         <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -2609,20 +2590,20 @@
       <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="207"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="205"/>
       <c r="AA2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="201" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="185" t="s">
         <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2631,19 +2612,19 @@
       <c r="E3" s="4">
         <v>60</v>
       </c>
-      <c r="F3" s="138">
-        <v>1</v>
-      </c>
-      <c r="G3" s="141" t="s">
+      <c r="F3" s="137">
+        <v>1</v>
+      </c>
+      <c r="G3" s="140" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="101">
+      <c r="I3" s="100">
         <v>60</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="101" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="44" t="s">
@@ -2658,22 +2639,22 @@
       <c r="N3" s="45">
         <v>80</v>
       </c>
-      <c r="O3" s="173">
-        <v>0</v>
-      </c>
-      <c r="P3" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="141" t="s">
+      <c r="O3" s="172">
+        <v>0</v>
+      </c>
+      <c r="P3" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="140" t="s">
         <v>128</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="101">
+      <c r="S3" s="100">
         <v>60</v>
       </c>
-      <c r="T3" s="102" t="s">
+      <c r="T3" s="101" t="s">
         <v>58</v>
       </c>
       <c r="U3" s="44" t="s">
@@ -2688,10 +2669,10 @@
       <c r="X3" s="45">
         <v>60</v>
       </c>
-      <c r="Y3" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="178">
+      <c r="Y3" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="177">
         <v>1</v>
       </c>
       <c r="AA3" s="37" t="s">
@@ -2699,11 +2680,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="185" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2712,19 +2693,19 @@
       <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="138">
-        <v>1</v>
-      </c>
-      <c r="G4" s="141" t="s">
+      <c r="F4" s="137">
+        <v>1</v>
+      </c>
+      <c r="G4" s="140" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I4" s="100">
         <v>100</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" s="102" t="s">
         <v>72</v>
       </c>
       <c r="K4" s="44" t="s">
@@ -2739,22 +2720,22 @@
       <c r="N4" s="45">
         <v>125</v>
       </c>
-      <c r="O4" s="173">
-        <v>0</v>
-      </c>
-      <c r="P4" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="141" t="s">
+      <c r="O4" s="172">
+        <v>0</v>
+      </c>
+      <c r="P4" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="140" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="101">
+      <c r="S4" s="100">
         <v>100</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="101" t="s">
         <v>53</v>
       </c>
       <c r="U4" s="44" t="s">
@@ -2769,10 +2750,10 @@
       <c r="X4" s="45">
         <v>90</v>
       </c>
-      <c r="Y4" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="178">
+      <c r="Y4" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="177">
         <v>1</v>
       </c>
       <c r="AA4" s="39" t="s">
@@ -2780,11 +2761,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="185" t="s">
         <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2793,19 +2774,19 @@
       <c r="E5" s="4">
         <v>140</v>
       </c>
-      <c r="F5" s="138">
-        <v>1</v>
-      </c>
-      <c r="G5" s="141" t="s">
+      <c r="F5" s="137">
+        <v>1</v>
+      </c>
+      <c r="G5" s="140" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="101">
+      <c r="I5" s="100">
         <v>140</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="101" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="44" t="s">
@@ -2820,22 +2801,22 @@
       <c r="N5" s="45">
         <v>180</v>
       </c>
-      <c r="O5" s="173">
-        <v>0</v>
-      </c>
-      <c r="P5" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="141" t="s">
+      <c r="O5" s="172">
+        <v>0</v>
+      </c>
+      <c r="P5" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="140" t="s">
         <v>130</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="101">
+      <c r="S5" s="100">
         <v>140</v>
       </c>
-      <c r="T5" s="104"/>
+      <c r="T5" s="103"/>
       <c r="U5" s="44" t="s">
         <v>130</v>
       </c>
@@ -2846,10 +2827,10 @@
       <c r="X5" s="45">
         <v>120</v>
       </c>
-      <c r="Y5" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="178">
+      <c r="Y5" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="177">
         <v>0</v>
       </c>
       <c r="AA5" s="43" t="s">
@@ -2857,11 +2838,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="185" t="s">
         <v>222</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2870,19 +2851,19 @@
       <c r="E6" s="4">
         <v>250</v>
       </c>
-      <c r="F6" s="138">
-        <v>1</v>
-      </c>
-      <c r="G6" s="141" t="s">
+      <c r="F6" s="137">
+        <v>1</v>
+      </c>
+      <c r="G6" s="140" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="180" t="s">
+      <c r="I6" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="104"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="44" t="s">
         <v>96</v>
       </c>
@@ -2893,30 +2874,30 @@
       <c r="N6" s="45">
         <v>245</v>
       </c>
-      <c r="O6" s="173">
-        <v>1</v>
-      </c>
-      <c r="P6" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="141" t="s">
+      <c r="O6" s="172">
+        <v>1</v>
+      </c>
+      <c r="P6" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="140" t="s">
         <v>205</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="101">
+      <c r="S6" s="100">
         <v>250</v>
       </c>
-      <c r="T6" s="104"/>
+      <c r="T6" s="103"/>
       <c r="U6" s="44"/>
       <c r="V6" s="4"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="178">
+      <c r="Y6" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="177">
         <v>0</v>
       </c>
       <c r="AA6" s="57" t="s">
@@ -2924,30 +2905,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="186"/>
+      <c r="C7" s="185"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="142"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="104"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="44"/>
       <c r="L7" s="4"/>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
-      <c r="O7" s="173">
-        <v>0</v>
-      </c>
-      <c r="P7" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="142"/>
+      <c r="O7" s="172">
+        <v>0</v>
+      </c>
+      <c r="P7" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="141"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="104"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="103"/>
       <c r="U7" s="44" t="s">
         <v>131</v>
       </c>
@@ -2958,10 +2939,10 @@
       <c r="X7" s="45">
         <v>60</v>
       </c>
-      <c r="Y7" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="178">
+      <c r="Y7" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="177">
         <v>0</v>
       </c>
       <c r="AA7" s="71" t="s">
@@ -2969,30 +2950,30 @@
       </c>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="186"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="142"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="104"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="44"/>
       <c r="L8" s="4"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
-      <c r="O8" s="173">
-        <v>0</v>
-      </c>
-      <c r="P8" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="142"/>
+      <c r="O8" s="172">
+        <v>0</v>
+      </c>
+      <c r="P8" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="141"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="104"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="103"/>
       <c r="U8" s="44" t="s">
         <v>132</v>
       </c>
@@ -3003,10 +2984,10 @@
       <c r="X8" s="45">
         <v>120</v>
       </c>
-      <c r="Y8" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="178">
+      <c r="Y8" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="177">
         <v>0</v>
       </c>
       <c r="AA8" s="73" t="s">
@@ -3015,20 +2996,20 @@
       <c r="AC8" s="38"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="201" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="187"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35">
         <v>60</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="143"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="105" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="74" t="s">
@@ -3039,16 +3020,16 @@
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="46"/>
-      <c r="O9" s="173">
-        <v>0</v>
-      </c>
-      <c r="P9" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="143"/>
+      <c r="O9" s="172">
+        <v>0</v>
+      </c>
+      <c r="P9" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="142"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="106" t="s">
+      <c r="S9" s="104"/>
+      <c r="T9" s="105" t="s">
         <v>60</v>
       </c>
       <c r="U9" s="48" t="s">
@@ -3063,27 +3044,27 @@
       <c r="X9" s="46">
         <v>60</v>
       </c>
-      <c r="Y9" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="178">
+      <c r="Y9" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="177">
         <v>0</v>
       </c>
       <c r="AC9" s="38"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="187"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35">
         <v>100</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="143"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="107" t="s">
+      <c r="I10" s="104"/>
+      <c r="J10" s="106" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="48" t="s">
@@ -3098,16 +3079,16 @@
       <c r="N10" s="46">
         <v>125</v>
       </c>
-      <c r="O10" s="173">
-        <v>0</v>
-      </c>
-      <c r="P10" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="143"/>
+      <c r="O10" s="172">
+        <v>0</v>
+      </c>
+      <c r="P10" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="142"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="106" t="s">
+      <c r="S10" s="104"/>
+      <c r="T10" s="105" t="s">
         <v>56</v>
       </c>
       <c r="U10" s="48" t="s">
@@ -3122,25 +3103,25 @@
       <c r="X10" s="46">
         <v>90</v>
       </c>
-      <c r="Y10" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="178">
+      <c r="Y10" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="177">
         <v>0</v>
       </c>
       <c r="AC10" s="38"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="187"/>
+      <c r="C11" s="186"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="143"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="107"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="48" t="s">
         <v>108</v>
       </c>
@@ -3151,16 +3132,16 @@
       <c r="N11" s="46">
         <v>160</v>
       </c>
-      <c r="O11" s="173">
-        <v>0</v>
-      </c>
-      <c r="P11" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="143"/>
+      <c r="O11" s="172">
+        <v>0</v>
+      </c>
+      <c r="P11" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="142"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="106"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="105"/>
       <c r="U11" s="48" t="s">
         <v>124</v>
       </c>
@@ -3171,27 +3152,27 @@
       <c r="X11" s="46">
         <v>120</v>
       </c>
-      <c r="Y11" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="178">
+      <c r="Y11" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="177">
         <v>0</v>
       </c>
       <c r="AC11" s="38"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="187"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35">
         <v>140</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="143"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106" t="s">
+      <c r="I12" s="104"/>
+      <c r="J12" s="105" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="48" t="s">
@@ -3206,16 +3187,16 @@
       <c r="N12" s="46">
         <v>180</v>
       </c>
-      <c r="O12" s="173">
-        <v>0</v>
-      </c>
-      <c r="P12" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="143"/>
+      <c r="O12" s="172">
+        <v>0</v>
+      </c>
+      <c r="P12" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="142"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="106" t="s">
+      <c r="S12" s="104"/>
+      <c r="T12" s="105" t="s">
         <v>61</v>
       </c>
       <c r="U12" s="48" t="s">
@@ -3230,27 +3211,27 @@
       <c r="X12" s="46">
         <v>150</v>
       </c>
-      <c r="Y12" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="178">
+      <c r="Y12" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="177">
         <v>0</v>
       </c>
       <c r="AC12" s="38"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="187"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35">
         <v>250</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="143"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106" t="s">
+      <c r="I13" s="104"/>
+      <c r="J13" s="105" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="48" t="s">
@@ -3265,16 +3246,16 @@
       <c r="N13" s="46">
         <v>245</v>
       </c>
-      <c r="O13" s="173">
-        <v>0</v>
-      </c>
-      <c r="P13" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="143"/>
+      <c r="O13" s="172">
+        <v>0</v>
+      </c>
+      <c r="P13" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="142"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="108"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="107"/>
       <c r="U13" s="48" t="s">
         <v>121</v>
       </c>
@@ -3285,25 +3266,25 @@
       <c r="X13" s="46">
         <v>100</v>
       </c>
-      <c r="Y13" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="178">
+      <c r="Y13" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="177">
         <v>0</v>
       </c>
       <c r="AC13" s="38"/>
     </row>
     <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="187"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="143"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
       <c r="K14" s="48" t="s">
         <v>105</v>
       </c>
@@ -3314,41 +3295,41 @@
       <c r="N14" s="46">
         <v>320</v>
       </c>
-      <c r="O14" s="173">
-        <v>0</v>
-      </c>
-      <c r="P14" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="143"/>
+      <c r="O14" s="172">
+        <v>0</v>
+      </c>
+      <c r="P14" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="142"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="108"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="107"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
-      <c r="Y14" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="178">
+      <c r="Y14" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="177">
         <v>0</v>
       </c>
       <c r="AC14" s="38"/>
     </row>
     <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="205"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="187"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="144"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="108"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="48" t="s">
         <v>106</v>
       </c>
@@ -3359,16 +3340,16 @@
       <c r="N15" s="47">
         <v>405</v>
       </c>
-      <c r="O15" s="173">
-        <v>0</v>
-      </c>
-      <c r="P15" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="144"/>
+      <c r="O15" s="172">
+        <v>0</v>
+      </c>
+      <c r="P15" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="143"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="108"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="107"/>
       <c r="U15" s="48" t="s">
         <v>133</v>
       </c>
@@ -3379,100 +3360,100 @@
       <c r="X15" s="46">
         <v>120</v>
       </c>
-      <c r="Y15" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="178">
+      <c r="Y15" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="217" t="s">
+      <c r="A16" s="215" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="187" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="179">
+      <c r="E16" s="178">
         <v>60</v>
       </c>
-      <c r="F16" s="138">
-        <v>1</v>
-      </c>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="137">
+        <v>1</v>
+      </c>
+      <c r="G16" s="144" t="s">
         <v>162</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I16" s="109">
+      <c r="I16" s="108">
         <v>60</v>
       </c>
-      <c r="J16" s="110"/>
+      <c r="J16" s="109"/>
       <c r="K16" s="32"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="173">
-        <v>0</v>
-      </c>
-      <c r="P16" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="145" t="s">
+      <c r="O16" s="172">
+        <v>0</v>
+      </c>
+      <c r="P16" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="144" t="s">
         <v>177</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S16" s="109">
+      <c r="S16" s="108">
         <v>60</v>
       </c>
-      <c r="T16" s="132"/>
+      <c r="T16" s="131"/>
       <c r="U16" s="5"/>
       <c r="V16" s="6"/>
       <c r="W16" s="55"/>
       <c r="X16" s="56"/>
-      <c r="Y16" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="178">
+      <c r="Y16" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="187" t="s">
         <v>224</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="179">
+      <c r="E17" s="178">
         <v>100</v>
       </c>
-      <c r="F17" s="138">
-        <v>1</v>
-      </c>
-      <c r="G17" s="145" t="s">
+      <c r="F17" s="137">
+        <v>1</v>
+      </c>
+      <c r="G17" s="144" t="s">
         <v>163</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I17" s="108">
         <v>100</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="110" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="5"/>
@@ -3481,22 +3462,22 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="173">
-        <v>0</v>
-      </c>
-      <c r="P17" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="145" t="s">
+      <c r="O17" s="172">
+        <v>0</v>
+      </c>
+      <c r="P17" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="144" t="s">
         <v>178</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S17" s="109">
+      <c r="S17" s="108">
         <v>100</v>
       </c>
-      <c r="T17" s="132"/>
+      <c r="T17" s="131"/>
       <c r="U17" s="81" t="s">
         <v>177</v>
       </c>
@@ -3505,19 +3486,19 @@
       </c>
       <c r="W17" s="55"/>
       <c r="X17" s="56"/>
-      <c r="Y17" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="178">
+      <c r="Y17" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="218"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="187" t="s">
         <v>225</v>
       </c>
       <c r="D18" s="91" t="s">
@@ -3526,19 +3507,19 @@
       <c r="E18" s="90">
         <v>140</v>
       </c>
-      <c r="F18" s="138">
-        <v>0</v>
-      </c>
-      <c r="G18" s="145" t="s">
+      <c r="F18" s="137">
+        <v>0</v>
+      </c>
+      <c r="G18" s="144" t="s">
         <v>164</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="109">
+      <c r="I18" s="108">
         <v>140</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="110" t="s">
         <v>163</v>
       </c>
       <c r="K18" s="72" t="s">
@@ -3551,22 +3532,22 @@
         <v>150</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="173">
-        <v>0</v>
-      </c>
-      <c r="P18" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="145" t="s">
+      <c r="O18" s="172">
+        <v>0</v>
+      </c>
+      <c r="P18" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="144" t="s">
         <v>206</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S18" s="109">
+      <c r="S18" s="108">
         <v>140</v>
       </c>
-      <c r="T18" s="132"/>
+      <c r="T18" s="131"/>
       <c r="U18" s="81" t="s">
         <v>178</v>
       </c>
@@ -3575,19 +3556,19 @@
       </c>
       <c r="W18" s="55"/>
       <c r="X18" s="56"/>
-      <c r="Y18" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="178">
+      <c r="Y18" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="188" t="s">
+      <c r="C19" s="187" t="s">
         <v>226</v>
       </c>
       <c r="D19" s="91" t="s">
@@ -3596,19 +3577,19 @@
       <c r="E19" s="90">
         <v>250</v>
       </c>
-      <c r="F19" s="138">
-        <v>0</v>
-      </c>
-      <c r="G19" s="145" t="s">
+      <c r="F19" s="137">
+        <v>0</v>
+      </c>
+      <c r="G19" s="144" t="s">
         <v>282</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I19" s="182" t="s">
+      <c r="I19" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="110" t="s">
         <v>164</v>
       </c>
       <c r="K19" s="5"/>
@@ -3617,39 +3598,39 @@
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="173">
-        <v>1</v>
-      </c>
-      <c r="P19" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="145" t="s">
+      <c r="O19" s="172">
+        <v>1</v>
+      </c>
+      <c r="P19" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="144" t="s">
         <v>207</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S19" s="109">
+      <c r="S19" s="108">
         <v>250</v>
       </c>
-      <c r="T19" s="132"/>
+      <c r="T19" s="131"/>
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
       <c r="W19" s="55"/>
       <c r="X19" s="56"/>
-      <c r="Y19" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="178">
+      <c r="Y19" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="189" t="s">
+      <c r="C20" s="188" t="s">
         <v>227</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -3658,39 +3639,39 @@
       <c r="E20" s="21">
         <v>100</v>
       </c>
-      <c r="F20" s="138">
-        <v>1</v>
-      </c>
-      <c r="G20" s="156" t="s">
+      <c r="F20" s="137">
+        <v>1</v>
+      </c>
+      <c r="G20" s="155" t="s">
         <v>275</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="112">
+      <c r="I20" s="111">
         <v>100</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="112"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="173">
-        <v>1</v>
-      </c>
-      <c r="P20" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="156" t="s">
+      <c r="O20" s="172">
+        <v>1</v>
+      </c>
+      <c r="P20" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="155" t="s">
         <v>274</v>
       </c>
       <c r="R20" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="S20" s="112">
+      <c r="S20" s="111">
         <v>100</v>
       </c>
-      <c r="T20" s="113"/>
+      <c r="T20" s="112"/>
       <c r="U20" s="21" t="s">
         <v>25</v>
       </c>
@@ -3701,17 +3682,17 @@
       <c r="X20" s="21">
         <v>60</v>
       </c>
-      <c r="Y20" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="178">
+      <c r="Y20" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="190" t="s">
+      <c r="A21" s="216"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="189" t="s">
         <v>228</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3720,56 +3701,56 @@
       <c r="E21" s="7">
         <v>60</v>
       </c>
-      <c r="F21" s="138">
-        <v>0</v>
-      </c>
-      <c r="G21" s="146" t="s">
+      <c r="F21" s="137">
+        <v>0</v>
+      </c>
+      <c r="G21" s="145" t="s">
         <v>149</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="114">
+      <c r="I21" s="113">
         <v>60</v>
       </c>
-      <c r="J21" s="115"/>
+      <c r="J21" s="114"/>
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
       <c r="M21" s="8"/>
       <c r="N21" s="61"/>
-      <c r="O21" s="173">
-        <v>0</v>
-      </c>
-      <c r="P21" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="146" t="s">
+      <c r="O21" s="172">
+        <v>0</v>
+      </c>
+      <c r="P21" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="145" t="s">
         <v>174</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S21" s="114">
+      <c r="S21" s="113">
         <v>60</v>
       </c>
-      <c r="T21" s="133"/>
+      <c r="T21" s="132"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="178">
+      <c r="Y21" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="189" t="s">
         <v>229</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3778,19 +3759,19 @@
       <c r="E22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="138">
-        <v>1</v>
-      </c>
-      <c r="G22" s="146" t="s">
+      <c r="F22" s="137">
+        <v>1</v>
+      </c>
+      <c r="G22" s="145" t="s">
         <v>160</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I22" s="114">
+      <c r="I22" s="113">
         <v>100</v>
       </c>
-      <c r="J22" s="115" t="s">
+      <c r="J22" s="114" t="s">
         <v>149</v>
       </c>
       <c r="K22" s="62" t="s">
@@ -3803,22 +3784,22 @@
       <c r="N22" s="61">
         <v>90</v>
       </c>
-      <c r="O22" s="173">
-        <v>0</v>
-      </c>
-      <c r="P22" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="146" t="s">
+      <c r="O22" s="172">
+        <v>0</v>
+      </c>
+      <c r="P22" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="145" t="s">
         <v>175</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S22" s="114">
+      <c r="S22" s="113">
         <v>100</v>
       </c>
-      <c r="T22" s="133"/>
+      <c r="T22" s="132"/>
       <c r="U22" s="80" t="s">
         <v>174</v>
       </c>
@@ -3827,19 +3808,19 @@
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="178">
+      <c r="Y22" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="190" t="s">
+      <c r="C23" s="189" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3848,19 +3829,19 @@
       <c r="E23" s="7">
         <v>140</v>
       </c>
-      <c r="F23" s="138">
-        <v>1</v>
-      </c>
-      <c r="G23" s="146" t="s">
+      <c r="F23" s="137">
+        <v>1</v>
+      </c>
+      <c r="G23" s="145" t="s">
         <v>161</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I23" s="113">
         <v>140</v>
       </c>
-      <c r="J23" s="115" t="s">
+      <c r="J23" s="114" t="s">
         <v>160</v>
       </c>
       <c r="K23" s="62" t="s">
@@ -3873,22 +3854,22 @@
       <c r="N23" s="61">
         <v>140</v>
       </c>
-      <c r="O23" s="173">
-        <v>0</v>
-      </c>
-      <c r="P23" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="146" t="s">
+      <c r="O23" s="172">
+        <v>0</v>
+      </c>
+      <c r="P23" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="145" t="s">
         <v>208</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S23" s="114">
+      <c r="S23" s="113">
         <v>140</v>
       </c>
-      <c r="T23" s="133"/>
+      <c r="T23" s="132"/>
       <c r="U23" s="80" t="s">
         <v>175</v>
       </c>
@@ -3897,19 +3878,19 @@
       </c>
       <c r="W23" s="8"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="178">
+      <c r="Y23" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="219"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="190" t="s">
+      <c r="C24" s="189" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -3918,19 +3899,19 @@
       <c r="E24" s="7">
         <v>250</v>
       </c>
-      <c r="F24" s="138">
-        <v>1</v>
-      </c>
-      <c r="G24" s="146" t="s">
+      <c r="F24" s="137">
+        <v>1</v>
+      </c>
+      <c r="G24" s="145" t="s">
         <v>281</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="181" t="s">
+      <c r="I24" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="115" t="s">
+      <c r="J24" s="114" t="s">
         <v>161</v>
       </c>
       <c r="K24" s="62" t="s">
@@ -3943,39 +3924,39 @@
       <c r="N24" s="61">
         <v>250</v>
       </c>
-      <c r="O24" s="173">
-        <v>1</v>
-      </c>
-      <c r="P24" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="146" t="s">
+      <c r="O24" s="172">
+        <v>1</v>
+      </c>
+      <c r="P24" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="145" t="s">
         <v>209</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S24" s="114">
+      <c r="S24" s="113">
         <v>250</v>
       </c>
-      <c r="T24" s="133"/>
+      <c r="T24" s="132"/>
       <c r="U24" s="7"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="178">
+      <c r="Y24" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="217" t="s">
+      <c r="A25" s="215" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="190" t="s">
         <v>232</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -3984,54 +3965,54 @@
       <c r="E25" s="19">
         <v>120</v>
       </c>
-      <c r="F25" s="138">
-        <v>0</v>
-      </c>
-      <c r="G25" s="155" t="s">
+      <c r="F25" s="137">
+        <v>0</v>
+      </c>
+      <c r="G25" s="154" t="s">
         <v>257</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="116">
+      <c r="I25" s="115">
         <v>120</v>
       </c>
-      <c r="J25" s="117"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="173">
-        <v>1</v>
-      </c>
-      <c r="P25" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="155" t="s">
+      <c r="O25" s="172">
+        <v>1</v>
+      </c>
+      <c r="P25" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="154" t="s">
         <v>265</v>
       </c>
       <c r="R25" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="S25" s="116">
+      <c r="S25" s="115">
         <v>120</v>
       </c>
-      <c r="T25" s="117"/>
+      <c r="T25" s="116"/>
       <c r="U25" s="86"/>
       <c r="V25" s="85"/>
       <c r="W25" s="20"/>
       <c r="X25" s="19"/>
-      <c r="Y25" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="178">
+      <c r="Y25" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="218"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="190" t="s">
         <v>233</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -4040,56 +4021,56 @@
       <c r="E26" s="19">
         <v>120</v>
       </c>
-      <c r="F26" s="138">
-        <v>0</v>
-      </c>
-      <c r="G26" s="155" t="s">
+      <c r="F26" s="137">
+        <v>0</v>
+      </c>
+      <c r="G26" s="154" t="s">
         <v>258</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="115">
         <v>120</v>
       </c>
-      <c r="J26" s="117"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="173">
-        <v>1</v>
-      </c>
-      <c r="P26" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="155" t="s">
+      <c r="O26" s="172">
+        <v>1</v>
+      </c>
+      <c r="P26" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="154" t="s">
         <v>266</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="S26" s="116">
+      <c r="S26" s="115">
         <v>120</v>
       </c>
-      <c r="T26" s="117"/>
+      <c r="T26" s="116"/>
       <c r="U26" s="86"/>
       <c r="V26" s="85"/>
       <c r="W26" s="20"/>
       <c r="X26" s="19"/>
-      <c r="Y26" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="178">
+      <c r="Y26" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="190" t="s">
         <v>234</v>
       </c>
       <c r="D27" s="93" t="s">
@@ -4098,39 +4079,39 @@
       <c r="E27" s="92">
         <v>120</v>
       </c>
-      <c r="F27" s="138">
-        <v>0</v>
-      </c>
-      <c r="G27" s="155" t="s">
+      <c r="F27" s="137">
+        <v>0</v>
+      </c>
+      <c r="G27" s="154" t="s">
         <v>259</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="115">
         <v>120</v>
       </c>
-      <c r="J27" s="117"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="173">
-        <v>1</v>
-      </c>
-      <c r="P27" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="155" t="s">
+      <c r="O27" s="172">
+        <v>1</v>
+      </c>
+      <c r="P27" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="154" t="s">
         <v>267</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="S27" s="116">
+      <c r="S27" s="115">
         <v>120</v>
       </c>
-      <c r="T27" s="117"/>
+      <c r="T27" s="116"/>
       <c r="U27" s="86" t="s">
         <v>165</v>
       </c>
@@ -4139,19 +4120,19 @@
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="19"/>
-      <c r="Y27" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="178">
+      <c r="Y27" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="218"/>
+      <c r="A28" s="216"/>
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="190" t="s">
         <v>235</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -4160,39 +4141,39 @@
       <c r="E28" s="19">
         <v>120</v>
       </c>
-      <c r="F28" s="138">
-        <v>1</v>
-      </c>
-      <c r="G28" s="155" t="s">
+      <c r="F28" s="137">
+        <v>1</v>
+      </c>
+      <c r="G28" s="154" t="s">
         <v>260</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="115">
         <v>120</v>
       </c>
-      <c r="J28" s="117"/>
+      <c r="J28" s="116"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="173">
-        <v>1</v>
-      </c>
-      <c r="P28" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="155" t="s">
+      <c r="O28" s="172">
+        <v>1</v>
+      </c>
+      <c r="P28" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="154" t="s">
         <v>268</v>
       </c>
       <c r="R28" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="S28" s="116">
+      <c r="S28" s="115">
         <v>120</v>
       </c>
-      <c r="T28" s="117"/>
+      <c r="T28" s="116"/>
       <c r="U28" s="86" t="s">
         <v>166</v>
       </c>
@@ -4201,19 +4182,19 @@
       </c>
       <c r="W28" s="20"/>
       <c r="X28" s="19"/>
-      <c r="Y28" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="178">
+      <c r="Y28" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="190" t="s">
         <v>236</v>
       </c>
       <c r="D29" s="93" t="s">
@@ -4222,54 +4203,54 @@
       <c r="E29" s="92">
         <v>120</v>
       </c>
-      <c r="F29" s="138">
-        <v>0</v>
-      </c>
-      <c r="G29" s="155" t="s">
+      <c r="F29" s="137">
+        <v>0</v>
+      </c>
+      <c r="G29" s="154" t="s">
         <v>261</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="116">
+      <c r="I29" s="115">
         <v>120</v>
       </c>
-      <c r="J29" s="117"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="173">
-        <v>1</v>
-      </c>
-      <c r="P29" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="155" t="s">
+      <c r="O29" s="172">
+        <v>1</v>
+      </c>
+      <c r="P29" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="154" t="s">
         <v>269</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="S29" s="116">
+      <c r="S29" s="115">
         <v>120</v>
       </c>
-      <c r="T29" s="117"/>
+      <c r="T29" s="116"/>
       <c r="U29" s="19"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="178">
+      <c r="Y29" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="190" t="s">
         <v>237</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -4278,54 +4259,54 @@
       <c r="E30" s="19">
         <v>120</v>
       </c>
-      <c r="F30" s="138">
-        <v>0</v>
-      </c>
-      <c r="G30" s="155" t="s">
+      <c r="F30" s="137">
+        <v>0</v>
+      </c>
+      <c r="G30" s="154" t="s">
         <v>262</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="116">
+      <c r="I30" s="115">
         <v>120</v>
       </c>
-      <c r="J30" s="117"/>
+      <c r="J30" s="116"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="173">
-        <v>1</v>
-      </c>
-      <c r="P30" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="155" t="s">
+      <c r="O30" s="172">
+        <v>1</v>
+      </c>
+      <c r="P30" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="154" t="s">
         <v>270</v>
       </c>
       <c r="R30" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="S30" s="116">
+      <c r="S30" s="115">
         <v>120</v>
       </c>
-      <c r="T30" s="117"/>
+      <c r="T30" s="116"/>
       <c r="U30" s="19"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="178">
+      <c r="Y30" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="190" t="s">
         <v>238</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -4334,56 +4315,56 @@
       <c r="E31" s="19">
         <v>120</v>
       </c>
-      <c r="F31" s="138">
-        <v>0</v>
-      </c>
-      <c r="G31" s="155" t="s">
+      <c r="F31" s="137">
+        <v>0</v>
+      </c>
+      <c r="G31" s="154" t="s">
         <v>263</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="115">
         <v>120</v>
       </c>
-      <c r="J31" s="117"/>
+      <c r="J31" s="116"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="173">
-        <v>1</v>
-      </c>
-      <c r="P31" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="155" t="s">
+      <c r="O31" s="172">
+        <v>1</v>
+      </c>
+      <c r="P31" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="154" t="s">
         <v>271</v>
       </c>
       <c r="R31" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="S31" s="116">
+      <c r="S31" s="115">
         <v>120</v>
       </c>
-      <c r="T31" s="117"/>
+      <c r="T31" s="116"/>
       <c r="U31" s="86"/>
       <c r="V31" s="85"/>
       <c r="W31" s="20"/>
       <c r="X31" s="19"/>
-      <c r="Y31" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="178">
+      <c r="Y31" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="190" t="s">
         <v>239</v>
       </c>
       <c r="D32" s="93" t="s">
@@ -4392,56 +4373,56 @@
       <c r="E32" s="92">
         <v>120</v>
       </c>
-      <c r="F32" s="138">
-        <v>0</v>
-      </c>
-      <c r="G32" s="155" t="s">
+      <c r="F32" s="137">
+        <v>0</v>
+      </c>
+      <c r="G32" s="154" t="s">
         <v>264</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I32" s="116">
+      <c r="I32" s="115">
         <v>120</v>
       </c>
-      <c r="J32" s="117"/>
+      <c r="J32" s="116"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="173">
-        <v>1</v>
-      </c>
-      <c r="P32" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="155" t="s">
+      <c r="O32" s="172">
+        <v>1</v>
+      </c>
+      <c r="P32" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="154" t="s">
         <v>272</v>
       </c>
       <c r="R32" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="S32" s="116">
+      <c r="S32" s="115">
         <v>120</v>
       </c>
-      <c r="T32" s="117"/>
+      <c r="T32" s="116"/>
       <c r="U32" s="19"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="178">
+      <c r="Y32" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="190" t="s">
         <v>240</v>
       </c>
       <c r="D33" s="93" t="s">
@@ -4450,19 +4431,19 @@
       <c r="E33" s="92">
         <v>120</v>
       </c>
-      <c r="F33" s="138">
-        <v>0</v>
-      </c>
-      <c r="G33" s="155" t="s">
+      <c r="F33" s="137">
+        <v>0</v>
+      </c>
+      <c r="G33" s="154" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="116">
+      <c r="I33" s="115">
         <v>120</v>
       </c>
-      <c r="J33" s="118" t="s">
+      <c r="J33" s="117" t="s">
         <v>156</v>
       </c>
       <c r="K33" s="59" t="s">
@@ -4475,41 +4456,41 @@
       <c r="N33" s="58">
         <v>70</v>
       </c>
-      <c r="O33" s="173">
+      <c r="O33" s="172">
         <v>11</v>
       </c>
-      <c r="P33" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="155" t="s">
+      <c r="P33" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="154" t="s">
         <v>273</v>
       </c>
       <c r="R33" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="S33" s="116">
+      <c r="S33" s="115">
         <v>120</v>
       </c>
-      <c r="T33" s="117"/>
+      <c r="T33" s="116"/>
       <c r="U33" s="19"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="19"/>
-      <c r="Y33" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="178">
+      <c r="Y33" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="217" t="s">
+      <c r="A34" s="215" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="191" t="s">
         <v>241</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -4518,56 +4499,56 @@
       <c r="E34" s="9">
         <v>60</v>
       </c>
-      <c r="F34" s="138">
-        <v>1</v>
-      </c>
-      <c r="G34" s="147" t="s">
+      <c r="F34" s="137">
+        <v>1</v>
+      </c>
+      <c r="G34" s="146" t="s">
         <v>157</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="119">
+      <c r="I34" s="118">
         <v>60</v>
       </c>
-      <c r="J34" s="120"/>
+      <c r="J34" s="119"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="173">
-        <v>0</v>
-      </c>
-      <c r="P34" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="147" t="s">
+      <c r="O34" s="172">
+        <v>0</v>
+      </c>
+      <c r="P34" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="146" t="s">
         <v>171</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="S34" s="119">
+      <c r="S34" s="118">
         <v>60</v>
       </c>
-      <c r="T34" s="120"/>
+      <c r="T34" s="119"/>
       <c r="U34" s="9"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="178">
+      <c r="Y34" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="192" t="s">
+      <c r="C35" s="191" t="s">
         <v>242</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -4576,19 +4557,19 @@
       <c r="E35" s="9">
         <v>100</v>
       </c>
-      <c r="F35" s="138">
-        <v>1</v>
-      </c>
-      <c r="G35" s="147" t="s">
+      <c r="F35" s="137">
+        <v>1</v>
+      </c>
+      <c r="G35" s="146" t="s">
         <v>158</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="119">
+      <c r="I35" s="118">
         <v>100</v>
       </c>
-      <c r="J35" s="121" t="s">
+      <c r="J35" s="120" t="s">
         <v>157</v>
       </c>
       <c r="K35" s="65" t="s">
@@ -4601,22 +4582,22 @@
       <c r="N35" s="64">
         <v>100</v>
       </c>
-      <c r="O35" s="173">
-        <v>0</v>
-      </c>
-      <c r="P35" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="147" t="s">
+      <c r="O35" s="172">
+        <v>0</v>
+      </c>
+      <c r="P35" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="146" t="s">
         <v>172</v>
       </c>
       <c r="R35" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="S35" s="119">
+      <c r="S35" s="118">
         <v>100</v>
       </c>
-      <c r="T35" s="120"/>
+      <c r="T35" s="119"/>
       <c r="U35" s="75" t="s">
         <v>171</v>
       </c>
@@ -4625,19 +4606,19 @@
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="178">
+      <c r="Y35" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="218"/>
+      <c r="A36" s="216"/>
       <c r="B36" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="191" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="95" t="s">
@@ -4646,19 +4627,19 @@
       <c r="E36" s="94">
         <v>140</v>
       </c>
-      <c r="F36" s="138">
-        <v>0</v>
-      </c>
-      <c r="G36" s="147" t="s">
+      <c r="F36" s="137">
+        <v>0</v>
+      </c>
+      <c r="G36" s="146" t="s">
         <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="119">
+      <c r="I36" s="118">
         <v>140</v>
       </c>
-      <c r="J36" s="121" t="s">
+      <c r="J36" s="120" t="s">
         <v>158</v>
       </c>
       <c r="K36" s="65" t="s">
@@ -4671,22 +4652,22 @@
       <c r="N36" s="64">
         <v>160</v>
       </c>
-      <c r="O36" s="173">
-        <v>0</v>
-      </c>
-      <c r="P36" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="147" t="s">
+      <c r="O36" s="172">
+        <v>0</v>
+      </c>
+      <c r="P36" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="146" t="s">
         <v>210</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="S36" s="119">
+      <c r="S36" s="118">
         <v>140</v>
       </c>
-      <c r="T36" s="120"/>
+      <c r="T36" s="119"/>
       <c r="U36" s="75" t="s">
         <v>172</v>
       </c>
@@ -4695,19 +4676,19 @@
       </c>
       <c r="W36" s="10"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="178">
+      <c r="Y36" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="218"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="191" t="s">
         <v>244</v>
       </c>
       <c r="D37" s="95" t="s">
@@ -4716,19 +4697,19 @@
       <c r="E37" s="94">
         <v>250</v>
       </c>
-      <c r="F37" s="138">
-        <v>0</v>
-      </c>
-      <c r="G37" s="147" t="s">
+      <c r="F37" s="137">
+        <v>0</v>
+      </c>
+      <c r="G37" s="146" t="s">
         <v>180</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="119">
+      <c r="I37" s="118">
         <v>250</v>
       </c>
-      <c r="J37" s="121" t="s">
+      <c r="J37" s="120" t="s">
         <v>159</v>
       </c>
       <c r="K37" s="65" t="s">
@@ -4741,39 +4722,39 @@
       <c r="N37" s="64">
         <v>350</v>
       </c>
-      <c r="O37" s="173">
-        <v>0</v>
-      </c>
-      <c r="P37" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="147" t="s">
+      <c r="O37" s="172">
+        <v>0</v>
+      </c>
+      <c r="P37" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="146" t="s">
         <v>211</v>
       </c>
       <c r="R37" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="S37" s="119">
+      <c r="S37" s="118">
         <v>250</v>
       </c>
-      <c r="T37" s="120"/>
+      <c r="T37" s="119"/>
       <c r="U37" s="9"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="178">
+      <c r="Y37" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="218"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="191" t="s">
         <v>245</v>
       </c>
       <c r="D38" s="95" t="s">
@@ -4782,54 +4763,54 @@
       <c r="E38" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="139">
-        <v>0</v>
-      </c>
-      <c r="G38" s="147" t="s">
+      <c r="F38" s="138">
+        <v>0</v>
+      </c>
+      <c r="G38" s="146" t="s">
         <v>198</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="152" t="s">
+      <c r="I38" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="120"/>
+      <c r="J38" s="119"/>
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="173">
-        <v>1</v>
-      </c>
-      <c r="P38" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="147" t="s">
+      <c r="O38" s="172">
+        <v>1</v>
+      </c>
+      <c r="P38" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="146" t="s">
         <v>212</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="152" t="s">
+      <c r="S38" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="120"/>
+      <c r="T38" s="119"/>
       <c r="U38" s="9"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="11"/>
-      <c r="Y38" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="178">
+      <c r="Y38" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="76"/>
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="192" t="s">
         <v>277</v>
       </c>
       <c r="D39" s="77" t="s">
@@ -4838,19 +4819,19 @@
       <c r="E39" s="78">
         <v>120</v>
       </c>
-      <c r="F39" s="139">
-        <v>0</v>
-      </c>
-      <c r="G39" s="148" t="s">
+      <c r="F39" s="138">
+        <v>0</v>
+      </c>
+      <c r="G39" s="147" t="s">
         <v>278</v>
       </c>
       <c r="H39" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I39" s="122">
+      <c r="I39" s="121">
         <v>120</v>
       </c>
-      <c r="J39" s="123" t="s">
+      <c r="J39" s="122" t="s">
         <v>64</v>
       </c>
       <c r="K39" s="79"/>
@@ -4859,37 +4840,37 @@
       </c>
       <c r="M39" s="77"/>
       <c r="N39" s="78"/>
-      <c r="O39" s="173">
-        <v>1</v>
-      </c>
-      <c r="P39" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="148" t="s">
+      <c r="O39" s="172">
+        <v>1</v>
+      </c>
+      <c r="P39" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="147" t="s">
         <v>279</v>
       </c>
       <c r="R39" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="S39" s="122">
+      <c r="S39" s="121">
         <v>120</v>
       </c>
-      <c r="T39" s="134"/>
+      <c r="T39" s="133"/>
       <c r="U39" s="76"/>
       <c r="V39" s="77"/>
       <c r="W39" s="77"/>
       <c r="X39" s="78"/>
-      <c r="Y39" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="178">
+      <c r="Y39" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="218"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="194" t="s">
+      <c r="C40" s="193" t="s">
         <v>246</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -4898,56 +4879,56 @@
       <c r="E40" s="12">
         <v>60</v>
       </c>
-      <c r="F40" s="138">
-        <v>0</v>
-      </c>
-      <c r="G40" s="151" t="s">
+      <c r="F40" s="137">
+        <v>0</v>
+      </c>
+      <c r="G40" s="150" t="s">
         <v>152</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I40" s="124">
+      <c r="I40" s="123">
         <v>60</v>
       </c>
-      <c r="J40" s="125"/>
+      <c r="J40" s="124"/>
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="173">
-        <v>0</v>
-      </c>
-      <c r="P40" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="151" t="s">
+      <c r="O40" s="172">
+        <v>0</v>
+      </c>
+      <c r="P40" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="150" t="s">
         <v>168</v>
       </c>
       <c r="R40" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S40" s="124">
+      <c r="S40" s="123">
         <v>60</v>
       </c>
-      <c r="T40" s="125"/>
+      <c r="T40" s="124"/>
       <c r="U40" s="12"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
-      <c r="Y40" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="178">
+      <c r="Y40" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="193" t="s">
         <v>247</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -4956,19 +4937,19 @@
       <c r="E41" s="12">
         <v>100</v>
       </c>
-      <c r="F41" s="138">
-        <v>1</v>
-      </c>
-      <c r="G41" s="151" t="s">
+      <c r="F41" s="137">
+        <v>1</v>
+      </c>
+      <c r="G41" s="150" t="s">
         <v>154</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I41" s="124">
+      <c r="I41" s="123">
         <v>100</v>
       </c>
-      <c r="J41" s="125"/>
+      <c r="J41" s="124"/>
       <c r="K41" s="70" t="s">
         <v>152</v>
       </c>
@@ -4979,22 +4960,22 @@
       <c r="N41" s="12">
         <v>120</v>
       </c>
-      <c r="O41" s="173">
-        <v>0</v>
-      </c>
-      <c r="P41" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="151" t="s">
+      <c r="O41" s="172">
+        <v>0</v>
+      </c>
+      <c r="P41" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="150" t="s">
         <v>169</v>
       </c>
       <c r="R41" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S41" s="124">
+      <c r="S41" s="123">
         <v>100</v>
       </c>
-      <c r="T41" s="135"/>
+      <c r="T41" s="134"/>
       <c r="U41" s="87" t="s">
         <v>168</v>
       </c>
@@ -5003,19 +4984,19 @@
       </c>
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
-      <c r="Y41" s="173">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="178">
+      <c r="Y41" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="218"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="193" t="s">
         <v>248</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -5024,19 +5005,19 @@
       <c r="E42" s="12">
         <v>140</v>
       </c>
-      <c r="F42" s="138">
-        <v>1</v>
-      </c>
-      <c r="G42" s="151" t="s">
+      <c r="F42" s="137">
+        <v>1</v>
+      </c>
+      <c r="G42" s="150" t="s">
         <v>181</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I42" s="124">
+      <c r="I42" s="123">
         <v>140</v>
       </c>
-      <c r="J42" s="125"/>
+      <c r="J42" s="124"/>
       <c r="K42" s="69" t="s">
         <v>105</v>
       </c>
@@ -5047,22 +5028,22 @@
       <c r="N42" s="68">
         <v>160</v>
       </c>
-      <c r="O42" s="173">
-        <v>0</v>
-      </c>
-      <c r="P42" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="151" t="s">
+      <c r="O42" s="172">
+        <v>0</v>
+      </c>
+      <c r="P42" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="150" t="s">
         <v>213</v>
       </c>
       <c r="R42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S42" s="124">
+      <c r="S42" s="123">
         <v>140</v>
       </c>
-      <c r="T42" s="135"/>
+      <c r="T42" s="134"/>
       <c r="U42" s="87" t="s">
         <v>169</v>
       </c>
@@ -5071,19 +5052,19 @@
       </c>
       <c r="W42" s="13"/>
       <c r="X42" s="12"/>
-      <c r="Y42" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="178">
+      <c r="Y42" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="193" t="s">
         <v>249</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -5092,19 +5073,19 @@
       <c r="E43" s="12">
         <v>250</v>
       </c>
-      <c r="F43" s="138">
-        <v>1</v>
-      </c>
-      <c r="G43" s="151" t="s">
+      <c r="F43" s="137">
+        <v>1</v>
+      </c>
+      <c r="G43" s="150" t="s">
         <v>182</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I43" s="124">
+      <c r="I43" s="123">
         <v>250</v>
       </c>
-      <c r="J43" s="125"/>
+      <c r="J43" s="124"/>
       <c r="K43" s="70" t="s">
         <v>154</v>
       </c>
@@ -5115,39 +5096,39 @@
       <c r="N43" s="12">
         <v>300</v>
       </c>
-      <c r="O43" s="173">
-        <v>0</v>
-      </c>
-      <c r="P43" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="151" t="s">
+      <c r="O43" s="172">
+        <v>0</v>
+      </c>
+      <c r="P43" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="150" t="s">
         <v>214</v>
       </c>
       <c r="R43" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S43" s="124">
+      <c r="S43" s="123">
         <v>250</v>
       </c>
-      <c r="T43" s="125"/>
+      <c r="T43" s="124"/>
       <c r="U43" s="12"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
-      <c r="Y43" s="173">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="178">
+      <c r="Y43" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="194" t="s">
+      <c r="C44" s="193" t="s">
         <v>250</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5156,56 +5137,58 @@
       <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="139">
-        <v>1</v>
-      </c>
-      <c r="G44" s="151" t="s">
+      <c r="F44" s="138">
+        <v>1</v>
+      </c>
+      <c r="G44" s="150" t="s">
         <v>197</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I44" s="153" t="s">
+      <c r="I44" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="125"/>
+      <c r="J44" s="124"/>
       <c r="K44" s="12"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="173">
-        <v>1</v>
-      </c>
-      <c r="P44" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="151" t="s">
+      <c r="O44" s="172">
+        <v>1</v>
+      </c>
+      <c r="P44" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="150" t="s">
         <v>215</v>
       </c>
       <c r="R44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S44" s="153" t="s">
+      <c r="S44" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="125"/>
+      <c r="T44" s="124"/>
       <c r="U44" s="12"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="178">
+      <c r="Y44" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="208" t="s">
+      <c r="A45" s="206" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="201"/>
-      <c r="C45" s="202" t="s">
+      <c r="B45" s="200" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="194" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -5214,50 +5197,52 @@
       <c r="E45" s="17">
         <v>100</v>
       </c>
-      <c r="F45" s="139">
-        <v>1</v>
-      </c>
-      <c r="G45" s="149" t="s">
+      <c r="F45" s="138">
+        <v>1</v>
+      </c>
+      <c r="G45" s="148" t="s">
         <v>111</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I45" s="126"/>
-      <c r="J45" s="127"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
       <c r="K45" s="49"/>
       <c r="L45" s="16"/>
       <c r="M45" s="51"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="173">
-        <v>0</v>
-      </c>
-      <c r="P45" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="149" t="s">
+      <c r="O45" s="172">
+        <v>0</v>
+      </c>
+      <c r="P45" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="148" t="s">
         <v>126</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="S45" s="126"/>
-      <c r="T45" s="136"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="135"/>
       <c r="U45" s="49"/>
       <c r="V45" s="84"/>
       <c r="W45" s="51"/>
       <c r="X45" s="17"/>
-      <c r="Y45" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="178">
+      <c r="Y45" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="202" t="s">
+      <c r="A46" s="206"/>
+      <c r="B46" s="200" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="194" t="s">
         <v>289</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -5266,19 +5251,19 @@
       <c r="E46" s="17">
         <v>100</v>
       </c>
-      <c r="F46" s="139">
-        <v>1</v>
-      </c>
-      <c r="G46" s="149" t="s">
+      <c r="F46" s="138">
+        <v>1</v>
+      </c>
+      <c r="G46" s="148" t="s">
         <v>112</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I46" s="126">
+      <c r="I46" s="125">
         <v>100</v>
       </c>
-      <c r="J46" s="127" t="s">
+      <c r="J46" s="126" t="s">
         <v>67</v>
       </c>
       <c r="K46" s="49"/>
@@ -5287,22 +5272,22 @@
       </c>
       <c r="M46" s="51"/>
       <c r="N46" s="52"/>
-      <c r="O46" s="173">
-        <v>0</v>
-      </c>
-      <c r="P46" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="149" t="s">
+      <c r="O46" s="172">
+        <v>0</v>
+      </c>
+      <c r="P46" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="148" t="s">
         <v>127</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="S46" s="126">
+      <c r="S46" s="125">
         <v>100</v>
       </c>
-      <c r="T46" s="136"/>
+      <c r="T46" s="135"/>
       <c r="U46" s="49" t="s">
         <v>126</v>
       </c>
@@ -5313,32 +5298,32 @@
         <v>116</v>
       </c>
       <c r="X46" s="17"/>
-      <c r="Y46" s="174">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="178">
+      <c r="Y46" s="173">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="177">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
+      <c r="A47" s="206"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="195"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="139">
-        <v>0</v>
-      </c>
-      <c r="G47" s="149" t="s">
+      <c r="F47" s="138">
+        <v>0</v>
+      </c>
+      <c r="G47" s="148" t="s">
         <v>183</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I47" s="126">
+      <c r="I47" s="125">
         <v>140</v>
       </c>
-      <c r="J47" s="128" t="s">
+      <c r="J47" s="127" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="49"/>
@@ -5347,22 +5332,22 @@
       </c>
       <c r="M47" s="51"/>
       <c r="N47" s="52"/>
-      <c r="O47" s="173">
-        <v>0</v>
-      </c>
-      <c r="P47" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="149" t="s">
+      <c r="O47" s="172">
+        <v>0</v>
+      </c>
+      <c r="P47" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="148" t="s">
         <v>216</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="S47" s="126">
+      <c r="S47" s="125">
         <v>140</v>
       </c>
-      <c r="T47" s="136"/>
+      <c r="T47" s="135"/>
       <c r="U47" s="49" t="s">
         <v>127</v>
       </c>
@@ -5373,32 +5358,32 @@
         <v>117</v>
       </c>
       <c r="X47" s="17"/>
-      <c r="Y47" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="178">
+      <c r="Y47" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
+      <c r="A48" s="206"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="195"/>
+      <c r="C48" s="194"/>
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="139">
-        <v>0</v>
-      </c>
-      <c r="G48" s="149" t="s">
+      <c r="F48" s="138">
+        <v>0</v>
+      </c>
+      <c r="G48" s="148" t="s">
         <v>184</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I48" s="126">
+      <c r="I48" s="125">
         <v>250</v>
       </c>
-      <c r="J48" s="127" t="s">
+      <c r="J48" s="126" t="s">
         <v>75</v>
       </c>
       <c r="K48" s="49"/>
@@ -5407,186 +5392,186 @@
       </c>
       <c r="M48" s="51"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="173">
-        <v>0</v>
-      </c>
-      <c r="P48" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="149" t="s">
+      <c r="O48" s="172">
+        <v>0</v>
+      </c>
+      <c r="P48" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="148" t="s">
         <v>217</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="S48" s="126">
+      <c r="S48" s="125">
         <v>250</v>
       </c>
-      <c r="T48" s="136"/>
+      <c r="T48" s="135"/>
       <c r="U48" s="15"/>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17"/>
-      <c r="Y48" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="178">
+      <c r="Y48" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="208"/>
+      <c r="A49" s="206"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="195"/>
+      <c r="C49" s="194"/>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="139">
-        <v>0</v>
-      </c>
-      <c r="G49" s="149" t="s">
+      <c r="F49" s="138">
+        <v>0</v>
+      </c>
+      <c r="G49" s="148" t="s">
         <v>156</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="I49" s="126"/>
-      <c r="J49" s="127"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="126"/>
       <c r="K49" s="49"/>
       <c r="L49" s="16"/>
       <c r="M49" s="51"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="173">
-        <v>0</v>
-      </c>
-      <c r="P49" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="149" t="s">
+      <c r="O49" s="172">
+        <v>0</v>
+      </c>
+      <c r="P49" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="148" t="s">
         <v>165</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="S49" s="126"/>
-      <c r="T49" s="136"/>
+      <c r="S49" s="125"/>
+      <c r="T49" s="135"/>
       <c r="U49" s="15"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="17"/>
-      <c r="Y49" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="178">
+      <c r="Y49" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="208"/>
+      <c r="A50" s="206"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="195"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="139">
-        <v>0</v>
-      </c>
-      <c r="G50" s="149" t="s">
+      <c r="F50" s="138">
+        <v>0</v>
+      </c>
+      <c r="G50" s="148" t="s">
         <v>253</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="I50" s="126"/>
-      <c r="J50" s="127"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="126"/>
       <c r="K50" s="49"/>
       <c r="L50" s="16"/>
       <c r="M50" s="51"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="173">
-        <v>0</v>
-      </c>
-      <c r="P50" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="149" t="s">
+      <c r="O50" s="172">
+        <v>0</v>
+      </c>
+      <c r="P50" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="148" t="s">
         <v>166</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="S50" s="126"/>
-      <c r="T50" s="136"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="135"/>
       <c r="U50" s="15"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="17"/>
-      <c r="Y50" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="178">
+      <c r="Y50" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="208"/>
+      <c r="A51" s="206"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="195"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="139">
-        <v>0</v>
-      </c>
-      <c r="G51" s="149" t="s">
+      <c r="F51" s="138">
+        <v>0</v>
+      </c>
+      <c r="G51" s="148" t="s">
         <v>254</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="I51" s="126"/>
-      <c r="J51" s="127"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="126"/>
       <c r="K51" s="49"/>
       <c r="L51" s="16"/>
       <c r="M51" s="51"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="173">
-        <v>0</v>
-      </c>
-      <c r="P51" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="149" t="s">
+      <c r="O51" s="172">
+        <v>0</v>
+      </c>
+      <c r="P51" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="148" t="s">
         <v>255</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="S51" s="126"/>
-      <c r="T51" s="136"/>
+      <c r="S51" s="125"/>
+      <c r="T51" s="135"/>
       <c r="U51" s="15"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="17"/>
-      <c r="Y51" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="178">
+      <c r="Y51" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="208"/>
+      <c r="A52" s="206"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="196"/>
+      <c r="C52" s="195"/>
       <c r="D52" s="16"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="139">
-        <v>0</v>
-      </c>
-      <c r="G52" s="149"/>
+      <c r="F52" s="138">
+        <v>0</v>
+      </c>
+      <c r="G52" s="148"/>
       <c r="H52" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I52" s="126"/>
-      <c r="J52" s="127" t="s">
+      <c r="I52" s="125"/>
+      <c r="J52" s="126" t="s">
         <v>79</v>
       </c>
       <c r="K52" s="49" t="s">
@@ -5601,42 +5586,42 @@
       <c r="N52" s="52">
         <v>80</v>
       </c>
-      <c r="O52" s="173">
-        <v>0</v>
-      </c>
-      <c r="P52" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="149"/>
+      <c r="O52" s="172">
+        <v>0</v>
+      </c>
+      <c r="P52" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="148"/>
       <c r="R52" s="16"/>
-      <c r="S52" s="126"/>
-      <c r="T52" s="136"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="135"/>
       <c r="U52" s="15"/>
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17"/>
-      <c r="Y52" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="178">
+      <c r="Y52" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="208"/>
+      <c r="A53" s="206"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="196"/>
+      <c r="C53" s="195"/>
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="139">
-        <v>0</v>
-      </c>
-      <c r="G53" s="149"/>
+      <c r="F53" s="138">
+        <v>0</v>
+      </c>
+      <c r="G53" s="148"/>
       <c r="H53" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127" t="s">
+      <c r="I53" s="125"/>
+      <c r="J53" s="126" t="s">
         <v>81</v>
       </c>
       <c r="K53" s="49" t="s">
@@ -5651,42 +5636,42 @@
       <c r="N53" s="52">
         <v>160</v>
       </c>
-      <c r="O53" s="173">
-        <v>0</v>
-      </c>
-      <c r="P53" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="149"/>
+      <c r="O53" s="172">
+        <v>0</v>
+      </c>
+      <c r="P53" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="148"/>
       <c r="R53" s="16"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="136"/>
+      <c r="S53" s="125"/>
+      <c r="T53" s="135"/>
       <c r="U53" s="15"/>
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="17"/>
-      <c r="Y53" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="178">
+      <c r="Y53" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="208"/>
+      <c r="A54" s="206"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="196"/>
+      <c r="C54" s="195"/>
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="139">
-        <v>0</v>
-      </c>
-      <c r="G54" s="149"/>
+      <c r="F54" s="138">
+        <v>0</v>
+      </c>
+      <c r="G54" s="148"/>
       <c r="H54" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I54" s="126"/>
-      <c r="J54" s="127" t="s">
+      <c r="I54" s="125"/>
+      <c r="J54" s="126" t="s">
         <v>83</v>
       </c>
       <c r="K54" s="49" t="s">
@@ -5701,40 +5686,40 @@
       <c r="N54" s="52">
         <v>120</v>
       </c>
-      <c r="O54" s="173">
-        <v>0</v>
-      </c>
-      <c r="P54" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="149"/>
+      <c r="O54" s="172">
+        <v>0</v>
+      </c>
+      <c r="P54" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="148"/>
       <c r="R54" s="16"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="136"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="135"/>
       <c r="U54" s="15"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="17"/>
-      <c r="Y54" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="178">
+      <c r="Y54" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
+      <c r="A55" s="206"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="196"/>
+      <c r="C55" s="195"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="139">
-        <v>0</v>
-      </c>
-      <c r="G55" s="149"/>
+      <c r="F55" s="138">
+        <v>0</v>
+      </c>
+      <c r="G55" s="148"/>
       <c r="H55" s="16"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="127" t="s">
+      <c r="I55" s="125"/>
+      <c r="J55" s="126" t="s">
         <v>85</v>
       </c>
       <c r="K55" s="49"/>
@@ -5743,40 +5728,40 @@
       </c>
       <c r="M55" s="51"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="173">
-        <v>0</v>
-      </c>
-      <c r="P55" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="149"/>
+      <c r="O55" s="172">
+        <v>0</v>
+      </c>
+      <c r="P55" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="148"/>
       <c r="R55" s="16"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="136"/>
+      <c r="S55" s="125"/>
+      <c r="T55" s="135"/>
       <c r="U55" s="15"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="17"/>
-      <c r="Y55" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="178">
+      <c r="Y55" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="208"/>
+      <c r="A56" s="206"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="196"/>
+      <c r="C56" s="195"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="139">
-        <v>0</v>
-      </c>
-      <c r="G56" s="149"/>
+      <c r="F56" s="138">
+        <v>0</v>
+      </c>
+      <c r="G56" s="148"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="127" t="s">
+      <c r="I56" s="125"/>
+      <c r="J56" s="126" t="s">
         <v>87</v>
       </c>
       <c r="K56" s="49"/>
@@ -5785,40 +5770,40 @@
       </c>
       <c r="M56" s="51"/>
       <c r="N56" s="52"/>
-      <c r="O56" s="173">
-        <v>0</v>
-      </c>
-      <c r="P56" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="149"/>
+      <c r="O56" s="172">
+        <v>0</v>
+      </c>
+      <c r="P56" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="148"/>
       <c r="R56" s="16"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="136"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="135"/>
       <c r="U56" s="15"/>
       <c r="V56" s="16"/>
       <c r="W56" s="16"/>
       <c r="X56" s="17"/>
-      <c r="Y56" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="178">
+      <c r="Y56" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="208"/>
+      <c r="A57" s="206"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="197"/>
+      <c r="C57" s="196"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="139">
-        <v>0</v>
-      </c>
-      <c r="G57" s="150"/>
+      <c r="F57" s="138">
+        <v>0</v>
+      </c>
+      <c r="G57" s="149"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="130" t="s">
+      <c r="I57" s="128"/>
+      <c r="J57" s="129" t="s">
         <v>69</v>
       </c>
       <c r="K57" s="50"/>
@@ -5827,40 +5812,40 @@
       </c>
       <c r="M57" s="53"/>
       <c r="N57" s="54"/>
-      <c r="O57" s="173">
-        <v>0</v>
-      </c>
-      <c r="P57" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="150"/>
+      <c r="O57" s="172">
+        <v>0</v>
+      </c>
+      <c r="P57" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="149"/>
       <c r="R57" s="41"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="137"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="136"/>
       <c r="U57" s="33"/>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
       <c r="X57" s="42"/>
-      <c r="Y57" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="178">
+      <c r="Y57" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
+      <c r="A58" s="206"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="197"/>
+      <c r="C58" s="196"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="139">
-        <v>0</v>
-      </c>
-      <c r="G58" s="150"/>
+      <c r="F58" s="138">
+        <v>0</v>
+      </c>
+      <c r="G58" s="149"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="131" t="s">
+      <c r="I58" s="128"/>
+      <c r="J58" s="130" t="s">
         <v>40</v>
       </c>
       <c r="K58" s="50"/>
@@ -5869,40 +5854,40 @@
       </c>
       <c r="M58" s="53"/>
       <c r="N58" s="54"/>
-      <c r="O58" s="173">
-        <v>0</v>
-      </c>
-      <c r="P58" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="150"/>
+      <c r="O58" s="172">
+        <v>0</v>
+      </c>
+      <c r="P58" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="149"/>
       <c r="R58" s="41"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="137"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="136"/>
       <c r="U58" s="33"/>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
       <c r="X58" s="42"/>
-      <c r="Y58" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="178">
+      <c r="Y58" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
+      <c r="A59" s="206"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="197"/>
+      <c r="C59" s="196"/>
       <c r="D59" s="41"/>
       <c r="E59" s="42"/>
-      <c r="F59" s="139">
-        <v>0</v>
-      </c>
-      <c r="G59" s="150"/>
+      <c r="F59" s="138">
+        <v>0</v>
+      </c>
+      <c r="G59" s="149"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="130" t="s">
+      <c r="I59" s="128"/>
+      <c r="J59" s="129" t="s">
         <v>77</v>
       </c>
       <c r="K59" s="50"/>
@@ -5911,206 +5896,206 @@
       </c>
       <c r="M59" s="53"/>
       <c r="N59" s="54"/>
-      <c r="O59" s="173">
-        <v>0</v>
-      </c>
-      <c r="P59" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="150"/>
+      <c r="O59" s="172">
+        <v>0</v>
+      </c>
+      <c r="P59" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="149"/>
       <c r="R59" s="41"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="137"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="136"/>
       <c r="U59" s="33"/>
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
       <c r="X59" s="42"/>
-      <c r="Y59" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="178">
+      <c r="Y59" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="203" t="s">
+      <c r="A60" s="201" t="s">
         <v>287</v>
       </c>
-      <c r="B60" s="157"/>
-      <c r="C60" s="198"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="139">
-        <v>0</v>
-      </c>
-      <c r="G60" s="161" t="s">
+      <c r="B60" s="156"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="138">
+        <v>0</v>
+      </c>
+      <c r="G60" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="H60" s="158"/>
-      <c r="I60" s="162"/>
-      <c r="J60" s="183"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="165"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="173">
-        <v>0</v>
-      </c>
-      <c r="P60" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="161"/>
-      <c r="R60" s="158"/>
-      <c r="S60" s="162"/>
-      <c r="T60" s="167"/>
-      <c r="U60" s="168"/>
-      <c r="V60" s="158"/>
-      <c r="W60" s="158"/>
-      <c r="X60" s="159"/>
-      <c r="Y60" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="178">
+      <c r="H60" s="157"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="182"/>
+      <c r="K60" s="163"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="172">
+        <v>0</v>
+      </c>
+      <c r="P60" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="161"/>
+      <c r="T60" s="166"/>
+      <c r="U60" s="167"/>
+      <c r="V60" s="157"/>
+      <c r="W60" s="157"/>
+      <c r="X60" s="158"/>
+      <c r="Y60" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="204"/>
-      <c r="B61" s="157"/>
-      <c r="C61" s="198"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
-      <c r="F61" s="139">
-        <v>0</v>
-      </c>
-      <c r="G61" s="161" t="s">
+      <c r="A61" s="202"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="138">
+        <v>0</v>
+      </c>
+      <c r="G61" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="H61" s="158"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="183"/>
-      <c r="K61" s="164"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="165"/>
-      <c r="N61" s="166"/>
-      <c r="O61" s="173">
-        <v>0</v>
-      </c>
-      <c r="P61" s="172">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="161"/>
-      <c r="R61" s="158"/>
-      <c r="S61" s="162"/>
-      <c r="T61" s="167"/>
-      <c r="U61" s="168"/>
-      <c r="V61" s="158"/>
-      <c r="W61" s="158"/>
-      <c r="X61" s="159"/>
-      <c r="Y61" s="174">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="178">
+      <c r="H61" s="157"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="163"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="164"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="172">
+        <v>0</v>
+      </c>
+      <c r="P61" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="160"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="161"/>
+      <c r="T61" s="166"/>
+      <c r="U61" s="167"/>
+      <c r="V61" s="157"/>
+      <c r="W61" s="157"/>
+      <c r="X61" s="158"/>
+      <c r="Y61" s="173">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="205"/>
-      <c r="B62" s="157"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="160">
-        <v>0</v>
-      </c>
-      <c r="G62" s="161" t="s">
+      <c r="A62" s="203"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="159">
+        <v>0</v>
+      </c>
+      <c r="G62" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="H62" s="158" t="s">
+      <c r="H62" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="162">
+      <c r="I62" s="161">
         <v>100</v>
       </c>
-      <c r="J62" s="163" t="s">
+      <c r="J62" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="164"/>
-      <c r="L62" s="158" t="s">
+      <c r="K62" s="163"/>
+      <c r="L62" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="M62" s="165"/>
-      <c r="N62" s="166"/>
-      <c r="O62" s="173">
-        <v>0</v>
-      </c>
-      <c r="P62" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="161" t="s">
+      <c r="M62" s="164"/>
+      <c r="N62" s="165"/>
+      <c r="O62" s="172">
+        <v>0</v>
+      </c>
+      <c r="P62" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="R62" s="158"/>
-      <c r="S62" s="162">
+      <c r="R62" s="157"/>
+      <c r="S62" s="161">
         <v>100</v>
       </c>
-      <c r="T62" s="167"/>
-      <c r="U62" s="168"/>
-      <c r="V62" s="158"/>
-      <c r="W62" s="158"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="175">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="178">
+      <c r="T62" s="166"/>
+      <c r="U62" s="167"/>
+      <c r="V62" s="157"/>
+      <c r="W62" s="157"/>
+      <c r="X62" s="158"/>
+      <c r="Y62" s="174">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="184">
+      <c r="A63" s="183">
         <f>F63+P63+Z63</f>
         <v>64</v>
       </c>
-      <c r="B63" s="169">
+      <c r="B63" s="168">
         <f>F63+O63+Y63</f>
         <v>56</v>
       </c>
-      <c r="C63" s="199"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="170">
+      <c r="C63" s="198"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="169">
         <f>SUM(F3:F62)</f>
         <v>19</v>
       </c>
-      <c r="G63" s="171"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="171"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="176">
+      <c r="G63" s="170"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="170"/>
+      <c r="K63" s="170"/>
+      <c r="L63" s="168"/>
+      <c r="M63" s="168"/>
+      <c r="N63" s="168"/>
+      <c r="O63" s="175">
         <f>SUM(O3:O62)</f>
         <v>26</v>
       </c>
-      <c r="P63" s="177">
+      <c r="P63" s="176">
         <f>SUM(P3:P62)</f>
         <v>32</v>
       </c>
-      <c r="Q63" s="169"/>
-      <c r="R63" s="169"/>
-      <c r="S63" s="169"/>
-      <c r="T63" s="169"/>
-      <c r="U63" s="169"/>
-      <c r="V63" s="169"/>
-      <c r="W63" s="169"/>
-      <c r="X63" s="169"/>
-      <c r="Y63" s="176">
+      <c r="Q63" s="168"/>
+      <c r="R63" s="168"/>
+      <c r="S63" s="168"/>
+      <c r="T63" s="168"/>
+      <c r="U63" s="168"/>
+      <c r="V63" s="168"/>
+      <c r="W63" s="168"/>
+      <c r="X63" s="168"/>
+      <c r="Y63" s="175">
         <f>SUM(Y3:Y62)</f>
         <v>11</v>
       </c>
-      <c r="Z63" s="177">
+      <c r="Z63" s="176">
         <f>SUM(Z3:Z62)</f>
         <v>13</v>
       </c>
